--- a/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
+++ b/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. 개인업무\@ 2023년\23-01. 뉴토피아시스템\01. LXH - 품직혁신지원시스템\01. 산출물\디비설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prais\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F30714-B2A1-41D3-995B-8D7DE578F7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614234C-B867-430C-8D60-74273AC4BA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{96C4C213-6181-49FF-9228-DD6ED82E8303}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13866" firstSheet="1" activeTab="3" xr2:uid="{96C4C213-6181-49FF-9228-DD6ED82E8303}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="23" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="854">
   <si>
     <t>PK</t>
   </si>
@@ -3016,14 +3016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계획 시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획 종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REP_PROPEL_BG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3032,10 +3024,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추진배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REP_ACTIVITY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3044,10 +3032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish 요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REP_CTQ_CTP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3072,10 +3056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish 주요활동 (일반과제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제별 성과 및 실적 정보 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3100,11 +3080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승인자 참여 역할 
-(과제리더 , 팀멤버 , 과제지도/사원 , PROCESS OWNER , 챔피온 , 분임조장 , 분임조사무국,분임조팀장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REP_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3121,14 +3096,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REP_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V 0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.04.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제_Detail테이블 분리 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">승인자 참여 역할 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(과제리더 , 팀멤버 , 과제지도/사원 , PROCESS OWNER , 챔피온 , 분임조장 , 분임조사무국,분임조팀장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제 단계 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 0 = 대기 , 1 = 진행중 , 2 = 종료 , 3 = 취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과제 단계 코드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>과제 단계 코드 
- - 6</t>
+      <t xml:space="preserve"> - 6</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="161"/>
@@ -3138,7 +3152,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -3150,15 +3164,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REP_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과제 단계 상태 ( 0 = 대기 , 1 = 진행중 , 2 = 종료 , 3 = 취소)</t>
+    <t>과제분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> full process , 일반과제 , 10+ No Policy)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (과제 , 분임조) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPORT / CIRCLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과제등록시 0
+실행일자 입력시 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일 report_activity_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 'REP_ROLE', 챔피온=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REP_ACT_START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REP_ACT_END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 착수일(6Sigma 계획일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시 착수일(6Sigma 실시일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish 요약(6Sigma 활동요약)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시 완료일(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진배경(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요활동(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획 완료일(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. 과제 마스터에 종속되는 것 아닌지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. sorting시 문제될듯… 코드화 하는건 어떨지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3169,7 +3271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3357,6 +3459,38 @@
     <font>
       <strike/>
       <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4141,7 +4275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4436,9 +4570,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4565,12 +4696,6 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4585,6 +4710,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5012,7 +5185,7 @@
       <selection sqref="A1:AQ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5024,293 +5197,303 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" customWidth="1"/>
+    <col min="4" max="4" width="50.4140625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="116" t="s">
         <v>766</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="148" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="120"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="161" t="s">
         <v>757</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="125" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="125" t="s">
         <v>760</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="124" t="s">
         <v>761</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="124" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="127">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="126">
         <v>1</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="127" t="s">
         <v>769</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="128" t="s">
         <v>770</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="136" t="s">
         <v>764</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="F6" s="127"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="127">
+      <c r="F6" s="126"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="126">
         <v>2</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="127" t="s">
         <v>767</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>768</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="136" t="s">
         <v>772</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="F7" s="127"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="127"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="127"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="127"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="127"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="127"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="127"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="127"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="127"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="127"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="127"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="134"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
+      <c r="F7" s="126"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="126">
+        <v>3</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>827</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>828</v>
+      </c>
+      <c r="E8" s="129" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" s="130"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="126"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="126"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="126"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="126"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="126"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="126"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="126"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="126"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="126"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="126"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="126"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="126"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="126"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="126"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="126"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5329,18 +5512,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="66.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
@@ -5358,7 +5541,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
@@ -5372,7 +5555,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5386,7 +5569,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
         <v>437</v>
       </c>
@@ -5400,7 +5583,7 @@
       <c r="F5" s="27"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>440</v>
       </c>
@@ -5414,7 +5597,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
         <v>446</v>
       </c>
@@ -5428,7 +5611,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B8" s="49" t="s">
         <v>447</v>
       </c>
@@ -5442,7 +5625,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B9" s="49" t="s">
         <v>593</v>
       </c>
@@ -5456,7 +5639,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B10" s="49" t="s">
         <v>641</v>
       </c>
@@ -5470,7 +5653,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
         <v>664</v>
       </c>
@@ -5484,7 +5667,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>681</v>
       </c>
@@ -5498,7 +5681,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>773</v>
       </c>
@@ -5510,7 +5693,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B14" s="28" t="s">
         <v>745</v>
       </c>
@@ -5522,7 +5705,7 @@
       <c r="F14" s="40"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="46"/>
@@ -5530,7 +5713,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="46"/>
@@ -5538,7 +5721,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="46"/>
@@ -5546,7 +5729,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="46"/>
@@ -5554,7 +5737,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="46"/>
@@ -5562,7 +5745,7 @@
       <c r="F19" s="40"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="46"/>
@@ -5570,7 +5753,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="46"/>
@@ -5578,7 +5761,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="46"/>
@@ -5586,7 +5769,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="46"/>
@@ -5594,7 +5777,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="46"/>
@@ -5602,7 +5785,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="46"/>
@@ -5610,14 +5793,14 @@
       <c r="F25" s="40"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
     </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B27" s="49"/>
       <c r="C27" s="56"/>
       <c r="D27" s="89"/>
@@ -5625,7 +5808,7 @@
       <c r="F27" s="80"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B28" s="49"/>
       <c r="C28" s="56"/>
       <c r="D28" s="89"/>
@@ -5633,7 +5816,7 @@
       <c r="F28" s="80"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B29" s="49"/>
       <c r="C29" s="56"/>
       <c r="D29" s="89"/>
@@ -5641,7 +5824,7 @@
       <c r="F29" s="80"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B30" s="49"/>
       <c r="C30" s="56"/>
       <c r="D30" s="89"/>
@@ -5649,78 +5832,78 @@
       <c r="F30" s="80"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="49"/>
       <c r="C31" s="56"/>
       <c r="D31" s="49"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="49"/>
       <c r="C32" s="56"/>
       <c r="D32" s="49"/>
       <c r="E32" s="80"/>
       <c r="F32" s="80"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="49"/>
       <c r="C33" s="56"/>
       <c r="D33" s="49"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="49"/>
       <c r="C34" s="56"/>
       <c r="D34" s="49"/>
       <c r="E34" s="80"/>
       <c r="F34" s="80"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="49"/>
       <c r="C35" s="56"/>
       <c r="D35" s="49"/>
       <c r="E35" s="80"/>
       <c r="F35" s="80"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="49"/>
       <c r="C36" s="56"/>
       <c r="D36" s="49"/>
       <c r="E36" s="80"/>
       <c r="F36" s="80"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="49"/>
       <c r="C37" s="56"/>
       <c r="D37" s="49"/>
       <c r="E37" s="80"/>
       <c r="F37" s="80"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" s="49"/>
       <c r="C38" s="56"/>
       <c r="D38" s="49"/>
       <c r="E38" s="80"/>
       <c r="F38" s="80"/>
     </row>
-    <row r="40" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G45" s="1"/>
     </row>
   </sheetData>
@@ -5734,80 +5917,80 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:L305"/>
+  <dimension ref="B1:L307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H204" sqref="H204"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="23.58203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.4140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="23.59765625" style="1"/>
+    <col min="13" max="16384" width="23.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
-      <c r="L2" s="166"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
+      <c r="L2" s="179"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169" t="s">
+      <c r="E3" s="181"/>
+      <c r="F3" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
-      <c r="L3" s="167"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+      <c r="L3" s="180"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="172"/>
-      <c r="L4" s="167"/>
-    </row>
-    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="185"/>
+      <c r="L4" s="180"/>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -5832,9 +6015,9 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="167"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L5" s="180"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="83" t="s">
         <v>31</v>
       </c>
@@ -5852,9 +6035,9 @@
       </c>
       <c r="I6" s="88"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="167"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L6" s="180"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
         <v>37</v>
       </c>
@@ -5870,9 +6053,9 @@
       </c>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="167"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L7" s="180"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44" t="s">
         <v>58</v>
       </c>
@@ -5888,9 +6071,9 @@
       </c>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="167"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L8" s="180"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44" t="s">
         <v>59</v>
       </c>
@@ -5906,9 +6089,9 @@
       </c>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="167"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L9" s="180"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
         <v>68</v>
       </c>
@@ -5924,9 +6107,9 @@
       </c>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="167"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L10" s="180"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44" t="s">
         <v>69</v>
       </c>
@@ -5942,9 +6125,9 @@
       </c>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="167"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L11" s="180"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44" t="s">
         <v>173</v>
       </c>
@@ -5960,9 +6143,9 @@
       </c>
       <c r="I12" s="36"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="167"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L12" s="180"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="25" t="s">
         <v>46</v>
       </c>
@@ -5978,9 +6161,9 @@
       </c>
       <c r="I13" s="29"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="167"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L13" s="180"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="30" t="s">
         <v>47</v>
       </c>
@@ -5996,9 +6179,9 @@
       </c>
       <c r="I14" s="29"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="167"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L14" s="180"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
         <v>189</v>
       </c>
@@ -6014,9 +6197,9 @@
       </c>
       <c r="I15" s="36"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="167"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L15" s="180"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="30" t="s">
         <v>191</v>
       </c>
@@ -6032,9 +6215,9 @@
       </c>
       <c r="I16" s="36"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="167"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L16" s="180"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="30" t="s">
         <v>194</v>
       </c>
@@ -6050,9 +6233,9 @@
       </c>
       <c r="I17" s="36"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="167"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L17" s="180"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="44" t="s">
         <v>42</v>
       </c>
@@ -6068,9 +6251,9 @@
       </c>
       <c r="I18" s="36"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="167"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="180"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="64" t="s">
         <v>41</v>
       </c>
@@ -6088,9 +6271,9 @@
       </c>
       <c r="I19" s="71"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="167"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="180"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="48" t="s">
         <v>71</v>
       </c>
@@ -6106,9 +6289,9 @@
       </c>
       <c r="I20" s="60"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="167"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L20" s="180"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="48" t="s">
         <v>74</v>
       </c>
@@ -6124,9 +6307,9 @@
       </c>
       <c r="I21" s="60"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="167"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L21" s="180"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="48" t="s">
         <v>44</v>
       </c>
@@ -6142,9 +6325,9 @@
       </c>
       <c r="I22" s="54"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="167"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="180"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="48" t="s">
         <v>177</v>
       </c>
@@ -6160,9 +6343,9 @@
       </c>
       <c r="I23" s="54"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="167"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="180"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="48" t="s">
         <v>107</v>
       </c>
@@ -6178,9 +6361,9 @@
       </c>
       <c r="I24" s="54"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="167"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="180"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="25" t="s">
         <v>45</v>
       </c>
@@ -6196,9 +6379,9 @@
       </c>
       <c r="I25" s="24"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="167"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L25" s="180"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30" t="s">
         <v>175</v>
       </c>
@@ -6214,9 +6397,9 @@
       </c>
       <c r="I26" s="24"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="167"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="180"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="25" t="s">
         <v>180</v>
       </c>
@@ -6232,9 +6415,9 @@
       </c>
       <c r="I27" s="29"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="167"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L27" s="180"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
         <v>181</v>
       </c>
@@ -6250,9 +6433,9 @@
       </c>
       <c r="I28" s="29"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="167"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L28" s="180"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
         <v>183</v>
       </c>
@@ -6268,9 +6451,9 @@
       </c>
       <c r="I29" s="29"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="167"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L29" s="180"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="30" t="s">
         <v>185</v>
       </c>
@@ -6286,9 +6469,9 @@
       </c>
       <c r="I30" s="29"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="167"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="180"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="30" t="s">
         <v>186</v>
       </c>
@@ -6304,9 +6487,9 @@
       </c>
       <c r="I31" s="29"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="167"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L31" s="180"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="30" t="s">
         <v>48</v>
       </c>
@@ -6322,9 +6505,9 @@
       </c>
       <c r="I32" s="29"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="167"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L32" s="180"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
@@ -6339,9 +6522,9 @@
         <v>106</v>
       </c>
       <c r="I33" s="29"/>
-      <c r="L33" s="167"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L33" s="180"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="30" t="s">
         <v>50</v>
       </c>
@@ -6356,9 +6539,9 @@
         <v>39</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="L34" s="167"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L34" s="180"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="30" t="s">
         <v>197</v>
       </c>
@@ -6373,9 +6556,9 @@
         <v>199</v>
       </c>
       <c r="I35" s="29"/>
-      <c r="L35" s="167"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L35" s="180"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="30" t="s">
         <v>196</v>
       </c>
@@ -6390,9 +6573,9 @@
         <v>198</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="L36" s="167"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L36" s="180"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="30" t="s">
         <v>53</v>
       </c>
@@ -6407,9 +6590,9 @@
         <v>105</v>
       </c>
       <c r="I37" s="29"/>
-      <c r="L37" s="167"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L37" s="180"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="30" t="s">
         <v>52</v>
       </c>
@@ -6424,9 +6607,9 @@
         <v>200</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="L38" s="167"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L38" s="180"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="30" t="s">
         <v>51</v>
       </c>
@@ -6441,66 +6624,66 @@
         <v>104</v>
       </c>
       <c r="I39" s="29"/>
-      <c r="L39" s="179"/>
-    </row>
-    <row r="40" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L39" s="192"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="43"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="175"/>
-    </row>
-    <row r="41" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C40" s="186"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="188"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="161" t="s">
+      <c r="D42" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="162"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="165"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E42" s="175"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="178"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="150" t="s">
+      <c r="D43" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="152" t="s">
+      <c r="E43" s="164"/>
+      <c r="F43" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="167"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="157"/>
-    </row>
-    <row r="45" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="170"/>
+    </row>
+    <row r="45" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="32" t="s">
         <v>9</v>
       </c>
@@ -6526,7 +6709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="83" t="s">
         <v>75</v>
       </c>
@@ -6545,7 +6728,7 @@
       <c r="I46" s="88"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="30" t="s">
         <v>76</v>
       </c>
@@ -6562,7 +6745,7 @@
       <c r="I47" s="21"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="48" t="s">
         <v>77</v>
       </c>
@@ -6579,7 +6762,7 @@
       <c r="I48" s="54"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B49" s="48" t="s">
         <v>78</v>
       </c>
@@ -6596,7 +6779,7 @@
       <c r="I49" s="54"/>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B50" s="48" t="s">
         <v>88</v>
       </c>
@@ -6613,7 +6796,7 @@
       <c r="I50" s="54"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B51" s="48" t="s">
         <v>79</v>
       </c>
@@ -6630,7 +6813,7 @@
       <c r="I51" s="54"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B52" s="48" t="s">
         <v>42</v>
       </c>
@@ -6647,7 +6830,7 @@
       <c r="I52" s="54"/>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B53" s="48" t="s">
         <v>91</v>
       </c>
@@ -6664,7 +6847,7 @@
       <c r="I53" s="54"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B54" s="48" t="s">
         <v>96</v>
       </c>
@@ -6681,7 +6864,7 @@
       <c r="I54" s="54"/>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B55" s="48" t="s">
         <v>97</v>
       </c>
@@ -6698,7 +6881,7 @@
       <c r="I55" s="79"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B56" s="48" t="s">
         <v>98</v>
       </c>
@@ -6715,7 +6898,7 @@
       <c r="I56" s="81"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B57" s="48" t="s">
         <v>92</v>
       </c>
@@ -6732,7 +6915,7 @@
       <c r="I57" s="81"/>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B58" s="48" t="s">
         <v>99</v>
       </c>
@@ -6749,7 +6932,7 @@
       <c r="I58" s="54"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B59" s="48" t="s">
         <v>100</v>
       </c>
@@ -6766,7 +6949,7 @@
       <c r="I59" s="54"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B60" s="48" t="s">
         <v>101</v>
       </c>
@@ -6783,7 +6966,7 @@
       <c r="I60" s="54"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B61" s="48" t="s">
         <v>52</v>
       </c>
@@ -6800,7 +6983,7 @@
       <c r="I61" s="54"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B62" s="82" t="s">
         <v>51</v>
       </c>
@@ -6817,64 +7000,64 @@
       <c r="I62" s="54"/>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="43"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="160"/>
-    </row>
-    <row r="64" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C63" s="171"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="172"/>
+      <c r="F63" s="172"/>
+      <c r="G63" s="172"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="173"/>
+    </row>
+    <row r="64" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="161" t="s">
+      <c r="D65" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="162"/>
-      <c r="F65" s="163"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="165"/>
-    </row>
-    <row r="66" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="175"/>
+      <c r="F65" s="176"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="178"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D66" s="150" t="s">
+      <c r="D66" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="151"/>
-      <c r="F66" s="152" t="s">
+      <c r="E66" s="164"/>
+      <c r="F66" s="165" t="s">
         <v>440</v>
       </c>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="154"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G66" s="166"/>
+      <c r="H66" s="166"/>
+      <c r="I66" s="167"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="155" t="s">
+      <c r="C67" s="168" t="s">
         <v>441</v>
       </c>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="157"/>
-    </row>
-    <row r="68" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D67" s="169"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="170"/>
+    </row>
+    <row r="68" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="32" t="s">
         <v>9</v>
       </c>
@@ -6900,7 +7083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B69" s="83" t="s">
         <v>485</v>
       </c>
@@ -6919,7 +7102,7 @@
       <c r="I69" s="88"/>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B70" s="30" t="s">
         <v>484</v>
       </c>
@@ -6936,7 +7119,7 @@
       <c r="I70" s="21"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B71" s="48" t="s">
         <v>486</v>
       </c>
@@ -6953,7 +7136,7 @@
       <c r="I71" s="54"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B72" s="48" t="s">
         <v>487</v>
       </c>
@@ -6970,7 +7153,7 @@
       <c r="I72" s="54"/>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B73" s="48" t="s">
         <v>488</v>
       </c>
@@ -6987,7 +7170,7 @@
       <c r="I73" s="54"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B74" s="48" t="s">
         <v>489</v>
       </c>
@@ -7004,7 +7187,7 @@
       <c r="I74" s="54"/>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B75" s="48" t="s">
         <v>31</v>
       </c>
@@ -7021,7 +7204,7 @@
       <c r="I75" s="54"/>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B76" s="48" t="s">
         <v>490</v>
       </c>
@@ -7038,7 +7221,7 @@
       <c r="I76" s="54"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B77" s="48" t="s">
         <v>491</v>
       </c>
@@ -7055,64 +7238,64 @@
       <c r="I77" s="54"/>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="43"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
-      <c r="G78" s="159"/>
-      <c r="H78" s="159"/>
-      <c r="I78" s="160"/>
-    </row>
-    <row r="79" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C78" s="171"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="172"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="173"/>
+    </row>
+    <row r="79" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="161" t="s">
+      <c r="D80" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="162"/>
-      <c r="F80" s="163"/>
-      <c r="G80" s="164"/>
-      <c r="H80" s="164"/>
-      <c r="I80" s="165"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E80" s="175"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="177"/>
+      <c r="I80" s="178"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B81" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D81" s="150" t="s">
+      <c r="D81" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="151"/>
-      <c r="F81" s="152" t="s">
+      <c r="E81" s="164"/>
+      <c r="F81" s="165" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="154"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G81" s="166"/>
+      <c r="H81" s="166"/>
+      <c r="I81" s="167"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="155" t="s">
+      <c r="C82" s="168" t="s">
         <v>494</v>
       </c>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="156"/>
-      <c r="I82" s="157"/>
-    </row>
-    <row r="83" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="169"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="170"/>
+    </row>
+    <row r="83" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B83" s="32" t="s">
         <v>9</v>
       </c>
@@ -7138,7 +7321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B84" s="83" t="s">
         <v>535</v>
       </c>
@@ -7157,7 +7340,7 @@
       <c r="I84" s="88"/>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B85" s="30" t="s">
         <v>536</v>
       </c>
@@ -7174,7 +7357,7 @@
       <c r="I85" s="21"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B86" s="48" t="s">
         <v>548</v>
       </c>
@@ -7191,7 +7374,7 @@
       <c r="I86" s="54"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B87" s="48" t="s">
         <v>538</v>
       </c>
@@ -7208,7 +7391,7 @@
       <c r="I87" s="54"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B88" s="48" t="s">
         <v>544</v>
       </c>
@@ -7225,7 +7408,7 @@
       <c r="I88" s="54"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B89" s="48" t="s">
         <v>545</v>
       </c>
@@ -7242,7 +7425,7 @@
       <c r="I89" s="54"/>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" s="48" t="s">
         <v>546</v>
       </c>
@@ -7259,7 +7442,7 @@
       <c r="I90" s="54"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" s="48" t="s">
         <v>547</v>
       </c>
@@ -7276,7 +7459,7 @@
       <c r="I91" s="54"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B92" s="48" t="s">
         <v>537</v>
       </c>
@@ -7293,7 +7476,7 @@
       <c r="I92" s="54"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B93" s="48" t="s">
         <v>549</v>
       </c>
@@ -7310,7 +7493,7 @@
       <c r="I93" s="79"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B94" s="48" t="s">
         <v>550</v>
       </c>
@@ -7327,7 +7510,7 @@
       <c r="I94" s="81"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B95" s="48"/>
       <c r="C95" s="28"/>
       <c r="D95" s="80"/>
@@ -7338,67 +7521,67 @@
       <c r="I95" s="81"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B96" s="43"/>
-      <c r="C96" s="158"/>
-      <c r="D96" s="159"/>
-      <c r="E96" s="159"/>
-      <c r="F96" s="159"/>
-      <c r="G96" s="159"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="160"/>
-    </row>
-    <row r="97" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C96" s="171"/>
+      <c r="D96" s="172"/>
+      <c r="E96" s="172"/>
+      <c r="F96" s="172"/>
+      <c r="G96" s="172"/>
+      <c r="H96" s="172"/>
+      <c r="I96" s="173"/>
+    </row>
+    <row r="97" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B98" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="176" t="s">
+      <c r="D98" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="176"/>
-      <c r="F98" s="177"/>
-      <c r="G98" s="177"/>
-      <c r="H98" s="177"/>
-      <c r="I98" s="178"/>
-      <c r="L98" s="166"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E98" s="189"/>
+      <c r="F98" s="190"/>
+      <c r="G98" s="190"/>
+      <c r="H98" s="190"/>
+      <c r="I98" s="191"/>
+      <c r="L98" s="179"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="168" t="s">
+      <c r="D99" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="168"/>
-      <c r="F99" s="169" t="s">
+      <c r="E99" s="181"/>
+      <c r="F99" s="182" t="s">
         <v>446</v>
       </c>
-      <c r="G99" s="169"/>
-      <c r="H99" s="169"/>
-      <c r="I99" s="170"/>
-      <c r="L99" s="167"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G99" s="182"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="183"/>
+      <c r="L99" s="180"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="171" t="s">
+      <c r="C100" s="184" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="171"/>
-      <c r="E100" s="171"/>
-      <c r="F100" s="171"/>
-      <c r="G100" s="171"/>
-      <c r="H100" s="171"/>
-      <c r="I100" s="172"/>
-      <c r="L100" s="167"/>
-    </row>
-    <row r="101" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D100" s="184"/>
+      <c r="E100" s="184"/>
+      <c r="F100" s="184"/>
+      <c r="G100" s="184"/>
+      <c r="H100" s="184"/>
+      <c r="I100" s="185"/>
+      <c r="L100" s="180"/>
+    </row>
+    <row r="101" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B101" s="7" t="s">
         <v>9</v>
       </c>
@@ -7423,9 +7606,9 @@
       <c r="I101" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="167"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L101" s="180"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="83" t="s">
         <v>551</v>
       </c>
@@ -7443,9 +7626,9 @@
       </c>
       <c r="I102" s="88"/>
       <c r="K102" s="16"/>
-      <c r="L102" s="167"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L102" s="180"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="91" t="s">
         <v>552</v>
       </c>
@@ -7461,9 +7644,9 @@
       </c>
       <c r="I103" s="54"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="167"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L103" s="180"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="91" t="s">
         <v>553</v>
       </c>
@@ -7479,9 +7662,9 @@
       </c>
       <c r="I104" s="60"/>
       <c r="K104" s="16"/>
-      <c r="L104" s="167"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L104" s="180"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="91" t="s">
         <v>554</v>
       </c>
@@ -7497,9 +7680,9 @@
       </c>
       <c r="I105" s="60"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="167"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L105" s="180"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="91" t="s">
         <v>555</v>
       </c>
@@ -7515,9 +7698,9 @@
       </c>
       <c r="I106" s="60"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="167"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L106" s="180"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="91" t="s">
         <v>556</v>
       </c>
@@ -7533,9 +7716,9 @@
       </c>
       <c r="I107" s="60"/>
       <c r="K107" s="16"/>
-      <c r="L107" s="167"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L107" s="180"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="91" t="s">
         <v>557</v>
       </c>
@@ -7551,9 +7734,9 @@
       </c>
       <c r="I108" s="60"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="167"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L108" s="180"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="82" t="s">
         <v>558</v>
       </c>
@@ -7569,9 +7752,9 @@
       </c>
       <c r="I109" s="81"/>
       <c r="K109" s="16"/>
-      <c r="L109" s="167"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L109" s="180"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="48" t="s">
         <v>559</v>
       </c>
@@ -7587,9 +7770,9 @@
       </c>
       <c r="I110" s="81"/>
       <c r="K110" s="16"/>
-      <c r="L110" s="167"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L110" s="180"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="48" t="s">
         <v>560</v>
       </c>
@@ -7605,9 +7788,9 @@
       </c>
       <c r="I111" s="60"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="167"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L111" s="180"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="48" t="s">
         <v>561</v>
       </c>
@@ -7623,9 +7806,9 @@
       </c>
       <c r="I112" s="60"/>
       <c r="K112" s="16"/>
-      <c r="L112" s="167"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L112" s="180"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="48" t="s">
         <v>562</v>
       </c>
@@ -7641,9 +7824,9 @@
       </c>
       <c r="I113" s="60"/>
       <c r="K113" s="16"/>
-      <c r="L113" s="167"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L113" s="180"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="91" t="s">
         <v>563</v>
       </c>
@@ -7659,9 +7842,9 @@
       </c>
       <c r="I114" s="60"/>
       <c r="K114" s="16"/>
-      <c r="L114" s="167"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L114" s="180"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="48" t="s">
         <v>565</v>
       </c>
@@ -7677,9 +7860,9 @@
       </c>
       <c r="I115" s="60"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="167"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L115" s="180"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="48" t="s">
         <v>566</v>
       </c>
@@ -7695,9 +7878,9 @@
       </c>
       <c r="I116" s="60"/>
       <c r="K116" s="16"/>
-      <c r="L116" s="167"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L116" s="180"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="48" t="s">
         <v>567</v>
       </c>
@@ -7713,9 +7896,9 @@
       </c>
       <c r="I117" s="54"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="167"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L117" s="180"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="48" t="s">
         <v>568</v>
       </c>
@@ -7731,9 +7914,9 @@
       </c>
       <c r="I118" s="54"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="167"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L118" s="180"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="48" t="s">
         <v>569</v>
       </c>
@@ -7749,9 +7932,9 @@
       </c>
       <c r="I119" s="54"/>
       <c r="K119" s="16"/>
-      <c r="L119" s="167"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L119" s="180"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="25" t="s">
         <v>570</v>
       </c>
@@ -7767,9 +7950,9 @@
       </c>
       <c r="I120" s="24"/>
       <c r="K120" s="16"/>
-      <c r="L120" s="167"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L120" s="180"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="30" t="s">
         <v>571</v>
       </c>
@@ -7785,9 +7968,9 @@
       </c>
       <c r="I121" s="24"/>
       <c r="K121" s="16"/>
-      <c r="L121" s="167"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L121" s="180"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="25" t="s">
         <v>572</v>
       </c>
@@ -7803,9 +7986,9 @@
       </c>
       <c r="I122" s="29"/>
       <c r="K122" s="16"/>
-      <c r="L122" s="167"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L122" s="180"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="30" t="s">
         <v>573</v>
       </c>
@@ -7821,9 +8004,9 @@
       </c>
       <c r="I123" s="29"/>
       <c r="K123" s="31"/>
-      <c r="L123" s="167"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L123" s="180"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="30" t="s">
         <v>574</v>
       </c>
@@ -7839,66 +8022,66 @@
       </c>
       <c r="I124" s="29"/>
       <c r="K124" s="31"/>
-      <c r="L124" s="167"/>
-    </row>
-    <row r="125" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L124" s="180"/>
+    </row>
+    <row r="125" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B125" s="43"/>
-      <c r="C125" s="173"/>
-      <c r="D125" s="174"/>
-      <c r="E125" s="174"/>
-      <c r="F125" s="174"/>
-      <c r="G125" s="174"/>
-      <c r="H125" s="174"/>
-      <c r="I125" s="175"/>
-    </row>
-    <row r="126" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C125" s="186"/>
+      <c r="D125" s="187"/>
+      <c r="E125" s="187"/>
+      <c r="F125" s="187"/>
+      <c r="G125" s="187"/>
+      <c r="H125" s="187"/>
+      <c r="I125" s="188"/>
+    </row>
+    <row r="126" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B127" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="161" t="s">
+      <c r="D127" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="162"/>
-      <c r="F127" s="163"/>
-      <c r="G127" s="164"/>
-      <c r="H127" s="164"/>
-      <c r="I127" s="165"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E127" s="175"/>
+      <c r="F127" s="176"/>
+      <c r="G127" s="177"/>
+      <c r="H127" s="177"/>
+      <c r="I127" s="178"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D128" s="150" t="s">
+      <c r="D128" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="151"/>
-      <c r="F128" s="152" t="s">
+      <c r="E128" s="164"/>
+      <c r="F128" s="165" t="s">
         <v>447</v>
       </c>
-      <c r="G128" s="153"/>
-      <c r="H128" s="153"/>
-      <c r="I128" s="154"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G128" s="166"/>
+      <c r="H128" s="166"/>
+      <c r="I128" s="167"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="155" t="s">
+      <c r="C129" s="168" t="s">
         <v>525</v>
       </c>
-      <c r="D129" s="156"/>
-      <c r="E129" s="156"/>
-      <c r="F129" s="156"/>
-      <c r="G129" s="156"/>
-      <c r="H129" s="156"/>
-      <c r="I129" s="157"/>
-    </row>
-    <row r="130" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D129" s="169"/>
+      <c r="E129" s="169"/>
+      <c r="F129" s="169"/>
+      <c r="G129" s="169"/>
+      <c r="H129" s="169"/>
+      <c r="I129" s="170"/>
+    </row>
+    <row r="130" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B130" s="32" t="s">
         <v>9</v>
       </c>
@@ -7924,7 +8107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B131" s="91" t="s">
         <v>575</v>
       </c>
@@ -7943,7 +8126,7 @@
       <c r="I131" s="96"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B132" s="91" t="s">
         <v>587</v>
       </c>
@@ -7957,10 +8140,10 @@
       <c r="H132" s="59" t="s">
         <v>588</v>
       </c>
-      <c r="I132" s="99"/>
+      <c r="I132" s="98"/>
       <c r="K132" s="16"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B133" s="30" t="s">
         <v>576</v>
       </c>
@@ -7977,7 +8160,7 @@
       <c r="I133" s="21"/>
       <c r="K133" s="16"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B134" s="48" t="s">
         <v>577</v>
       </c>
@@ -7994,7 +8177,7 @@
       <c r="I134" s="54"/>
       <c r="K134" s="16"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B135" s="48" t="s">
         <v>578</v>
       </c>
@@ -8011,7 +8194,7 @@
       <c r="I135" s="54"/>
       <c r="K135" s="16"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B136" s="48" t="s">
         <v>579</v>
       </c>
@@ -8028,7 +8211,7 @@
       <c r="I136" s="54"/>
       <c r="K136" s="16"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B137" s="48" t="s">
         <v>580</v>
       </c>
@@ -8045,7 +8228,7 @@
       <c r="I137" s="54"/>
       <c r="K137" s="16"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B138" s="48" t="s">
         <v>581</v>
       </c>
@@ -8062,7 +8245,7 @@
       <c r="I138" s="54"/>
       <c r="K138" s="16"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B139" s="48" t="s">
         <v>582</v>
       </c>
@@ -8079,7 +8262,7 @@
       <c r="I139" s="54"/>
       <c r="K139" s="16"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B140" s="48" t="s">
         <v>583</v>
       </c>
@@ -8096,7 +8279,7 @@
       <c r="I140" s="54"/>
       <c r="K140" s="16"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B141" s="48" t="s">
         <v>584</v>
       </c>
@@ -8113,7 +8296,7 @@
       <c r="I141" s="79"/>
       <c r="K141" s="16"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B142" s="48" t="s">
         <v>585</v>
       </c>
@@ -8130,7 +8313,7 @@
       <c r="I142" s="81"/>
       <c r="K142" s="16"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B143" s="48" t="s">
         <v>586</v>
       </c>
@@ -8147,67 +8330,67 @@
       <c r="I143" s="81"/>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B144" s="43"/>
-      <c r="C144" s="158"/>
-      <c r="D144" s="159"/>
-      <c r="E144" s="159"/>
-      <c r="F144" s="159"/>
-      <c r="G144" s="159"/>
-      <c r="H144" s="159"/>
-      <c r="I144" s="160"/>
-    </row>
-    <row r="145" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C144" s="171"/>
+      <c r="D144" s="172"/>
+      <c r="E144" s="172"/>
+      <c r="F144" s="172"/>
+      <c r="G144" s="172"/>
+      <c r="H144" s="172"/>
+      <c r="I144" s="173"/>
+    </row>
+    <row r="145" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B146" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="176" t="s">
+      <c r="D146" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="176"/>
-      <c r="F146" s="177"/>
-      <c r="G146" s="177"/>
-      <c r="H146" s="177"/>
-      <c r="I146" s="178"/>
-      <c r="L146" s="166"/>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E146" s="189"/>
+      <c r="F146" s="190"/>
+      <c r="G146" s="190"/>
+      <c r="H146" s="190"/>
+      <c r="I146" s="191"/>
+      <c r="L146" s="179"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D147" s="168" t="s">
+      <c r="D147" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="168"/>
-      <c r="F147" s="169" t="s">
+      <c r="E147" s="181"/>
+      <c r="F147" s="182" t="s">
         <v>594</v>
       </c>
-      <c r="G147" s="169"/>
-      <c r="H147" s="169"/>
-      <c r="I147" s="170"/>
-      <c r="L147" s="167"/>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G147" s="182"/>
+      <c r="H147" s="182"/>
+      <c r="I147" s="183"/>
+      <c r="L147" s="180"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="171" t="s">
+      <c r="C148" s="184" t="s">
         <v>590</v>
       </c>
-      <c r="D148" s="171"/>
-      <c r="E148" s="171"/>
-      <c r="F148" s="171"/>
-      <c r="G148" s="171"/>
-      <c r="H148" s="171"/>
-      <c r="I148" s="172"/>
-      <c r="L148" s="167"/>
-    </row>
-    <row r="149" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D148" s="184"/>
+      <c r="E148" s="184"/>
+      <c r="F148" s="184"/>
+      <c r="G148" s="184"/>
+      <c r="H148" s="184"/>
+      <c r="I148" s="185"/>
+      <c r="L148" s="180"/>
+    </row>
+    <row r="149" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B149" s="7" t="s">
         <v>9</v>
       </c>
@@ -8232,9 +8415,9 @@
       <c r="I149" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L149" s="167"/>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L149" s="180"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="83" t="s">
         <v>591</v>
       </c>
@@ -8252,9 +8435,9 @@
       </c>
       <c r="I150" s="88"/>
       <c r="K150" s="16"/>
-      <c r="L150" s="167"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L150" s="180"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="91" t="s">
         <v>592</v>
       </c>
@@ -8270,9 +8453,9 @@
       </c>
       <c r="I151" s="54"/>
       <c r="K151" s="16"/>
-      <c r="L151" s="167"/>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L151" s="180"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="91" t="s">
         <v>755</v>
       </c>
@@ -8288,9 +8471,9 @@
       </c>
       <c r="I152" s="60"/>
       <c r="K152" s="16"/>
-      <c r="L152" s="167"/>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L152" s="180"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="91" t="s">
         <v>621</v>
       </c>
@@ -8306,9 +8489,9 @@
       </c>
       <c r="I153" s="60"/>
       <c r="K153" s="16"/>
-      <c r="L153" s="167"/>
-    </row>
-    <row r="154" spans="2:12" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="L153" s="180"/>
+    </row>
+    <row r="154" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B154" s="91" t="s">
         <v>620</v>
       </c>
@@ -8319,14 +8502,14 @@
       <c r="E154" s="52"/>
       <c r="F154" s="75"/>
       <c r="G154" s="63"/>
-      <c r="H154" s="100" t="s">
+      <c r="H154" s="99" t="s">
         <v>611</v>
       </c>
       <c r="I154" s="60"/>
       <c r="K154" s="16"/>
-      <c r="L154" s="167"/>
-    </row>
-    <row r="155" spans="2:12" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="L154" s="180"/>
+    </row>
+    <row r="155" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B155" s="91" t="s">
         <v>619</v>
       </c>
@@ -8337,14 +8520,14 @@
       <c r="E155" s="52"/>
       <c r="F155" s="52"/>
       <c r="G155" s="58"/>
-      <c r="H155" s="100" t="s">
+      <c r="H155" s="99" t="s">
         <v>613</v>
       </c>
       <c r="I155" s="60"/>
       <c r="K155" s="16"/>
-      <c r="L155" s="167"/>
-    </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L155" s="180"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="91" t="s">
         <v>617</v>
       </c>
@@ -8360,9 +8543,9 @@
       </c>
       <c r="I156" s="60"/>
       <c r="K156" s="16"/>
-      <c r="L156" s="167"/>
-    </row>
-    <row r="157" spans="2:12" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="L156" s="180"/>
+    </row>
+    <row r="157" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B157" s="91" t="s">
         <v>618</v>
       </c>
@@ -8373,14 +8556,14 @@
       <c r="E157" s="52"/>
       <c r="F157" s="52"/>
       <c r="G157" s="58"/>
-      <c r="H157" s="100" t="s">
+      <c r="H157" s="99" t="s">
         <v>614</v>
       </c>
       <c r="I157" s="60"/>
       <c r="K157" s="16"/>
-      <c r="L157" s="167"/>
-    </row>
-    <row r="158" spans="2:12" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="L157" s="180"/>
+    </row>
+    <row r="158" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B158" s="91" t="s">
         <v>622</v>
       </c>
@@ -8391,14 +8574,14 @@
       <c r="E158" s="52"/>
       <c r="F158" s="80"/>
       <c r="G158" s="80"/>
-      <c r="H158" s="100" t="s">
+      <c r="H158" s="99" t="s">
         <v>615</v>
       </c>
       <c r="I158" s="60"/>
       <c r="K158" s="16"/>
-      <c r="L158" s="167"/>
-    </row>
-    <row r="159" spans="2:12" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="L158" s="180"/>
+    </row>
+    <row r="159" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B159" s="91" t="s">
         <v>623</v>
       </c>
@@ -8409,14 +8592,14 @@
       <c r="E159" s="52"/>
       <c r="F159" s="80"/>
       <c r="G159" s="80"/>
-      <c r="H159" s="100" t="s">
+      <c r="H159" s="99" t="s">
         <v>616</v>
       </c>
       <c r="I159" s="60"/>
       <c r="K159" s="16"/>
-      <c r="L159" s="167"/>
-    </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L159" s="180"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="91" t="s">
         <v>624</v>
       </c>
@@ -8432,9 +8615,9 @@
       </c>
       <c r="I160" s="60"/>
       <c r="K160" s="16"/>
-      <c r="L160" s="167"/>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L160" s="180"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B161" s="91" t="s">
         <v>625</v>
       </c>
@@ -8450,117 +8633,117 @@
       </c>
       <c r="I161" s="60"/>
       <c r="K161" s="16"/>
-      <c r="L161" s="167"/>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B162" s="91" t="s">
+      <c r="L161" s="180"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B162" s="147" t="s">
         <v>626</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="57"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="80"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="59" t="s">
+      <c r="D162" s="149"/>
+      <c r="E162" s="150"/>
+      <c r="F162" s="151"/>
+      <c r="G162" s="152"/>
+      <c r="H162" s="153" t="s">
         <v>600</v>
       </c>
-      <c r="I162" s="60"/>
+      <c r="I162" s="154"/>
       <c r="K162" s="16"/>
-      <c r="L162" s="167"/>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B163" s="91" t="s">
+      <c r="L162" s="180"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B163" s="147" t="s">
         <v>627</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D163" s="57"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="98"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="59" t="s">
+      <c r="D163" s="149"/>
+      <c r="E163" s="150"/>
+      <c r="F163" s="155"/>
+      <c r="G163" s="152"/>
+      <c r="H163" s="153" t="s">
         <v>601</v>
       </c>
-      <c r="I163" s="60"/>
+      <c r="I163" s="154"/>
       <c r="K163" s="16"/>
-      <c r="L163" s="167"/>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B164" s="91" t="s">
+      <c r="L163" s="180"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B164" s="147" t="s">
         <v>628</v>
       </c>
-      <c r="C164" s="28" t="s">
+      <c r="C164" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="57"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="52"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="59" t="s">
+      <c r="D164" s="149"/>
+      <c r="E164" s="150"/>
+      <c r="F164" s="150"/>
+      <c r="G164" s="156"/>
+      <c r="H164" s="153" t="s">
         <v>602</v>
       </c>
-      <c r="I164" s="60"/>
+      <c r="I164" s="154"/>
       <c r="K164" s="16"/>
-      <c r="L164" s="167"/>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B165" s="91" t="s">
+      <c r="L164" s="180"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B165" s="147" t="s">
         <v>629</v>
       </c>
-      <c r="C165" s="28" t="s">
+      <c r="C165" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D165" s="57"/>
-      <c r="E165" s="52"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="59" t="s">
+      <c r="D165" s="149"/>
+      <c r="E165" s="150"/>
+      <c r="F165" s="157"/>
+      <c r="G165" s="158"/>
+      <c r="H165" s="153" t="s">
         <v>603</v>
       </c>
-      <c r="I165" s="60"/>
+      <c r="I165" s="154"/>
       <c r="K165" s="16"/>
-      <c r="L165" s="167"/>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B166" s="91" t="s">
+      <c r="L165" s="180"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B166" s="147" t="s">
         <v>630</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D166" s="57"/>
-      <c r="E166" s="52"/>
-      <c r="F166" s="62"/>
-      <c r="G166" s="62"/>
-      <c r="H166" s="59" t="s">
+      <c r="D166" s="149"/>
+      <c r="E166" s="150"/>
+      <c r="F166" s="159"/>
+      <c r="G166" s="159"/>
+      <c r="H166" s="153" t="s">
         <v>604</v>
       </c>
-      <c r="I166" s="60"/>
+      <c r="I166" s="154"/>
       <c r="K166" s="16"/>
-      <c r="L166" s="167"/>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B167" s="91" t="s">
+      <c r="L166" s="180"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B167" s="147" t="s">
         <v>631</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D167" s="57"/>
-      <c r="E167" s="52"/>
-      <c r="F167" s="51"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="59" t="s">
+      <c r="D167" s="149"/>
+      <c r="E167" s="150"/>
+      <c r="F167" s="160"/>
+      <c r="G167" s="160"/>
+      <c r="H167" s="153" t="s">
         <v>605</v>
       </c>
-      <c r="I167" s="60"/>
+      <c r="I167" s="154"/>
       <c r="K167" s="16"/>
-      <c r="L167" s="167"/>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L167" s="180"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B168" s="91" t="s">
         <v>632</v>
       </c>
@@ -8576,9 +8759,9 @@
       </c>
       <c r="I168" s="60"/>
       <c r="K168" s="16"/>
-      <c r="L168" s="167"/>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L168" s="180"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B169" s="91" t="s">
         <v>633</v>
       </c>
@@ -8594,9 +8777,9 @@
       </c>
       <c r="I169" s="60"/>
       <c r="K169" s="16"/>
-      <c r="L169" s="167"/>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L169" s="180"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B170" s="91" t="s">
         <v>634</v>
       </c>
@@ -8612,9 +8795,9 @@
       </c>
       <c r="I170" s="60"/>
       <c r="K170" s="16"/>
-      <c r="L170" s="167"/>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L170" s="180"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B171" s="91" t="s">
         <v>635</v>
       </c>
@@ -8630,9 +8813,9 @@
       </c>
       <c r="I171" s="60"/>
       <c r="K171" s="16"/>
-      <c r="L171" s="167"/>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L171" s="180"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="91" t="s">
         <v>636</v>
       </c>
@@ -8648,9 +8831,9 @@
       </c>
       <c r="I172" s="60"/>
       <c r="K172" s="16"/>
-      <c r="L172" s="167"/>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L172" s="180"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B173" s="91" t="s">
         <v>637</v>
       </c>
@@ -8666,9 +8849,9 @@
       </c>
       <c r="I173" s="60"/>
       <c r="K173" s="16"/>
-      <c r="L173" s="167"/>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L173" s="180"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B174" s="91" t="s">
         <v>639</v>
       </c>
@@ -8684,9 +8867,9 @@
       </c>
       <c r="I174" s="60"/>
       <c r="K174" s="16"/>
-      <c r="L174" s="167"/>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L174" s="180"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B175" s="91" t="s">
         <v>728</v>
       </c>
@@ -8702,9 +8885,9 @@
       </c>
       <c r="I175" s="60"/>
       <c r="K175" s="16"/>
-      <c r="L175" s="167"/>
-    </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L175" s="180"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B176" s="91" t="s">
         <v>730</v>
       </c>
@@ -8720,9 +8903,9 @@
       </c>
       <c r="I176" s="60"/>
       <c r="K176" s="16"/>
-      <c r="L176" s="167"/>
-    </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L176" s="180"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="91" t="s">
         <v>638</v>
       </c>
@@ -8738,9 +8921,9 @@
       </c>
       <c r="I177" s="60"/>
       <c r="K177" s="16"/>
-      <c r="L177" s="167"/>
-    </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L177" s="180"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="91" t="s">
         <v>750</v>
       </c>
@@ -8756,9 +8939,9 @@
       </c>
       <c r="I178" s="60"/>
       <c r="K178" s="16"/>
-      <c r="L178" s="116"/>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L178" s="115"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B179" s="91" t="s">
         <v>732</v>
       </c>
@@ -8774,19 +8957,19 @@
       </c>
       <c r="I179" s="60"/>
       <c r="K179" s="16"/>
-      <c r="L179" s="116"/>
-    </row>
-    <row r="180" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L179" s="115"/>
+    </row>
+    <row r="180" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B180" s="43"/>
-      <c r="C180" s="173"/>
-      <c r="D180" s="174"/>
-      <c r="E180" s="174"/>
-      <c r="F180" s="174"/>
-      <c r="G180" s="174"/>
-      <c r="H180" s="174"/>
-      <c r="I180" s="175"/>
-    </row>
-    <row r="181" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C180" s="186"/>
+      <c r="D180" s="187"/>
+      <c r="E180" s="187"/>
+      <c r="F180" s="187"/>
+      <c r="G180" s="187"/>
+      <c r="H180" s="187"/>
+      <c r="I180" s="188"/>
+    </row>
+    <row r="181" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B181" s="37"/>
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
@@ -8796,53 +8979,55 @@
       <c r="H181" s="38"/>
       <c r="I181" s="38"/>
     </row>
-    <row r="182" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="161" t="s">
+      <c r="D182" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E182" s="162"/>
-      <c r="F182" s="163"/>
-      <c r="G182" s="164"/>
-      <c r="H182" s="164"/>
-      <c r="I182" s="165"/>
-    </row>
-    <row r="183" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E182" s="175"/>
+      <c r="F182" s="176"/>
+      <c r="G182" s="177"/>
+      <c r="H182" s="177"/>
+      <c r="I182" s="178"/>
+    </row>
+    <row r="183" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="D183" s="150" t="s">
+        <v>815</v>
+      </c>
+      <c r="D183" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="151"/>
-      <c r="F183" s="152" t="s">
-        <v>821</v>
-      </c>
-      <c r="G183" s="153"/>
-      <c r="H183" s="153"/>
-      <c r="I183" s="154"/>
-    </row>
-    <row r="184" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E183" s="164"/>
+      <c r="F183" s="165" t="s">
+        <v>816</v>
+      </c>
+      <c r="G183" s="166"/>
+      <c r="H183" s="166"/>
+      <c r="I183" s="167"/>
+      <c r="K183" s="145"/>
+    </row>
+    <row r="184" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="155" t="s">
-        <v>819</v>
-      </c>
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="157"/>
-    </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C184" s="168" t="s">
+        <v>814</v>
+      </c>
+      <c r="D184" s="169"/>
+      <c r="E184" s="169"/>
+      <c r="F184" s="169"/>
+      <c r="G184" s="169"/>
+      <c r="H184" s="169"/>
+      <c r="I184" s="170"/>
+      <c r="K184" s="145"/>
+    </row>
+    <row r="185" spans="2:12" ht="17" x14ac:dyDescent="0.45">
       <c r="B185" s="7" t="s">
         <v>9</v>
       </c>
@@ -8864,28 +9049,30 @@
       <c r="H185" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I185" s="143" t="s">
+      <c r="I185" s="140" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B186" s="145" t="s">
-        <v>826</v>
-      </c>
-      <c r="C186" s="145" t="s">
-        <v>827</v>
-      </c>
-      <c r="D186" s="144"/>
-      <c r="E186" s="144"/>
-      <c r="F186" s="144"/>
+      <c r="K185" s="145"/>
+    </row>
+    <row r="186" spans="2:12" ht="17" x14ac:dyDescent="0.45">
+      <c r="B186" s="142" t="s">
+        <v>820</v>
+      </c>
+      <c r="C186" s="142" t="s">
+        <v>821</v>
+      </c>
+      <c r="D186" s="141"/>
+      <c r="E186" s="141"/>
+      <c r="F186" s="141"/>
       <c r="G186" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H186" s="144"/>
-      <c r="I186" s="144"/>
-    </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B187" s="146" t="s">
+      <c r="H186" s="141"/>
+      <c r="I186" s="141"/>
+      <c r="K186" s="145"/>
+    </row>
+    <row r="187" spans="2:12" ht="17" x14ac:dyDescent="0.45">
+      <c r="B187" s="143" t="s">
         <v>643</v>
       </c>
       <c r="C187" s="59" t="s">
@@ -8898,12 +9085,12 @@
         <v>645</v>
       </c>
       <c r="H187" s="59" t="s">
-        <v>828</v>
-      </c>
-      <c r="I187" s="147"/>
-      <c r="K187" s="16"/>
-    </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.4">
+        <v>822</v>
+      </c>
+      <c r="I187" s="144"/>
+      <c r="K187" s="145"/>
+    </row>
+    <row r="188" spans="2:12" ht="17" x14ac:dyDescent="0.45">
       <c r="B188" s="91" t="s">
         <v>591</v>
       </c>
@@ -8913,16 +9100,16 @@
       <c r="D188" s="57"/>
       <c r="E188" s="52"/>
       <c r="F188" s="52"/>
-      <c r="G188" s="52" t="s">
+      <c r="G188" s="58" t="s">
         <v>645</v>
       </c>
       <c r="H188" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="I188" s="142"/>
-      <c r="K188" s="16"/>
-    </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I188" s="144"/>
+      <c r="K188" s="145"/>
+    </row>
+    <row r="189" spans="2:12" ht="17" x14ac:dyDescent="0.45">
       <c r="B189" s="91" t="s">
         <v>755</v>
       </c>
@@ -8931,15 +9118,19 @@
       </c>
       <c r="D189" s="57"/>
       <c r="E189" s="52"/>
-      <c r="F189" s="75"/>
-      <c r="G189" s="63"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="58"/>
       <c r="H189" s="59" t="s">
-        <v>756</v>
-      </c>
-      <c r="I189" s="142"/>
-      <c r="K189" s="16"/>
-    </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.4">
+        <v>837</v>
+      </c>
+      <c r="I189" s="144" t="s">
+        <v>838</v>
+      </c>
+      <c r="K189" s="145" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B190" s="91" t="s">
         <v>621</v>
       </c>
@@ -8948,32 +9139,40 @@
       </c>
       <c r="D190" s="57"/>
       <c r="E190" s="52"/>
-      <c r="F190" s="75"/>
-      <c r="G190" s="63"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="58"/>
       <c r="H190" s="59" t="s">
-        <v>597</v>
-      </c>
-      <c r="I190" s="142"/>
-      <c r="K190" s="16"/>
-    </row>
-    <row r="191" spans="2:12" ht="62.4" x14ac:dyDescent="0.4">
+        <v>835</v>
+      </c>
+      <c r="I190" s="144" t="s">
+        <v>836</v>
+      </c>
+      <c r="K190" s="145" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" ht="64" x14ac:dyDescent="0.45">
       <c r="B191" s="91" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C191" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D191" s="57"/>
       <c r="E191" s="52"/>
-      <c r="F191" s="74"/>
-      <c r="G191" s="141"/>
-      <c r="H191" s="100" t="s">
-        <v>830</v>
-      </c>
-      <c r="I191" s="142"/>
-      <c r="K191" s="16"/>
-    </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F191" s="52"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="59" t="s">
+        <v>833</v>
+      </c>
+      <c r="I191" s="144" t="s">
+        <v>834</v>
+      </c>
+      <c r="K191" s="145" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" ht="17" x14ac:dyDescent="0.45">
       <c r="B192" s="91" t="s">
         <v>802</v>
       </c>
@@ -8982,15 +9181,15 @@
       </c>
       <c r="D192" s="57"/>
       <c r="E192" s="52"/>
-      <c r="F192" s="62"/>
-      <c r="G192" s="62"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="58"/>
       <c r="H192" s="59" t="s">
-        <v>804</v>
-      </c>
-      <c r="I192" s="142"/>
-      <c r="K192" s="16"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
+        <v>845</v>
+      </c>
+      <c r="I192" s="144"/>
+      <c r="K192" s="145"/>
+    </row>
+    <row r="193" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B193" s="91" t="s">
         <v>803</v>
       </c>
@@ -8999,407 +9198,413 @@
       </c>
       <c r="D193" s="57"/>
       <c r="E193" s="52"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="58"/>
       <c r="H193" s="59" t="s">
-        <v>805</v>
-      </c>
-      <c r="I193" s="60"/>
-      <c r="K193" s="16"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
+        <v>851</v>
+      </c>
+      <c r="I193" s="144"/>
+      <c r="K193" s="145"/>
+    </row>
+    <row r="194" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B194" s="91" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="C194" s="49" t="s">
-        <v>807</v>
+        <v>20</v>
       </c>
       <c r="D194" s="57"/>
       <c r="E194" s="52"/>
-      <c r="F194" s="62"/>
-      <c r="G194" s="62"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="58"/>
       <c r="H194" s="59" t="s">
-        <v>808</v>
-      </c>
-      <c r="I194" s="60"/>
-      <c r="K194" s="16"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
+        <v>846</v>
+      </c>
+      <c r="I194" s="144"/>
+      <c r="K194" s="145"/>
+    </row>
+    <row r="195" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B195" s="91" t="s">
-        <v>809</v>
+        <v>844</v>
       </c>
       <c r="C195" s="49" t="s">
-        <v>807</v>
+        <v>20</v>
       </c>
       <c r="D195" s="57"/>
       <c r="E195" s="52"/>
-      <c r="F195" s="51"/>
-      <c r="G195" s="51"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="58"/>
       <c r="H195" s="59" t="s">
-        <v>818</v>
-      </c>
-      <c r="I195" s="60"/>
-      <c r="K195" s="16"/>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
+        <v>848</v>
+      </c>
+      <c r="I195" s="144"/>
+      <c r="K195" s="145"/>
+    </row>
+    <row r="196" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B196" s="91" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C196" s="49" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D196" s="57"/>
       <c r="E196" s="52"/>
-      <c r="F196" s="51"/>
-      <c r="G196" s="51"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="58"/>
       <c r="H196" s="59" t="s">
-        <v>811</v>
-      </c>
-      <c r="I196" s="60"/>
-      <c r="K196" s="16"/>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
+        <v>849</v>
+      </c>
+      <c r="I196" s="144"/>
+      <c r="K196" s="145"/>
+    </row>
+    <row r="197" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B197" s="91" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C197" s="49" t="s">
-        <v>43</v>
+        <v>805</v>
       </c>
       <c r="D197" s="57"/>
       <c r="E197" s="52"/>
-      <c r="F197" s="62"/>
-      <c r="G197" s="62"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="58"/>
       <c r="H197" s="59" t="s">
-        <v>813</v>
-      </c>
-      <c r="I197" s="60"/>
-      <c r="K197" s="16"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
+        <v>850</v>
+      </c>
+      <c r="I197" s="144"/>
+      <c r="K197" s="145"/>
+    </row>
+    <row r="198" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B198" s="91" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C198" s="49" t="s">
-        <v>43</v>
+        <v>805</v>
       </c>
       <c r="D198" s="57"/>
       <c r="E198" s="52"/>
-      <c r="F198" s="51"/>
-      <c r="G198" s="51"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="58"/>
       <c r="H198" s="59" t="s">
-        <v>815</v>
-      </c>
-      <c r="I198" s="60"/>
-      <c r="K198" s="16"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
+        <v>847</v>
+      </c>
+      <c r="I198" s="144"/>
+      <c r="K198" s="145"/>
+    </row>
+    <row r="199" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B199" s="91" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C199" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D199" s="57"/>
       <c r="E199" s="52"/>
-      <c r="F199" s="141"/>
-      <c r="G199" s="141"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="58"/>
       <c r="H199" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="I199" s="144"/>
+      <c r="K199" s="145"/>
+    </row>
+    <row r="200" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B200" s="91" t="s">
+        <v>810</v>
+      </c>
+      <c r="C200" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="57"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="59" t="s">
+        <v>811</v>
+      </c>
+      <c r="I200" s="144"/>
+      <c r="K200" s="145"/>
+    </row>
+    <row r="201" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B201" s="91" t="s">
+        <v>812</v>
+      </c>
+      <c r="C201" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="57"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="59" t="s">
+        <v>813</v>
+      </c>
+      <c r="I201" s="144"/>
+      <c r="K201" s="145"/>
+    </row>
+    <row r="202" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B202" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D202" s="57"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="59" t="s">
+        <v>819</v>
+      </c>
+      <c r="I202" s="144"/>
+      <c r="K202" s="145"/>
+    </row>
+    <row r="203" spans="2:11" ht="48" x14ac:dyDescent="0.45">
+      <c r="B203" s="48" t="s">
         <v>817</v>
       </c>
-      <c r="I199" s="60"/>
-      <c r="K199" s="16"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B200" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="C200" s="28" t="s">
+      <c r="C203" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D200" s="51"/>
-      <c r="E200" s="51"/>
-      <c r="F200" s="51"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="49" t="s">
+      <c r="D203" s="57"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="59" t="s">
+        <v>829</v>
+      </c>
+      <c r="I203" s="144" t="s">
+        <v>830</v>
+      </c>
+      <c r="K203" s="145" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="B204" s="48" t="s">
         <v>824</v>
       </c>
-      <c r="I200" s="54"/>
-      <c r="K200" s="16"/>
-    </row>
-    <row r="201" spans="2:11" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="B201" s="48" t="s">
-        <v>822</v>
-      </c>
-      <c r="C201" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D201" s="51"/>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="101" t="s">
+      <c r="C204" s="49" t="s">
         <v>825</v>
       </c>
-      <c r="I201" s="54"/>
-      <c r="K201" s="16"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B202" s="48" t="s">
+      <c r="D204" s="57"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="59" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="I204" s="144" t="s">
         <v>832</v>
       </c>
-      <c r="D202" s="51"/>
-      <c r="E202" s="51"/>
-      <c r="F202" s="51"/>
-      <c r="G202" s="51"/>
-      <c r="H202" s="101" t="s">
-        <v>833</v>
-      </c>
-      <c r="I202" s="54"/>
-      <c r="K202" s="16"/>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="48" t="s">
+      <c r="K204" s="146" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B205" s="48" t="s">
         <v>633</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D203" s="51"/>
-      <c r="E203" s="51"/>
-      <c r="F203" s="51"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="I203" s="54"/>
-      <c r="K203" s="16"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B204" s="48" t="s">
-        <v>634</v>
-      </c>
-      <c r="C204" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D204" s="51"/>
-      <c r="E204" s="51"/>
-      <c r="F204" s="51"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="I204" s="54"/>
-      <c r="K204" s="16"/>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B205" s="48" t="s">
-        <v>635</v>
       </c>
       <c r="C205" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D205" s="62"/>
-      <c r="E205" s="62"/>
-      <c r="F205" s="62"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I205" s="79"/>
-      <c r="K205" s="16"/>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D205" s="57"/>
+      <c r="E205" s="52"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="I205" s="144"/>
+      <c r="K205" s="145" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" ht="17" x14ac:dyDescent="0.45">
       <c r="B206" s="48" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C206" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D206" s="80"/>
-      <c r="E206" s="80"/>
-      <c r="F206" s="80"/>
-      <c r="G206" s="80"/>
-      <c r="H206" s="49" t="s">
+      <c r="D206" s="57"/>
+      <c r="E206" s="52"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="I206" s="144"/>
+      <c r="K206" s="145"/>
+    </row>
+    <row r="207" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B207" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D207" s="57"/>
+      <c r="E207" s="52"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="I207" s="144"/>
+      <c r="K207" s="145"/>
+    </row>
+    <row r="208" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B208" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" s="57"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="I206" s="81"/>
-      <c r="K206" s="16"/>
-    </row>
-    <row r="207" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B207" s="43"/>
-      <c r="C207" s="158"/>
-      <c r="D207" s="159"/>
-      <c r="E207" s="159"/>
-      <c r="F207" s="159"/>
-      <c r="G207" s="159"/>
-      <c r="H207" s="159"/>
-      <c r="I207" s="160"/>
-    </row>
-    <row r="208" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B208" s="37"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="38"/>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
-    </row>
-    <row r="209" spans="2:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="210" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B210" s="3" t="s">
+      <c r="I208" s="144"/>
+      <c r="K208" s="145"/>
+    </row>
+    <row r="209" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B209" s="43"/>
+      <c r="C209" s="171"/>
+      <c r="D209" s="172"/>
+      <c r="E209" s="172"/>
+      <c r="F209" s="172"/>
+      <c r="G209" s="172"/>
+      <c r="H209" s="172"/>
+      <c r="I209" s="173"/>
+    </row>
+    <row r="210" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B210" s="37"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="38"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="38"/>
+      <c r="G210" s="38"/>
+      <c r="H210" s="38"/>
+      <c r="I210" s="38"/>
+    </row>
+    <row r="211" spans="2:11" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="212" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B212" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="161" t="s">
+      <c r="C212" s="4"/>
+      <c r="D212" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E210" s="162"/>
-      <c r="F210" s="163"/>
-      <c r="G210" s="164"/>
-      <c r="H210" s="164"/>
-      <c r="I210" s="165"/>
-    </row>
-    <row r="211" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B211" s="5" t="s">
+      <c r="E212" s="175"/>
+      <c r="F212" s="176"/>
+      <c r="G212" s="177"/>
+      <c r="H212" s="177"/>
+      <c r="I212" s="178"/>
+    </row>
+    <row r="213" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B213" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C213" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D211" s="150" t="s">
+      <c r="D213" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E211" s="151"/>
-      <c r="F211" s="152" t="s">
+      <c r="E213" s="164"/>
+      <c r="F213" s="165" t="s">
         <v>642</v>
       </c>
-      <c r="G211" s="153"/>
-      <c r="H211" s="153"/>
-      <c r="I211" s="154"/>
-    </row>
-    <row r="212" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B212" s="5" t="s">
+      <c r="G213" s="166"/>
+      <c r="H213" s="166"/>
+      <c r="I213" s="167"/>
+    </row>
+    <row r="214" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B214" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C212" s="155" t="s">
+      <c r="C214" s="168" t="s">
         <v>734</v>
       </c>
-      <c r="D212" s="156"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="156"/>
-      <c r="G212" s="156"/>
-      <c r="H212" s="156"/>
-      <c r="I212" s="157"/>
-    </row>
-    <row r="213" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B213" s="32" t="s">
+      <c r="D214" s="169"/>
+      <c r="E214" s="169"/>
+      <c r="F214" s="169"/>
+      <c r="G214" s="169"/>
+      <c r="H214" s="169"/>
+      <c r="I214" s="170"/>
+    </row>
+    <row r="215" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B215" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C215" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D215" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E213" s="9" t="s">
+      <c r="E215" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F213" s="9" t="s">
+      <c r="F215" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G213" s="9" t="s">
+      <c r="G215" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H213" s="9" t="s">
+      <c r="H215" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I213" s="10" t="s">
+      <c r="I215" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B214" s="83" t="s">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B216" s="83" t="s">
         <v>643</v>
       </c>
-      <c r="C214" s="90" t="s">
+      <c r="C216" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D214" s="84"/>
-      <c r="E214" s="85"/>
-      <c r="F214" s="85"/>
-      <c r="G214" s="86" t="s">
+      <c r="D216" s="84"/>
+      <c r="E216" s="85"/>
+      <c r="F216" s="85"/>
+      <c r="G216" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H214" s="87" t="s">
+      <c r="H216" s="87" t="s">
         <v>644</v>
       </c>
-      <c r="I214" s="88"/>
-      <c r="K214" s="16"/>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B215" s="91" t="s">
+      <c r="I216" s="88"/>
+      <c r="K216" s="16"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B217" s="91" t="s">
         <v>591</v>
-      </c>
-      <c r="C215" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D215" s="57"/>
-      <c r="E215" s="52"/>
-      <c r="F215" s="52"/>
-      <c r="G215" s="52" t="s">
-        <v>645</v>
-      </c>
-      <c r="H215" s="59" t="s">
-        <v>595</v>
-      </c>
-      <c r="I215" s="99"/>
-      <c r="K215" s="16"/>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B216" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="C216" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D216" s="17"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="51" t="s">
-        <v>645</v>
-      </c>
-      <c r="H216" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="I216" s="21"/>
-      <c r="K216" s="16"/>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B217" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="C217" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D217" s="17"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="51" t="s">
+      <c r="D217" s="57"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52" t="s">
         <v>645</v>
       </c>
-      <c r="H217" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="I217" s="21"/>
+      <c r="H217" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="I217" s="98"/>
       <c r="K217" s="16"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B218" s="30" t="s">
-        <v>746</v>
+        <v>651</v>
       </c>
       <c r="C218" s="49" t="s">
         <v>70</v>
@@ -9407,1398 +9612,1436 @@
       <c r="D218" s="17"/>
       <c r="E218" s="18"/>
       <c r="F218" s="18"/>
-      <c r="G218" s="52" t="s">
+      <c r="G218" s="51" t="s">
         <v>645</v>
       </c>
       <c r="H218" s="20" t="s">
-        <v>753</v>
+        <v>646</v>
       </c>
       <c r="I218" s="21"/>
       <c r="K218" s="16"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B219" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="C219" s="28" t="s">
-        <v>22</v>
+        <v>739</v>
+      </c>
+      <c r="C219" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="D219" s="17"/>
       <c r="E219" s="18"/>
       <c r="F219" s="18"/>
-      <c r="G219" s="52"/>
+      <c r="G219" s="51" t="s">
+        <v>645</v>
+      </c>
       <c r="H219" s="20" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I219" s="21"/>
       <c r="K219" s="16"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B220" s="48" t="s">
-        <v>653</v>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B220" s="30" t="s">
+        <v>746</v>
       </c>
       <c r="C220" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D220" s="50"/>
-      <c r="E220" s="51"/>
-      <c r="F220" s="51"/>
-      <c r="G220" s="52"/>
-      <c r="H220" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="I220" s="54"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="52" t="s">
+        <v>645</v>
+      </c>
+      <c r="H220" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="I220" s="21"/>
       <c r="K220" s="16"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B221" s="48" t="s">
-        <v>654</v>
-      </c>
-      <c r="C221" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D221" s="51"/>
-      <c r="E221" s="51"/>
-      <c r="F221" s="51"/>
-      <c r="G221" s="51"/>
-      <c r="H221" s="78" t="s">
-        <v>648</v>
-      </c>
-      <c r="I221" s="54"/>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B221" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="C221" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" s="17"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="I221" s="21"/>
       <c r="K221" s="16"/>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B222" s="48" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C222" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D222" s="51"/>
+      <c r="D222" s="50"/>
       <c r="E222" s="51"/>
       <c r="F222" s="51"/>
-      <c r="G222" s="51"/>
-      <c r="H222" s="78" t="s">
-        <v>649</v>
+      <c r="G222" s="52"/>
+      <c r="H222" s="53" t="s">
+        <v>647</v>
       </c>
       <c r="I222" s="54"/>
       <c r="K222" s="16"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B223" s="48" t="s">
-        <v>655</v>
-      </c>
-      <c r="C223" s="28" t="s">
-        <v>43</v>
+        <v>654</v>
+      </c>
+      <c r="C223" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="D223" s="51"/>
       <c r="E223" s="51"/>
       <c r="F223" s="51"/>
       <c r="G223" s="51"/>
-      <c r="H223" s="49" t="s">
-        <v>740</v>
+      <c r="H223" s="78" t="s">
+        <v>648</v>
       </c>
       <c r="I223" s="54"/>
       <c r="K223" s="16"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B224" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="C224" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="C224" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D224" s="51"/>
       <c r="E224" s="51"/>
       <c r="F224" s="51"/>
       <c r="G224" s="51"/>
-      <c r="H224" s="49" t="s">
-        <v>735</v>
+      <c r="H224" s="78" t="s">
+        <v>649</v>
       </c>
       <c r="I224" s="54"/>
       <c r="K224" s="16"/>
     </row>
-    <row r="225" spans="2:11" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B225" s="48" t="s">
-        <v>656</v>
-      </c>
-      <c r="C225" s="49" t="s">
-        <v>70</v>
+        <v>655</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="D225" s="51"/>
       <c r="E225" s="51"/>
       <c r="F225" s="51"/>
       <c r="G225" s="51"/>
-      <c r="H225" s="101" t="s">
-        <v>752</v>
+      <c r="H225" s="49" t="s">
+        <v>740</v>
       </c>
       <c r="I225" s="54"/>
       <c r="K225" s="16"/>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B226" s="48" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="C226" s="28" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D226" s="51"/>
       <c r="E226" s="51"/>
       <c r="F226" s="51"/>
       <c r="G226" s="51"/>
       <c r="H226" s="49" t="s">
-        <v>540</v>
+        <v>735</v>
       </c>
       <c r="I226" s="54"/>
       <c r="K226" s="16"/>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:11" ht="48" x14ac:dyDescent="0.45">
       <c r="B227" s="48" t="s">
-        <v>658</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>20</v>
+        <v>656</v>
+      </c>
+      <c r="C227" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="D227" s="51"/>
       <c r="E227" s="51"/>
       <c r="F227" s="51"/>
       <c r="G227" s="51"/>
-      <c r="H227" s="49" t="s">
-        <v>541</v>
+      <c r="H227" s="100" t="s">
+        <v>752</v>
       </c>
       <c r="I227" s="54"/>
       <c r="K227" s="16"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B228" s="48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C228" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D228" s="62"/>
-      <c r="E228" s="62"/>
-      <c r="F228" s="62"/>
-      <c r="G228" s="62"/>
+      <c r="D228" s="51"/>
+      <c r="E228" s="51"/>
+      <c r="F228" s="51"/>
+      <c r="G228" s="51"/>
       <c r="H228" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I228" s="79"/>
+        <v>540</v>
+      </c>
+      <c r="I228" s="54"/>
       <c r="K228" s="16"/>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B229" s="48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C229" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D229" s="80"/>
-      <c r="E229" s="80"/>
-      <c r="F229" s="80"/>
-      <c r="G229" s="80"/>
+      <c r="D229" s="51"/>
+      <c r="E229" s="51"/>
+      <c r="F229" s="51"/>
+      <c r="G229" s="51"/>
       <c r="H229" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="I229" s="54"/>
+      <c r="K229" s="16"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B230" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D230" s="62"/>
+      <c r="E230" s="62"/>
+      <c r="F230" s="62"/>
+      <c r="G230" s="62"/>
+      <c r="H230" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="I230" s="79"/>
+      <c r="K230" s="16"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B231" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" s="80"/>
+      <c r="E231" s="80"/>
+      <c r="F231" s="80"/>
+      <c r="G231" s="80"/>
+      <c r="H231" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I229" s="81"/>
-      <c r="K229" s="16"/>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B230" s="48" t="s">
+      <c r="I231" s="81"/>
+      <c r="K231" s="16"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B232" s="48" t="s">
         <v>661</v>
       </c>
-      <c r="C230" s="49" t="s">
+      <c r="C232" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D230" s="80"/>
-      <c r="E230" s="80"/>
-      <c r="F230" s="80"/>
-      <c r="G230" s="80"/>
-      <c r="H230" s="49" t="s">
+      <c r="D232" s="80"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="80"/>
+      <c r="G232" s="80"/>
+      <c r="H232" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="I230" s="81"/>
-      <c r="K230" s="16"/>
-    </row>
-    <row r="231" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B231" s="43"/>
-      <c r="C231" s="158"/>
-      <c r="D231" s="159"/>
-      <c r="E231" s="159"/>
-      <c r="F231" s="159"/>
-      <c r="G231" s="159"/>
-      <c r="H231" s="159"/>
-      <c r="I231" s="160"/>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="37"/>
-      <c r="C232" s="38"/>
-      <c r="D232" s="38"/>
-      <c r="E232" s="38"/>
-      <c r="F232" s="38"/>
-      <c r="G232" s="38"/>
-      <c r="H232" s="38"/>
-      <c r="I232" s="38"/>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B233" s="37"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="38"/>
-      <c r="E233" s="38"/>
-      <c r="F233" s="38"/>
-      <c r="G233" s="38"/>
-      <c r="H233" s="38"/>
-      <c r="I233" s="38"/>
-    </row>
-    <row r="234" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B235" s="3" t="s">
+      <c r="I232" s="81"/>
+      <c r="K232" s="16"/>
+    </row>
+    <row r="233" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B233" s="43"/>
+      <c r="C233" s="171"/>
+      <c r="D233" s="172"/>
+      <c r="E233" s="172"/>
+      <c r="F233" s="172"/>
+      <c r="G233" s="172"/>
+      <c r="H233" s="172"/>
+      <c r="I233" s="173"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B234" s="37"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="38"/>
+      <c r="G234" s="38"/>
+      <c r="H234" s="38"/>
+      <c r="I234" s="38"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B235" s="37"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="38"/>
+      <c r="E235" s="38"/>
+      <c r="F235" s="38"/>
+      <c r="G235" s="38"/>
+      <c r="H235" s="38"/>
+      <c r="I235" s="38"/>
+    </row>
+    <row r="236" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B237" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="161" t="s">
+      <c r="C237" s="4"/>
+      <c r="D237" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E235" s="162"/>
-      <c r="F235" s="163"/>
-      <c r="G235" s="164"/>
-      <c r="H235" s="164"/>
-      <c r="I235" s="165"/>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B236" s="5" t="s">
+      <c r="E237" s="175"/>
+      <c r="F237" s="176"/>
+      <c r="G237" s="177"/>
+      <c r="H237" s="177"/>
+      <c r="I237" s="178"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B238" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C238" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D236" s="150" t="s">
+      <c r="D238" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="151"/>
-      <c r="F236" s="152" t="s">
+      <c r="E238" s="164"/>
+      <c r="F238" s="165" t="s">
         <v>665</v>
       </c>
-      <c r="G236" s="153"/>
-      <c r="H236" s="153"/>
-      <c r="I236" s="154"/>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B237" s="5" t="s">
+      <c r="G238" s="166"/>
+      <c r="H238" s="166"/>
+      <c r="I238" s="167"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B239" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C237" s="155" t="s">
+      <c r="C239" s="168" t="s">
         <v>663</v>
       </c>
-      <c r="D237" s="156"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="157"/>
-    </row>
-    <row r="238" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="32" t="s">
+      <c r="D239" s="169"/>
+      <c r="E239" s="169"/>
+      <c r="F239" s="169"/>
+      <c r="G239" s="169"/>
+      <c r="H239" s="169"/>
+      <c r="I239" s="170"/>
+    </row>
+    <row r="240" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B240" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E238" s="9" t="s">
+      <c r="E240" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F238" s="9" t="s">
+      <c r="F240" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G238" s="9" t="s">
+      <c r="G240" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H238" s="9" t="s">
+      <c r="H240" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I238" s="10" t="s">
+      <c r="I240" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B239" s="83" t="s">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B241" s="83" t="s">
         <v>666</v>
       </c>
-      <c r="C239" s="90" t="s">
+      <c r="C241" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D239" s="84"/>
-      <c r="E239" s="85"/>
-      <c r="F239" s="85"/>
-      <c r="G239" s="86" t="s">
+      <c r="D241" s="84"/>
+      <c r="E241" s="85"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H239" s="87" t="s">
+      <c r="H241" s="87" t="s">
         <v>800</v>
       </c>
-      <c r="I239" s="88"/>
-      <c r="K239" s="16"/>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B240" s="103" t="s">
+      <c r="I241" s="88"/>
+      <c r="K241" s="16"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B242" s="102" t="s">
         <v>591</v>
       </c>
-      <c r="C240" s="104" t="s">
+      <c r="C242" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="D240" s="105"/>
-      <c r="E240" s="106"/>
-      <c r="F240" s="106"/>
-      <c r="G240" s="106" t="s">
+      <c r="D242" s="104"/>
+      <c r="E242" s="105"/>
+      <c r="F242" s="105"/>
+      <c r="G242" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="H240" s="107" t="s">
+      <c r="H242" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="I240" s="108"/>
-      <c r="K240" s="16"/>
-    </row>
-    <row r="241" spans="2:11" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="B241" s="30" t="s">
+      <c r="I242" s="107"/>
+      <c r="K242" s="16"/>
+    </row>
+    <row r="243" spans="2:11" ht="48" x14ac:dyDescent="0.45">
+      <c r="B243" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="C241" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D241" s="17"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="18"/>
-      <c r="G241" s="51"/>
-      <c r="H241" s="102" t="s">
-        <v>799</v>
-      </c>
-      <c r="I241" s="21"/>
-      <c r="K241" s="16"/>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B242" s="48" t="s">
-        <v>673</v>
-      </c>
-      <c r="C242" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D242" s="50"/>
-      <c r="E242" s="51"/>
-      <c r="F242" s="51"/>
-      <c r="G242" s="52"/>
-      <c r="H242" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="I242" s="54"/>
-      <c r="K242" s="16"/>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B243" s="48" t="s">
-        <v>668</v>
       </c>
       <c r="C243" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D243" s="51"/>
-      <c r="E243" s="51"/>
-      <c r="F243" s="51"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
       <c r="G243" s="51"/>
-      <c r="H243" s="78" t="s">
-        <v>671</v>
-      </c>
-      <c r="I243" s="54"/>
+      <c r="H243" s="101" t="s">
+        <v>799</v>
+      </c>
+      <c r="I243" s="21"/>
       <c r="K243" s="16"/>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B244" s="48" t="s">
-        <v>669</v>
-      </c>
-      <c r="C244" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D244" s="51"/>
+        <v>673</v>
+      </c>
+      <c r="C244" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D244" s="50"/>
       <c r="E244" s="51"/>
       <c r="F244" s="51"/>
-      <c r="G244" s="51"/>
-      <c r="H244" s="78" t="s">
-        <v>672</v>
+      <c r="G244" s="52"/>
+      <c r="H244" s="53" t="s">
+        <v>670</v>
       </c>
       <c r="I244" s="54"/>
       <c r="K244" s="16"/>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B245" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="C245" s="28" t="s">
-        <v>43</v>
+        <v>668</v>
+      </c>
+      <c r="C245" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="D245" s="51"/>
       <c r="E245" s="51"/>
       <c r="F245" s="51"/>
       <c r="G245" s="51"/>
-      <c r="H245" s="49" t="s">
-        <v>540</v>
+      <c r="H245" s="78" t="s">
+        <v>671</v>
       </c>
       <c r="I245" s="54"/>
       <c r="K245" s="16"/>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B246" s="48" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C246" s="28" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D246" s="51"/>
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
       <c r="G246" s="51"/>
-      <c r="H246" s="49" t="s">
-        <v>541</v>
+      <c r="H246" s="78" t="s">
+        <v>672</v>
       </c>
       <c r="I246" s="54"/>
       <c r="K246" s="16"/>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B247" s="48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C247" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D247" s="62"/>
-      <c r="E247" s="62"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="62"/>
+      <c r="D247" s="51"/>
+      <c r="E247" s="51"/>
+      <c r="F247" s="51"/>
+      <c r="G247" s="51"/>
       <c r="H247" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I247" s="79"/>
+        <v>540</v>
+      </c>
+      <c r="I247" s="54"/>
       <c r="K247" s="16"/>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B248" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C248" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D248" s="80"/>
-      <c r="E248" s="80"/>
-      <c r="F248" s="80"/>
-      <c r="G248" s="80"/>
+      <c r="D248" s="51"/>
+      <c r="E248" s="51"/>
+      <c r="F248" s="51"/>
+      <c r="G248" s="51"/>
       <c r="H248" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="I248" s="54"/>
+      <c r="K248" s="16"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B249" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" s="62"/>
+      <c r="E249" s="62"/>
+      <c r="F249" s="62"/>
+      <c r="G249" s="62"/>
+      <c r="H249" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="I249" s="79"/>
+      <c r="K249" s="16"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B250" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="C250" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250" s="80"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="80"/>
+      <c r="G250" s="80"/>
+      <c r="H250" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I248" s="81"/>
-      <c r="K248" s="16"/>
-    </row>
-    <row r="249" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B249" s="43"/>
-      <c r="C249" s="158"/>
-      <c r="D249" s="159"/>
-      <c r="E249" s="159"/>
-      <c r="F249" s="159"/>
-      <c r="G249" s="159"/>
-      <c r="H249" s="159"/>
-      <c r="I249" s="160"/>
-    </row>
-    <row r="250" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B251" s="3" t="s">
+      <c r="I250" s="81"/>
+      <c r="K250" s="16"/>
+    </row>
+    <row r="251" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B251" s="43"/>
+      <c r="C251" s="171"/>
+      <c r="D251" s="172"/>
+      <c r="E251" s="172"/>
+      <c r="F251" s="172"/>
+      <c r="G251" s="172"/>
+      <c r="H251" s="172"/>
+      <c r="I251" s="173"/>
+    </row>
+    <row r="252" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B253" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="161" t="s">
+      <c r="C253" s="4"/>
+      <c r="D253" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E251" s="162"/>
-      <c r="F251" s="163"/>
-      <c r="G251" s="164"/>
-      <c r="H251" s="164"/>
-      <c r="I251" s="165"/>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B252" s="5" t="s">
+      <c r="E253" s="175"/>
+      <c r="F253" s="176"/>
+      <c r="G253" s="177"/>
+      <c r="H253" s="177"/>
+      <c r="I253" s="178"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B254" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C254" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D252" s="150" t="s">
+      <c r="D254" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E252" s="151"/>
-      <c r="F252" s="152" t="s">
+      <c r="E254" s="164"/>
+      <c r="F254" s="165" t="s">
         <v>682</v>
       </c>
-      <c r="G252" s="153"/>
-      <c r="H252" s="153"/>
-      <c r="I252" s="154"/>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B253" s="5" t="s">
+      <c r="G254" s="166"/>
+      <c r="H254" s="166"/>
+      <c r="I254" s="167"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B255" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C253" s="155" t="s">
+      <c r="C255" s="168" t="s">
         <v>679</v>
       </c>
-      <c r="D253" s="156"/>
-      <c r="E253" s="156"/>
-      <c r="F253" s="156"/>
-      <c r="G253" s="156"/>
-      <c r="H253" s="156"/>
-      <c r="I253" s="157"/>
-    </row>
-    <row r="254" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B254" s="32" t="s">
+      <c r="D255" s="169"/>
+      <c r="E255" s="169"/>
+      <c r="F255" s="169"/>
+      <c r="G255" s="169"/>
+      <c r="H255" s="169"/>
+      <c r="I255" s="170"/>
+    </row>
+    <row r="256" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B256" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C256" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E254" s="9" t="s">
+      <c r="E256" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F254" s="9" t="s">
+      <c r="F256" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G254" s="9" t="s">
+      <c r="G256" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H254" s="9" t="s">
+      <c r="H256" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I254" s="10" t="s">
+      <c r="I256" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B255" s="109" t="s">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B257" s="108" t="s">
         <v>683</v>
       </c>
-      <c r="C255" s="110" t="s">
+      <c r="C257" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D255" s="111"/>
-      <c r="E255" s="112"/>
-      <c r="F255" s="112"/>
-      <c r="G255" s="113" t="s">
+      <c r="D257" s="110"/>
+      <c r="E257" s="111"/>
+      <c r="F257" s="111"/>
+      <c r="G257" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H255" s="114" t="s">
+      <c r="H257" s="113" t="s">
         <v>801</v>
       </c>
-      <c r="I255" s="115"/>
-      <c r="K255" s="16"/>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B256" s="103" t="s">
+      <c r="I257" s="114"/>
+      <c r="K257" s="16"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B258" s="102" t="s">
         <v>591</v>
       </c>
-      <c r="C256" s="104" t="s">
+      <c r="C258" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="D256" s="105"/>
-      <c r="E256" s="106"/>
-      <c r="F256" s="106"/>
-      <c r="G256" s="106" t="s">
+      <c r="D258" s="104"/>
+      <c r="E258" s="105"/>
+      <c r="F258" s="105"/>
+      <c r="G258" s="105" t="s">
         <v>645</v>
       </c>
-      <c r="H256" s="107" t="s">
+      <c r="H258" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="I256" s="108"/>
-      <c r="K256" s="16"/>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B257" s="30" t="s">
+      <c r="I258" s="107"/>
+      <c r="K258" s="16"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B259" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="C257" s="49" t="s">
+      <c r="C259" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D257" s="17"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="51"/>
-      <c r="H257" s="102" t="s">
+      <c r="D259" s="17"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="51"/>
+      <c r="H259" s="101" t="s">
         <v>684</v>
       </c>
-      <c r="I257" s="21"/>
-      <c r="K257" s="16"/>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B258" s="48" t="s">
+      <c r="I259" s="21"/>
+      <c r="K259" s="16"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B260" s="48" t="s">
         <v>693</v>
       </c>
-      <c r="C258" s="49" t="s">
+      <c r="C260" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D258" s="50"/>
-      <c r="E258" s="51"/>
-      <c r="F258" s="51"/>
-      <c r="G258" s="52"/>
-      <c r="H258" s="102" t="s">
-        <v>685</v>
-      </c>
-      <c r="I258" s="54"/>
-      <c r="K258" s="16"/>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B259" s="48" t="s">
-        <v>694</v>
-      </c>
-      <c r="C259" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D259" s="51"/>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
-      <c r="G259" s="51"/>
-      <c r="H259" s="102" t="s">
-        <v>686</v>
-      </c>
-      <c r="I259" s="54"/>
-      <c r="K259" s="16"/>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B260" s="48" t="s">
-        <v>695</v>
-      </c>
-      <c r="C260" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D260" s="51"/>
+      <c r="D260" s="50"/>
       <c r="E260" s="51"/>
       <c r="F260" s="51"/>
-      <c r="G260" s="51"/>
-      <c r="H260" s="102" t="s">
-        <v>687</v>
+      <c r="G260" s="52"/>
+      <c r="H260" s="101" t="s">
+        <v>685</v>
       </c>
       <c r="I260" s="54"/>
       <c r="K260" s="16"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B261" s="30" t="s">
-        <v>696</v>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B261" s="48" t="s">
+        <v>694</v>
       </c>
       <c r="C261" s="49" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D261" s="51"/>
       <c r="E261" s="51"/>
       <c r="F261" s="51"/>
       <c r="G261" s="51"/>
-      <c r="H261" s="102" t="s">
-        <v>688</v>
+      <c r="H261" s="101" t="s">
+        <v>686</v>
       </c>
       <c r="I261" s="54"/>
       <c r="K261" s="16"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B262" s="48" t="s">
-        <v>697</v>
-      </c>
-      <c r="C262" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="C262" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D262" s="51"/>
       <c r="E262" s="51"/>
       <c r="F262" s="51"/>
       <c r="G262" s="51"/>
-      <c r="H262" s="102" t="s">
-        <v>689</v>
+      <c r="H262" s="101" t="s">
+        <v>687</v>
       </c>
       <c r="I262" s="54"/>
       <c r="K262" s="16"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B263" s="48" t="s">
-        <v>698</v>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B263" s="30" t="s">
+        <v>696</v>
       </c>
       <c r="C263" s="49" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D263" s="51"/>
       <c r="E263" s="51"/>
       <c r="F263" s="51"/>
       <c r="G263" s="51"/>
-      <c r="H263" s="102" t="s">
-        <v>690</v>
+      <c r="H263" s="101" t="s">
+        <v>688</v>
       </c>
       <c r="I263" s="54"/>
       <c r="K263" s="16"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B264" s="48" t="s">
-        <v>699</v>
-      </c>
-      <c r="C264" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="C264" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D264" s="51"/>
       <c r="E264" s="51"/>
       <c r="F264" s="51"/>
       <c r="G264" s="51"/>
-      <c r="H264" s="102" t="s">
-        <v>691</v>
+      <c r="H264" s="101" t="s">
+        <v>689</v>
       </c>
       <c r="I264" s="54"/>
       <c r="K264" s="16"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B265" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="C265" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="C265" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D265" s="51"/>
       <c r="E265" s="51"/>
       <c r="F265" s="51"/>
       <c r="G265" s="51"/>
-      <c r="H265" s="49" t="s">
-        <v>540</v>
+      <c r="H265" s="101" t="s">
+        <v>690</v>
       </c>
       <c r="I265" s="54"/>
       <c r="K265" s="16"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B266" s="48" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D266" s="51"/>
       <c r="E266" s="51"/>
       <c r="F266" s="51"/>
       <c r="G266" s="51"/>
-      <c r="H266" s="49" t="s">
-        <v>541</v>
+      <c r="H266" s="101" t="s">
+        <v>691</v>
       </c>
       <c r="I266" s="54"/>
       <c r="K266" s="16"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B267" s="48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C267" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D267" s="62"/>
-      <c r="E267" s="62"/>
-      <c r="F267" s="62"/>
-      <c r="G267" s="62"/>
+      <c r="D267" s="51"/>
+      <c r="E267" s="51"/>
+      <c r="F267" s="51"/>
+      <c r="G267" s="51"/>
       <c r="H267" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I267" s="79"/>
+        <v>540</v>
+      </c>
+      <c r="I267" s="54"/>
       <c r="K267" s="16"/>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B268" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C268" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D268" s="80"/>
-      <c r="E268" s="80"/>
-      <c r="F268" s="80"/>
-      <c r="G268" s="80"/>
+      <c r="D268" s="51"/>
+      <c r="E268" s="51"/>
+      <c r="F268" s="51"/>
+      <c r="G268" s="51"/>
       <c r="H268" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="I268" s="54"/>
+      <c r="K268" s="16"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B269" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D269" s="62"/>
+      <c r="E269" s="62"/>
+      <c r="F269" s="62"/>
+      <c r="G269" s="62"/>
+      <c r="H269" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="I269" s="79"/>
+      <c r="K269" s="16"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B270" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="C270" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" s="80"/>
+      <c r="E270" s="80"/>
+      <c r="F270" s="80"/>
+      <c r="G270" s="80"/>
+      <c r="H270" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I268" s="81"/>
-      <c r="K268" s="16"/>
-    </row>
-    <row r="269" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B269" s="43"/>
-      <c r="C269" s="158"/>
-      <c r="D269" s="159"/>
-      <c r="E269" s="159"/>
-      <c r="F269" s="159"/>
-      <c r="G269" s="159"/>
-      <c r="H269" s="159"/>
-      <c r="I269" s="160"/>
-    </row>
-    <row r="270" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B271" s="3" t="s">
+      <c r="I270" s="81"/>
+      <c r="K270" s="16"/>
+    </row>
+    <row r="271" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B271" s="43"/>
+      <c r="C271" s="171"/>
+      <c r="D271" s="172"/>
+      <c r="E271" s="172"/>
+      <c r="F271" s="172"/>
+      <c r="G271" s="172"/>
+      <c r="H271" s="172"/>
+      <c r="I271" s="173"/>
+    </row>
+    <row r="272" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B273" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="161" t="s">
+      <c r="C273" s="4"/>
+      <c r="D273" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E271" s="162"/>
-      <c r="F271" s="163"/>
-      <c r="G271" s="164"/>
-      <c r="H271" s="164"/>
-      <c r="I271" s="165"/>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B272" s="5" t="s">
+      <c r="E273" s="175"/>
+      <c r="F273" s="176"/>
+      <c r="G273" s="177"/>
+      <c r="H273" s="177"/>
+      <c r="I273" s="178"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B274" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C274" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D272" s="150" t="s">
+      <c r="D274" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E272" s="151"/>
-      <c r="F272" s="152" t="s">
+      <c r="E274" s="164"/>
+      <c r="F274" s="165" t="s">
         <v>715</v>
       </c>
-      <c r="G272" s="153"/>
-      <c r="H272" s="153"/>
-      <c r="I272" s="154"/>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B273" s="5" t="s">
+      <c r="G274" s="166"/>
+      <c r="H274" s="166"/>
+      <c r="I274" s="167"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B275" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C273" s="155" t="s">
+      <c r="C275" s="168" t="s">
         <v>716</v>
       </c>
-      <c r="D273" s="156"/>
-      <c r="E273" s="156"/>
-      <c r="F273" s="156"/>
-      <c r="G273" s="156"/>
-      <c r="H273" s="156"/>
-      <c r="I273" s="157"/>
-    </row>
-    <row r="274" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B274" s="32" t="s">
+      <c r="D275" s="169"/>
+      <c r="E275" s="169"/>
+      <c r="F275" s="169"/>
+      <c r="G275" s="169"/>
+      <c r="H275" s="169"/>
+      <c r="I275" s="170"/>
+    </row>
+    <row r="276" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B276" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C276" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D276" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E274" s="9" t="s">
+      <c r="E276" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F274" s="9" t="s">
+      <c r="F276" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G276" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H274" s="9" t="s">
+      <c r="H276" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I274" s="10" t="s">
+      <c r="I276" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B275" s="109" t="s">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B277" s="108" t="s">
         <v>703</v>
       </c>
-      <c r="C275" s="110" t="s">
+      <c r="C277" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D275" s="111"/>
-      <c r="E275" s="112"/>
-      <c r="F275" s="112"/>
-      <c r="G275" s="113" t="s">
+      <c r="D277" s="110"/>
+      <c r="E277" s="111"/>
+      <c r="F277" s="111"/>
+      <c r="G277" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H275" s="114" t="s">
+      <c r="H277" s="113" t="s">
         <v>711</v>
       </c>
-      <c r="I275" s="115"/>
-      <c r="K275" s="16"/>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B276" s="91" t="s">
+      <c r="I277" s="114"/>
+      <c r="K277" s="16"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B278" s="91" t="s">
         <v>704</v>
       </c>
-      <c r="C276" s="49" t="s">
+      <c r="C278" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="D276" s="57"/>
-      <c r="E276" s="52"/>
-      <c r="F276" s="52"/>
-      <c r="G276" s="52"/>
-      <c r="H276" s="59" t="s">
+      <c r="D278" s="57"/>
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="52"/>
+      <c r="H278" s="59" t="s">
         <v>712</v>
       </c>
-      <c r="I276" s="99"/>
-      <c r="K276" s="16"/>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B277" s="30" t="s">
+      <c r="I278" s="98"/>
+      <c r="K278" s="16"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B279" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="C277" s="49" t="s">
+      <c r="C279" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D277" s="17"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="18"/>
-      <c r="G277" s="51"/>
-      <c r="H277" s="102" t="s">
+      <c r="D279" s="17"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="18"/>
+      <c r="G279" s="51"/>
+      <c r="H279" s="101" t="s">
         <v>713</v>
       </c>
-      <c r="I277" s="21"/>
-      <c r="K277" s="16"/>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B278" s="48" t="s">
+      <c r="I279" s="21"/>
+      <c r="K279" s="16"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B280" s="48" t="s">
         <v>706</v>
       </c>
-      <c r="C278" s="49" t="s">
+      <c r="C280" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D278" s="50"/>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
-      <c r="G278" s="52"/>
-      <c r="H278" s="102" t="s">
-        <v>714</v>
-      </c>
-      <c r="I278" s="54"/>
-      <c r="K278" s="16"/>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B279" s="48" t="s">
-        <v>707</v>
-      </c>
-      <c r="C279" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D279" s="51"/>
-      <c r="E279" s="51"/>
-      <c r="F279" s="51"/>
-      <c r="G279" s="51"/>
-      <c r="H279" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="I279" s="54"/>
-      <c r="K279" s="16"/>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B280" s="48" t="s">
-        <v>708</v>
-      </c>
-      <c r="C280" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D280" s="51"/>
+      <c r="D280" s="50"/>
       <c r="E280" s="51"/>
       <c r="F280" s="51"/>
-      <c r="G280" s="51"/>
-      <c r="H280" s="49" t="s">
-        <v>541</v>
+      <c r="G280" s="52"/>
+      <c r="H280" s="101" t="s">
+        <v>714</v>
       </c>
       <c r="I280" s="54"/>
       <c r="K280" s="16"/>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B281" s="48" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C281" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D281" s="62"/>
-      <c r="E281" s="62"/>
-      <c r="F281" s="62"/>
-      <c r="G281" s="62"/>
+      <c r="D281" s="51"/>
+      <c r="E281" s="51"/>
+      <c r="F281" s="51"/>
+      <c r="G281" s="51"/>
       <c r="H281" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I281" s="79"/>
+        <v>540</v>
+      </c>
+      <c r="I281" s="54"/>
       <c r="K281" s="16"/>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B282" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C282" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D282" s="80"/>
-      <c r="E282" s="80"/>
-      <c r="F282" s="80"/>
-      <c r="G282" s="80"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="51"/>
       <c r="H282" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="I282" s="54"/>
+      <c r="K282" s="16"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B283" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D283" s="62"/>
+      <c r="E283" s="62"/>
+      <c r="F283" s="62"/>
+      <c r="G283" s="62"/>
+      <c r="H283" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="I283" s="79"/>
+      <c r="K283" s="16"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B284" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="80"/>
+      <c r="E284" s="80"/>
+      <c r="F284" s="80"/>
+      <c r="G284" s="80"/>
+      <c r="H284" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="I282" s="81"/>
-      <c r="K282" s="16"/>
-    </row>
-    <row r="283" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B283" s="43"/>
-      <c r="C283" s="158"/>
-      <c r="D283" s="159"/>
-      <c r="E283" s="159"/>
-      <c r="F283" s="159"/>
-      <c r="G283" s="159"/>
-      <c r="H283" s="159"/>
-      <c r="I283" s="160"/>
-    </row>
-    <row r="284" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B285" s="3" t="s">
+      <c r="I284" s="81"/>
+      <c r="K284" s="16"/>
+    </row>
+    <row r="285" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B285" s="43"/>
+      <c r="C285" s="171"/>
+      <c r="D285" s="172"/>
+      <c r="E285" s="172"/>
+      <c r="F285" s="172"/>
+      <c r="G285" s="172"/>
+      <c r="H285" s="172"/>
+      <c r="I285" s="173"/>
+    </row>
+    <row r="286" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B287" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C285" s="4"/>
-      <c r="D285" s="161" t="s">
+      <c r="C287" s="4"/>
+      <c r="D287" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="E285" s="162"/>
-      <c r="F285" s="163"/>
-      <c r="G285" s="164"/>
-      <c r="H285" s="164"/>
-      <c r="I285" s="165"/>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B286" s="5" t="s">
+      <c r="E287" s="175"/>
+      <c r="F287" s="176"/>
+      <c r="G287" s="177"/>
+      <c r="H287" s="177"/>
+      <c r="I287" s="178"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B288" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C288" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="D286" s="150" t="s">
+      <c r="D288" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E286" s="151"/>
-      <c r="F286" s="152" t="s">
+      <c r="E288" s="164"/>
+      <c r="F288" s="165" t="s">
         <v>745</v>
       </c>
-      <c r="G286" s="153"/>
-      <c r="H286" s="153"/>
-      <c r="I286" s="154"/>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B287" s="5" t="s">
+      <c r="G288" s="166"/>
+      <c r="H288" s="166"/>
+      <c r="I288" s="167"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B289" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C287" s="155" t="s">
+      <c r="C289" s="168" t="s">
         <v>744</v>
       </c>
-      <c r="D287" s="156"/>
-      <c r="E287" s="156"/>
-      <c r="F287" s="156"/>
-      <c r="G287" s="156"/>
-      <c r="H287" s="156"/>
-      <c r="I287" s="157"/>
-    </row>
-    <row r="288" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B288" s="32" t="s">
+      <c r="D289" s="169"/>
+      <c r="E289" s="169"/>
+      <c r="F289" s="169"/>
+      <c r="G289" s="169"/>
+      <c r="H289" s="169"/>
+      <c r="I289" s="170"/>
+    </row>
+    <row r="290" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B290" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C288" s="9" t="s">
+      <c r="C290" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="D290" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E288" s="9" t="s">
+      <c r="E290" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F288" s="9" t="s">
+      <c r="F290" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G288" s="9" t="s">
+      <c r="G290" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H288" s="9" t="s">
+      <c r="H290" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I288" s="10" t="s">
+      <c r="I290" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B289" s="83" t="s">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B291" s="83" t="s">
         <v>746</v>
       </c>
-      <c r="C289" s="90" t="s">
+      <c r="C291" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D289" s="84"/>
-      <c r="E289" s="85"/>
-      <c r="F289" s="85"/>
-      <c r="G289" s="86" t="s">
+      <c r="D291" s="84"/>
+      <c r="E291" s="85"/>
+      <c r="F291" s="85"/>
+      <c r="G291" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H289" s="87" t="s">
+      <c r="H291" s="87" t="s">
         <v>747</v>
       </c>
-      <c r="I289" s="88"/>
-      <c r="K289" s="16"/>
-    </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B290" s="91" t="s">
+      <c r="I291" s="88"/>
+      <c r="K291" s="16"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B292" s="91" t="s">
         <v>748</v>
       </c>
-      <c r="C290" s="49" t="s">
+      <c r="C292" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D290" s="57"/>
-      <c r="E290" s="52"/>
-      <c r="F290" s="52"/>
-      <c r="G290" s="52"/>
-      <c r="H290" s="59" t="s">
+      <c r="D292" s="57"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="52"/>
+      <c r="H292" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="I290" s="99"/>
-      <c r="K290" s="16"/>
-    </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B291" s="30" t="s">
+      <c r="I292" s="98"/>
+      <c r="K292" s="16"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B293" s="30" t="s">
         <v>739</v>
-      </c>
-      <c r="C291" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D291" s="17"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="18"/>
-      <c r="G291" s="51" t="s">
-        <v>645</v>
-      </c>
-      <c r="H291" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="I291" s="21"/>
-      <c r="K291" s="16"/>
-    </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B292" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C292" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" s="17"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="18"/>
-      <c r="G292" s="52"/>
-      <c r="H292" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="I292" s="21"/>
-      <c r="K292" s="16"/>
-    </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B293" s="48" t="s">
-        <v>781</v>
       </c>
       <c r="C293" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D293" s="50"/>
-      <c r="E293" s="51"/>
-      <c r="F293" s="51"/>
-      <c r="G293" s="52"/>
-      <c r="H293" s="53" t="s">
-        <v>749</v>
-      </c>
-      <c r="I293" s="54"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="18"/>
+      <c r="G293" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="H293" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="I293" s="21"/>
       <c r="K293" s="16"/>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B294" s="48" t="s">
-        <v>782</v>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B294" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="C294" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D294" s="51"/>
-      <c r="E294" s="51"/>
-      <c r="F294" s="51"/>
-      <c r="G294" s="51"/>
-      <c r="H294" s="78" t="s">
-        <v>784</v>
-      </c>
-      <c r="I294" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="D294" s="17"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="18"/>
+      <c r="G294" s="52"/>
+      <c r="H294" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="I294" s="21"/>
       <c r="K294" s="16"/>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B295" s="48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C295" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D295" s="51"/>
+      <c r="D295" s="50"/>
       <c r="E295" s="51"/>
       <c r="F295" s="51"/>
-      <c r="G295" s="51"/>
-      <c r="H295" s="78" t="s">
-        <v>785</v>
+      <c r="G295" s="52"/>
+      <c r="H295" s="53" t="s">
+        <v>749</v>
       </c>
       <c r="I295" s="54"/>
       <c r="K295" s="16"/>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B296" s="48" t="s">
-        <v>788</v>
-      </c>
-      <c r="C296" s="28" t="s">
-        <v>492</v>
+        <v>782</v>
+      </c>
+      <c r="C296" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="D296" s="51"/>
       <c r="E296" s="51"/>
       <c r="F296" s="51"/>
       <c r="G296" s="51"/>
-      <c r="H296" s="49" t="s">
-        <v>789</v>
+      <c r="H296" s="78" t="s">
+        <v>784</v>
       </c>
       <c r="I296" s="54"/>
       <c r="K296" s="16"/>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B297" s="48" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C297" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D297" s="51"/>
       <c r="E297" s="51"/>
       <c r="F297" s="51"/>
       <c r="G297" s="51"/>
-      <c r="H297" s="101" t="s">
-        <v>780</v>
+      <c r="H297" s="78" t="s">
+        <v>785</v>
       </c>
       <c r="I297" s="54"/>
       <c r="K297" s="16"/>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B298" s="48" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C298" s="28" t="s">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="D298" s="51"/>
       <c r="E298" s="51"/>
       <c r="F298" s="51"/>
       <c r="G298" s="51"/>
       <c r="H298" s="49" t="s">
-        <v>540</v>
+        <v>789</v>
       </c>
       <c r="I298" s="54"/>
       <c r="K298" s="16"/>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B299" s="48" t="s">
-        <v>793</v>
-      </c>
-      <c r="C299" s="28" t="s">
-        <v>20</v>
+        <v>791</v>
+      </c>
+      <c r="C299" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="D299" s="51"/>
       <c r="E299" s="51"/>
       <c r="F299" s="51"/>
       <c r="G299" s="51"/>
-      <c r="H299" s="49" t="s">
-        <v>541</v>
+      <c r="H299" s="100" t="s">
+        <v>780</v>
       </c>
       <c r="I299" s="54"/>
       <c r="K299" s="16"/>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B300" s="48" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C300" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D300" s="62"/>
-      <c r="E300" s="62"/>
-      <c r="F300" s="62"/>
-      <c r="G300" s="62"/>
+      <c r="D300" s="51"/>
+      <c r="E300" s="51"/>
+      <c r="F300" s="51"/>
+      <c r="G300" s="51"/>
       <c r="H300" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I300" s="79"/>
+        <v>540</v>
+      </c>
+      <c r="I300" s="54"/>
       <c r="K300" s="16"/>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B301" s="48" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C301" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D301" s="80"/>
-      <c r="E301" s="80"/>
-      <c r="F301" s="80"/>
-      <c r="G301" s="80"/>
+      <c r="D301" s="51"/>
+      <c r="E301" s="51"/>
+      <c r="F301" s="51"/>
+      <c r="G301" s="51"/>
       <c r="H301" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="I301" s="81"/>
+        <v>541</v>
+      </c>
+      <c r="I301" s="54"/>
       <c r="K301" s="16"/>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B302" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="C302" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D302" s="80"/>
-      <c r="E302" s="80"/>
-      <c r="F302" s="80"/>
-      <c r="G302" s="80"/>
+        <v>794</v>
+      </c>
+      <c r="C302" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="62"/>
+      <c r="E302" s="62"/>
+      <c r="F302" s="62"/>
+      <c r="G302" s="62"/>
       <c r="H302" s="49" t="s">
-        <v>790</v>
-      </c>
-      <c r="I302" s="81"/>
+        <v>542</v>
+      </c>
+      <c r="I302" s="79"/>
       <c r="K302" s="16"/>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B303" s="48"/>
-      <c r="C303" s="49"/>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B303" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="D303" s="80"/>
       <c r="E303" s="80"/>
       <c r="F303" s="80"/>
       <c r="G303" s="80"/>
-      <c r="H303" s="49"/>
+      <c r="H303" s="49" t="s">
+        <v>608</v>
+      </c>
       <c r="I303" s="81"/>
       <c r="K303" s="16"/>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B304" s="48"/>
-      <c r="C304" s="49"/>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B304" s="48" t="s">
+        <v>796</v>
+      </c>
+      <c r="C304" s="49" t="s">
+        <v>70</v>
+      </c>
       <c r="D304" s="80"/>
       <c r="E304" s="80"/>
       <c r="F304" s="80"/>
       <c r="G304" s="80"/>
-      <c r="H304" s="49"/>
+      <c r="H304" s="49" t="s">
+        <v>790</v>
+      </c>
       <c r="I304" s="81"/>
       <c r="K304" s="16"/>
     </row>
-    <row r="305" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B305" s="43"/>
-      <c r="C305" s="158"/>
-      <c r="D305" s="159"/>
-      <c r="E305" s="159"/>
-      <c r="F305" s="159"/>
-      <c r="G305" s="159"/>
-      <c r="H305" s="159"/>
-      <c r="I305" s="160"/>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B305" s="48"/>
+      <c r="C305" s="49"/>
+      <c r="D305" s="80"/>
+      <c r="E305" s="80"/>
+      <c r="F305" s="80"/>
+      <c r="G305" s="80"/>
+      <c r="H305" s="49"/>
+      <c r="I305" s="81"/>
+      <c r="K305" s="16"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="80"/>
+      <c r="E306" s="80"/>
+      <c r="F306" s="80"/>
+      <c r="G306" s="80"/>
+      <c r="H306" s="49"/>
+      <c r="I306" s="81"/>
+      <c r="K306" s="16"/>
+    </row>
+    <row r="307" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B307" s="43"/>
+      <c r="C307" s="171"/>
+      <c r="D307" s="172"/>
+      <c r="E307" s="172"/>
+      <c r="F307" s="172"/>
+      <c r="G307" s="172"/>
+      <c r="H307" s="172"/>
+      <c r="I307" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -10846,43 +11089,43 @@
     <mergeCell ref="D147:E147"/>
     <mergeCell ref="F147:I147"/>
     <mergeCell ref="C148:I148"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:I212"/>
     <mergeCell ref="C180:I180"/>
     <mergeCell ref="D182:E182"/>
     <mergeCell ref="F182:I182"/>
     <mergeCell ref="D183:E183"/>
     <mergeCell ref="F183:I183"/>
     <mergeCell ref="C184:I184"/>
-    <mergeCell ref="C207:I207"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="C212:I212"/>
-    <mergeCell ref="C231:I231"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="F235:I235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="F236:I236"/>
-    <mergeCell ref="C237:I237"/>
-    <mergeCell ref="C249:I249"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="F251:I251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:I252"/>
-    <mergeCell ref="C253:I253"/>
-    <mergeCell ref="C269:I269"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="F271:I271"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="F286:I286"/>
-    <mergeCell ref="C287:I287"/>
-    <mergeCell ref="C305:I305"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="F272:I272"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C283:I283"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="F285:I285"/>
+    <mergeCell ref="C209:I209"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="C214:I214"/>
+    <mergeCell ref="C233:I233"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="C239:I239"/>
+    <mergeCell ref="C251:I251"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="C255:I255"/>
+    <mergeCell ref="C271:I271"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="F273:I273"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="F288:I288"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C307:I307"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:I274"/>
+    <mergeCell ref="C275:I275"/>
+    <mergeCell ref="C285:I285"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="F287:I287"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10901,18 +11144,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="66.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
@@ -10930,7 +11173,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="28" t="s">
         <v>108</v>
       </c>
@@ -10944,7 +11187,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="28" t="s">
         <v>111</v>
       </c>
@@ -10956,7 +11199,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
         <v>113</v>
       </c>
@@ -10968,7 +11211,7 @@
       <c r="F5" s="27"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>115</v>
       </c>
@@ -10980,7 +11223,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
         <v>117</v>
       </c>
@@ -10992,7 +11235,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B8" s="49" t="s">
         <v>119</v>
       </c>
@@ -11004,7 +11247,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B9" s="90" t="s">
         <v>439</v>
       </c>
@@ -11016,7 +11259,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B10" s="49" t="s">
         <v>438</v>
       </c>
@@ -11028,7 +11271,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B11" s="28" t="s">
         <v>122</v>
       </c>
@@ -11040,7 +11283,7 @@
       <c r="F11" s="40"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>434</v>
       </c>
@@ -11052,7 +11295,7 @@
       <c r="F12" s="40"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>124</v>
       </c>
@@ -11064,7 +11307,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B14" s="90" t="s">
         <v>435</v>
       </c>
@@ -11076,7 +11319,7 @@
       <c r="F14" s="40"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
         <v>127</v>
       </c>
@@ -11088,7 +11331,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B16" s="28" t="s">
         <v>129</v>
       </c>
@@ -11100,7 +11343,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>131</v>
       </c>
@@ -11112,7 +11355,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>133</v>
       </c>
@@ -11124,7 +11367,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
         <v>135</v>
       </c>
@@ -11136,7 +11379,7 @@
       <c r="F19" s="40"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>137</v>
       </c>
@@ -11148,7 +11391,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>139</v>
       </c>
@@ -11160,7 +11403,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
@@ -11172,7 +11415,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
         <v>143</v>
       </c>
@@ -11184,7 +11427,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B24" s="28" t="s">
         <v>145</v>
       </c>
@@ -11196,7 +11439,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B25" s="28" t="s">
         <v>147</v>
       </c>
@@ -11208,7 +11451,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="28" t="s">
         <v>149</v>
       </c>
@@ -11219,7 +11462,7 @@
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="28" t="s">
         <v>151</v>
       </c>
@@ -11230,7 +11473,7 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="28" t="s">
         <v>153</v>
       </c>
@@ -11241,7 +11484,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
         <v>155</v>
       </c>
@@ -11252,7 +11495,7 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B30" s="28" t="s">
         <v>157</v>
       </c>
@@ -11263,7 +11506,7 @@
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" s="90" t="s">
         <v>445</v>
       </c>
@@ -11274,7 +11517,7 @@
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="28" t="s">
         <v>160</v>
       </c>
@@ -11285,7 +11528,7 @@
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" s="90" t="s">
         <v>448</v>
       </c>
@@ -11296,7 +11539,7 @@
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" s="28" t="s">
         <v>163</v>
       </c>
@@ -11307,7 +11550,7 @@
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" s="28" t="s">
         <v>165</v>
       </c>
@@ -11318,7 +11561,7 @@
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" s="28" t="s">
         <v>167</v>
       </c>
@@ -11329,7 +11572,7 @@
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" s="28" t="s">
         <v>169</v>
       </c>
@@ -11340,7 +11583,7 @@
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B38" s="49" t="s">
         <v>171</v>
       </c>
@@ -11352,7 +11595,7 @@
       <c r="F38" s="80"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B39" s="90" t="s">
         <v>449</v>
       </c>
@@ -11364,7 +11607,7 @@
       <c r="F39" s="80"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B40" s="49" t="s">
         <v>202</v>
       </c>
@@ -11376,7 +11619,7 @@
       <c r="F40" s="80"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B41" s="49" t="s">
         <v>204</v>
       </c>
@@ -11388,7 +11631,7 @@
       <c r="F41" s="80"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B42" s="90" t="s">
         <v>451</v>
       </c>
@@ -11399,7 +11642,7 @@
       <c r="E42" s="80"/>
       <c r="F42" s="80"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B43" s="49" t="s">
         <v>206</v>
       </c>
@@ -11410,7 +11653,7 @@
       <c r="E43" s="80"/>
       <c r="F43" s="80"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" s="49" t="s">
         <v>208</v>
       </c>
@@ -11421,7 +11664,7 @@
       <c r="E44" s="80"/>
       <c r="F44" s="80"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" s="49" t="s">
         <v>452</v>
       </c>
@@ -11432,7 +11675,7 @@
       <c r="E45" s="80"/>
       <c r="F45" s="80"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" s="49" t="s">
         <v>211</v>
       </c>
@@ -11443,7 +11686,7 @@
       <c r="E46" s="80"/>
       <c r="F46" s="80"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" s="49" t="s">
         <v>213</v>
       </c>
@@ -11454,7 +11697,7 @@
       <c r="E47" s="80"/>
       <c r="F47" s="80"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B48" s="49" t="s">
         <v>215</v>
       </c>
@@ -11465,7 +11708,7 @@
       <c r="E48" s="80"/>
       <c r="F48" s="80"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49" s="49" t="s">
         <v>217</v>
       </c>
@@ -11476,7 +11719,7 @@
       <c r="E49" s="80"/>
       <c r="F49" s="80"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="49" t="s">
         <v>453</v>
       </c>
@@ -11487,7 +11730,7 @@
       <c r="E50" s="80"/>
       <c r="F50" s="80"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B51" s="49" t="s">
         <v>220</v>
       </c>
@@ -11498,7 +11741,7 @@
       <c r="E51" s="80"/>
       <c r="F51" s="80"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B52" s="49" t="s">
         <v>222</v>
       </c>
@@ -11509,7 +11752,7 @@
       <c r="E52" s="80"/>
       <c r="F52" s="80"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B53" s="49" t="s">
         <v>224</v>
       </c>
@@ -11520,7 +11763,7 @@
       <c r="E53" s="80"/>
       <c r="F53" s="80"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B54" s="49" t="s">
         <v>226</v>
       </c>
@@ -11531,7 +11774,7 @@
       <c r="E54" s="80"/>
       <c r="F54" s="80"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" s="49" t="s">
         <v>228</v>
       </c>
@@ -11542,7 +11785,7 @@
       <c r="E55" s="80"/>
       <c r="F55" s="80"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B56" s="49" t="s">
         <v>230</v>
       </c>
@@ -11553,7 +11796,7 @@
       <c r="E56" s="80"/>
       <c r="F56" s="80"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B57" s="49" t="s">
         <v>232</v>
       </c>
@@ -11564,7 +11807,7 @@
       <c r="E57" s="80"/>
       <c r="F57" s="80"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58" s="49" t="s">
         <v>234</v>
       </c>
@@ -11575,7 +11818,7 @@
       <c r="E58" s="80"/>
       <c r="F58" s="80"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B59" s="49" t="s">
         <v>454</v>
       </c>
@@ -11586,7 +11829,7 @@
       <c r="E59" s="80"/>
       <c r="F59" s="80"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="49" t="s">
         <v>236</v>
       </c>
@@ -11597,7 +11840,7 @@
       <c r="E60" s="80"/>
       <c r="F60" s="80"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="49" t="s">
         <v>238</v>
       </c>
@@ -11608,7 +11851,7 @@
       <c r="E61" s="80"/>
       <c r="F61" s="80"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62" s="49" t="s">
         <v>240</v>
       </c>
@@ -11619,7 +11862,7 @@
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B63" s="49" t="s">
         <v>242</v>
       </c>
@@ -11630,7 +11873,7 @@
       <c r="E63" s="80"/>
       <c r="F63" s="80"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B64" s="49" t="s">
         <v>244</v>
       </c>
@@ -11641,7 +11884,7 @@
       <c r="E64" s="80"/>
       <c r="F64" s="80"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B65" s="49" t="s">
         <v>246</v>
       </c>
@@ -11652,7 +11895,7 @@
       <c r="E65" s="80"/>
       <c r="F65" s="80"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B66" s="49" t="s">
         <v>248</v>
       </c>
@@ -11663,7 +11906,7 @@
       <c r="E66" s="80"/>
       <c r="F66" s="80"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B67" s="49" t="s">
         <v>455</v>
       </c>
@@ -11674,7 +11917,7 @@
       <c r="E67" s="80"/>
       <c r="F67" s="80"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B68" s="49" t="s">
         <v>250</v>
       </c>
@@ -11685,7 +11928,7 @@
       <c r="E68" s="80"/>
       <c r="F68" s="80"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B69" s="49" t="s">
         <v>252</v>
       </c>
@@ -11696,7 +11939,7 @@
       <c r="E69" s="80"/>
       <c r="F69" s="80"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B70" s="49" t="s">
         <v>254</v>
       </c>
@@ -11707,7 +11950,7 @@
       <c r="E70" s="80"/>
       <c r="F70" s="80"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B71" s="49" t="s">
         <v>256</v>
       </c>
@@ -11718,7 +11961,7 @@
       <c r="E71" s="80"/>
       <c r="F71" s="80"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B72" s="90" t="s">
         <v>456</v>
       </c>
@@ -11729,7 +11972,7 @@
       <c r="E72" s="80"/>
       <c r="F72" s="80"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73" s="90" t="s">
         <v>457</v>
       </c>
@@ -11740,7 +11983,7 @@
       <c r="E73" s="80"/>
       <c r="F73" s="80"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74" s="49" t="s">
         <v>458</v>
       </c>
@@ -11751,7 +11994,7 @@
       <c r="E74" s="80"/>
       <c r="F74" s="80"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B75" s="49" t="s">
         <v>261</v>
       </c>
@@ -11762,7 +12005,7 @@
       <c r="E75" s="80"/>
       <c r="F75" s="80"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B76" s="49" t="s">
         <v>263</v>
       </c>
@@ -11773,7 +12016,7 @@
       <c r="E76" s="80"/>
       <c r="F76" s="80"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B77" s="49" t="s">
         <v>265</v>
       </c>
@@ -11784,7 +12027,7 @@
       <c r="E77" s="80"/>
       <c r="F77" s="80"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B78" s="49" t="s">
         <v>267</v>
       </c>
@@ -11795,7 +12038,7 @@
       <c r="E78" s="80"/>
       <c r="F78" s="80"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B79" s="90" t="s">
         <v>459</v>
       </c>
@@ -11806,7 +12049,7 @@
       <c r="E79" s="80"/>
       <c r="F79" s="80"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B80" s="49" t="s">
         <v>270</v>
       </c>
@@ -11817,7 +12060,7 @@
       <c r="E80" s="80"/>
       <c r="F80" s="80"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81" s="49" t="s">
         <v>460</v>
       </c>
@@ -11828,7 +12071,7 @@
       <c r="E81" s="80"/>
       <c r="F81" s="80"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82" s="49" t="s">
         <v>273</v>
       </c>
@@ -11839,7 +12082,7 @@
       <c r="E82" s="80"/>
       <c r="F82" s="80"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83" s="49" t="s">
         <v>275</v>
       </c>
@@ -11850,7 +12093,7 @@
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B84" s="49" t="s">
         <v>277</v>
       </c>
@@ -11861,7 +12104,7 @@
       <c r="E84" s="80"/>
       <c r="F84" s="80"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85" s="49" t="s">
         <v>279</v>
       </c>
@@ -11872,7 +12115,7 @@
       <c r="E85" s="80"/>
       <c r="F85" s="80"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B86" s="49" t="s">
         <v>282</v>
       </c>
@@ -11883,7 +12126,7 @@
       <c r="E86" s="80"/>
       <c r="F86" s="80"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B87" s="49" t="s">
         <v>284</v>
       </c>
@@ -11894,7 +12137,7 @@
       <c r="E87" s="80"/>
       <c r="F87" s="80"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88" s="49" t="s">
         <v>286</v>
       </c>
@@ -11905,7 +12148,7 @@
       <c r="E88" s="80"/>
       <c r="F88" s="80"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B89" s="49" t="s">
         <v>288</v>
       </c>
@@ -11916,7 +12159,7 @@
       <c r="E89" s="80"/>
       <c r="F89" s="80"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90" s="49" t="s">
         <v>290</v>
       </c>
@@ -11927,7 +12170,7 @@
       <c r="E90" s="80"/>
       <c r="F90" s="80"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91" s="49" t="s">
         <v>292</v>
       </c>
@@ -11938,7 +12181,7 @@
       <c r="E91" s="80"/>
       <c r="F91" s="80"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92" s="49" t="s">
         <v>294</v>
       </c>
@@ -11949,7 +12192,7 @@
       <c r="E92" s="80"/>
       <c r="F92" s="80"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93" s="49" t="s">
         <v>296</v>
       </c>
@@ -11960,7 +12203,7 @@
       <c r="E93" s="80"/>
       <c r="F93" s="80"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94" s="49" t="s">
         <v>298</v>
       </c>
@@ -11971,7 +12214,7 @@
       <c r="E94" s="80"/>
       <c r="F94" s="80"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95" s="49" t="s">
         <v>299</v>
       </c>
@@ -11982,7 +12225,7 @@
       <c r="E95" s="80"/>
       <c r="F95" s="80"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96" s="49" t="s">
         <v>301</v>
       </c>
@@ -11993,7 +12236,7 @@
       <c r="E96" s="80"/>
       <c r="F96" s="80"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97" s="49" t="s">
         <v>303</v>
       </c>
@@ -12004,7 +12247,7 @@
       <c r="E97" s="80"/>
       <c r="F97" s="80"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B98" s="49" t="s">
         <v>305</v>
       </c>
@@ -12015,7 +12258,7 @@
       <c r="E98" s="80"/>
       <c r="F98" s="80"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B99" s="90" t="s">
         <v>461</v>
       </c>
@@ -12026,7 +12269,7 @@
       <c r="E99" s="80"/>
       <c r="F99" s="80"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B100" s="49" t="s">
         <v>308</v>
       </c>
@@ -12037,7 +12280,7 @@
       <c r="E100" s="80"/>
       <c r="F100" s="80"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B101" s="49" t="s">
         <v>310</v>
       </c>
@@ -12048,7 +12291,7 @@
       <c r="E101" s="80"/>
       <c r="F101" s="80"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B102" s="49" t="s">
         <v>312</v>
       </c>
@@ -12059,7 +12302,7 @@
       <c r="E102" s="80"/>
       <c r="F102" s="80"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B103" s="49" t="s">
         <v>314</v>
       </c>
@@ -12070,7 +12313,7 @@
       <c r="E103" s="80"/>
       <c r="F103" s="80"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B104" s="90" t="s">
         <v>462</v>
       </c>
@@ -12081,7 +12324,7 @@
       <c r="E104" s="80"/>
       <c r="F104" s="80"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B105" s="49" t="s">
         <v>317</v>
       </c>
@@ -12092,7 +12335,7 @@
       <c r="E105" s="80"/>
       <c r="F105" s="80"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B106" s="90" t="s">
         <v>463</v>
       </c>
@@ -12103,7 +12346,7 @@
       <c r="E106" s="80"/>
       <c r="F106" s="80"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B107" s="90" t="s">
         <v>464</v>
       </c>
@@ -12114,7 +12357,7 @@
       <c r="E107" s="80"/>
       <c r="F107" s="80"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B108" s="49" t="s">
         <v>321</v>
       </c>
@@ -12125,7 +12368,7 @@
       <c r="E108" s="80"/>
       <c r="F108" s="80"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B109" s="49" t="s">
         <v>323</v>
       </c>
@@ -12136,7 +12379,7 @@
       <c r="E109" s="80"/>
       <c r="F109" s="80"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B110" s="49" t="s">
         <v>325</v>
       </c>
@@ -12147,7 +12390,7 @@
       <c r="E110" s="80"/>
       <c r="F110" s="80"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B111" s="49" t="s">
         <v>327</v>
       </c>
@@ -12158,7 +12401,7 @@
       <c r="E111" s="80"/>
       <c r="F111" s="80"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B112" s="49" t="s">
         <v>328</v>
       </c>
@@ -12169,7 +12412,7 @@
       <c r="E112" s="80"/>
       <c r="F112" s="80"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B113" s="49" t="s">
         <v>330</v>
       </c>
@@ -12180,7 +12423,7 @@
       <c r="E113" s="80"/>
       <c r="F113" s="80"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B114" s="49" t="s">
         <v>332</v>
       </c>
@@ -12191,7 +12434,7 @@
       <c r="E114" s="80"/>
       <c r="F114" s="80"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B115" s="49" t="s">
         <v>334</v>
       </c>
@@ -12202,7 +12445,7 @@
       <c r="E115" s="80"/>
       <c r="F115" s="80"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B116" s="49" t="s">
         <v>336</v>
       </c>
@@ -12213,7 +12456,7 @@
       <c r="E116" s="80"/>
       <c r="F116" s="80"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B117" s="49" t="s">
         <v>337</v>
       </c>
@@ -12224,7 +12467,7 @@
       <c r="E117" s="80"/>
       <c r="F117" s="80"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B118" s="49" t="s">
         <v>339</v>
       </c>
@@ -12235,7 +12478,7 @@
       <c r="E118" s="80"/>
       <c r="F118" s="80"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B119" s="49" t="s">
         <v>342</v>
       </c>
@@ -12246,7 +12489,7 @@
       <c r="E119" s="80"/>
       <c r="F119" s="80"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B120" s="49" t="s">
         <v>344</v>
       </c>
@@ -12257,7 +12500,7 @@
       <c r="E120" s="80"/>
       <c r="F120" s="80"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B121" s="90" t="s">
         <v>466</v>
       </c>
@@ -12268,7 +12511,7 @@
       <c r="E121" s="80"/>
       <c r="F121" s="80"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B122" s="49" t="s">
         <v>346</v>
       </c>
@@ -12279,7 +12522,7 @@
       <c r="E122" s="80"/>
       <c r="F122" s="80"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B123" s="49" t="s">
         <v>348</v>
       </c>
@@ -12290,7 +12533,7 @@
       <c r="E123" s="80"/>
       <c r="F123" s="80"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B124" s="49" t="s">
         <v>349</v>
       </c>
@@ -12301,7 +12544,7 @@
       <c r="E124" s="80"/>
       <c r="F124" s="80"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B125" s="90" t="s">
         <v>467</v>
       </c>
@@ -12312,7 +12555,7 @@
       <c r="E125" s="80"/>
       <c r="F125" s="80"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B126" s="49" t="s">
         <v>353</v>
       </c>
@@ -12323,7 +12566,7 @@
       <c r="E126" s="80"/>
       <c r="F126" s="80"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B127" s="49" t="s">
         <v>355</v>
       </c>
@@ -12334,7 +12577,7 @@
       <c r="E127" s="80"/>
       <c r="F127" s="80"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B128" s="49" t="s">
         <v>357</v>
       </c>
@@ -12345,7 +12588,7 @@
       <c r="E128" s="80"/>
       <c r="F128" s="80"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B129" s="49" t="s">
         <v>359</v>
       </c>
@@ -12356,7 +12599,7 @@
       <c r="E129" s="80"/>
       <c r="F129" s="80"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B130" s="49" t="s">
         <v>360</v>
       </c>
@@ -12367,7 +12610,7 @@
       <c r="E130" s="80"/>
       <c r="F130" s="80"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B131" s="49" t="s">
         <v>362</v>
       </c>
@@ -12378,7 +12621,7 @@
       <c r="E131" s="80"/>
       <c r="F131" s="80"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B132" s="90" t="s">
         <v>468</v>
       </c>
@@ -12389,7 +12632,7 @@
       <c r="E132" s="80"/>
       <c r="F132" s="80"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B133" s="49" t="s">
         <v>365</v>
       </c>
@@ -12400,7 +12643,7 @@
       <c r="E133" s="80"/>
       <c r="F133" s="80"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B134" s="90" t="s">
         <v>471</v>
       </c>
@@ -12411,7 +12654,7 @@
       <c r="E134" s="80"/>
       <c r="F134" s="80"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B135" s="49" t="s">
         <v>368</v>
       </c>
@@ -12422,7 +12665,7 @@
       <c r="E135" s="80"/>
       <c r="F135" s="80"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B136" s="49" t="s">
         <v>370</v>
       </c>
@@ -12433,7 +12676,7 @@
       <c r="E136" s="80"/>
       <c r="F136" s="80"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B137" s="49" t="s">
         <v>372</v>
       </c>
@@ -12444,7 +12687,7 @@
       <c r="E137" s="80"/>
       <c r="F137" s="80"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B138" s="49" t="s">
         <v>374</v>
       </c>
@@ -12455,7 +12698,7 @@
       <c r="E138" s="80"/>
       <c r="F138" s="80"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B139" s="49" t="s">
         <v>470</v>
       </c>
@@ -12466,7 +12709,7 @@
       <c r="E139" s="80"/>
       <c r="F139" s="80"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B140" s="49" t="s">
         <v>377</v>
       </c>
@@ -12477,7 +12720,7 @@
       <c r="E140" s="80"/>
       <c r="F140" s="80"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B141" s="49" t="s">
         <v>379</v>
       </c>
@@ -12488,7 +12731,7 @@
       <c r="E141" s="80"/>
       <c r="F141" s="80"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B142" s="49" t="s">
         <v>381</v>
       </c>
@@ -12499,7 +12742,7 @@
       <c r="E142" s="80"/>
       <c r="F142" s="80"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B143" s="49" t="s">
         <v>383</v>
       </c>
@@ -12510,7 +12753,7 @@
       <c r="E143" s="80"/>
       <c r="F143" s="80"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B144" s="49" t="s">
         <v>385</v>
       </c>
@@ -12521,7 +12764,7 @@
       <c r="E144" s="80"/>
       <c r="F144" s="80"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B145" s="49" t="s">
         <v>387</v>
       </c>
@@ -12532,7 +12775,7 @@
       <c r="E145" s="80"/>
       <c r="F145" s="80"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B146" s="49" t="s">
         <v>389</v>
       </c>
@@ -12543,7 +12786,7 @@
       <c r="E146" s="80"/>
       <c r="F146" s="80"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B147" s="49" t="s">
         <v>469</v>
       </c>
@@ -12554,7 +12797,7 @@
       <c r="E147" s="80"/>
       <c r="F147" s="80"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B148" s="90" t="s">
         <v>472</v>
       </c>
@@ -12565,7 +12808,7 @@
       <c r="E148" s="80"/>
       <c r="F148" s="80"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B149" s="49" t="s">
         <v>393</v>
       </c>
@@ -12576,7 +12819,7 @@
       <c r="E149" s="80"/>
       <c r="F149" s="80"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B150" s="49" t="s">
         <v>395</v>
       </c>
@@ -12587,7 +12830,7 @@
       <c r="E150" s="80"/>
       <c r="F150" s="80"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B151" s="49" t="s">
         <v>397</v>
       </c>
@@ -12598,7 +12841,7 @@
       <c r="E151" s="80"/>
       <c r="F151" s="80"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B152" s="49" t="s">
         <v>399</v>
       </c>
@@ -12609,7 +12852,7 @@
       <c r="E152" s="80"/>
       <c r="F152" s="80"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B153" s="49" t="s">
         <v>401</v>
       </c>
@@ -12620,7 +12863,7 @@
       <c r="E153" s="80"/>
       <c r="F153" s="80"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B154" s="49" t="s">
         <v>403</v>
       </c>
@@ -12631,7 +12874,7 @@
       <c r="E154" s="80"/>
       <c r="F154" s="80"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B155" s="49" t="s">
         <v>405</v>
       </c>
@@ -12642,7 +12885,7 @@
       <c r="E155" s="80"/>
       <c r="F155" s="80"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B156" s="49" t="s">
         <v>407</v>
       </c>
@@ -12653,7 +12896,7 @@
       <c r="E156" s="80"/>
       <c r="F156" s="80"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B157" s="49" t="s">
         <v>409</v>
       </c>
@@ -12664,7 +12907,7 @@
       <c r="E157" s="80"/>
       <c r="F157" s="80"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B158" s="49" t="s">
         <v>411</v>
       </c>
@@ -12675,7 +12918,7 @@
       <c r="E158" s="80"/>
       <c r="F158" s="80"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B159" s="49" t="s">
         <v>413</v>
       </c>
@@ -12686,7 +12929,7 @@
       <c r="E159" s="80"/>
       <c r="F159" s="80"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B160" s="49" t="s">
         <v>414</v>
       </c>
@@ -12697,7 +12940,7 @@
       <c r="E160" s="80"/>
       <c r="F160" s="80"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B161" s="49" t="s">
         <v>415</v>
       </c>
@@ -12708,7 +12951,7 @@
       <c r="E161" s="80"/>
       <c r="F161" s="80"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B162" s="90" t="s">
         <v>473</v>
       </c>
@@ -12719,7 +12962,7 @@
       <c r="E162" s="80"/>
       <c r="F162" s="80"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B163" s="49" t="s">
         <v>474</v>
       </c>
@@ -12730,7 +12973,7 @@
       <c r="E163" s="80"/>
       <c r="F163" s="80"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B164" s="49" t="s">
         <v>419</v>
       </c>
@@ -12741,7 +12984,7 @@
       <c r="E164" s="80"/>
       <c r="F164" s="80"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B165" s="49" t="s">
         <v>421</v>
       </c>
@@ -12752,7 +12995,7 @@
       <c r="E165" s="80"/>
       <c r="F165" s="80"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B166" s="49" t="s">
         <v>423</v>
       </c>
@@ -12763,7 +13006,7 @@
       <c r="E166" s="80"/>
       <c r="F166" s="80"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B167" s="49" t="s">
         <v>424</v>
       </c>
@@ -12774,7 +13017,7 @@
       <c r="E167" s="80"/>
       <c r="F167" s="80"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B168" s="49" t="s">
         <v>426</v>
       </c>
@@ -12785,7 +13028,7 @@
       <c r="E168" s="80"/>
       <c r="F168" s="80"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B169" s="49" t="s">
         <v>428</v>
       </c>
@@ -12796,7 +13039,7 @@
       <c r="E169" s="80"/>
       <c r="F169" s="80"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B170" s="49" t="s">
         <v>430</v>
       </c>
@@ -12807,7 +13050,7 @@
       <c r="E170" s="80"/>
       <c r="F170" s="80"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B171" s="49" t="s">
         <v>432</v>
       </c>
@@ -12818,7 +13061,7 @@
       <c r="E171" s="80"/>
       <c r="F171" s="80"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B172" s="49" t="s">
         <v>433</v>
       </c>
@@ -12829,36 +13072,36 @@
       <c r="E172" s="80"/>
       <c r="F172" s="80"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B173" s="49"/>
       <c r="C173" s="56"/>
       <c r="D173" s="49"/>
       <c r="E173" s="80"/>
       <c r="F173" s="80"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B174" s="49"/>
       <c r="C174" s="56"/>
       <c r="D174" s="49"/>
       <c r="E174" s="80"/>
       <c r="F174" s="80"/>
     </row>
-    <row r="176" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="7:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="177" spans="7:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="7:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="178" spans="7:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="7:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="179" spans="7:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="7:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="180" spans="7:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="7:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="181" spans="7:7" ht="16" x14ac:dyDescent="0.45">
       <c r="G181" s="1"/>
     </row>
   </sheetData>
@@ -12879,68 +13122,68 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="23.58203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.4140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="23.59765625" style="1"/>
+    <col min="13" max="16384" width="23.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
-      <c r="L2" s="166"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
+      <c r="L2" s="179"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
-      <c r="L3" s="167"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="183"/>
+      <c r="L3" s="180"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="172"/>
-      <c r="L4" s="167"/>
-    </row>
-    <row r="5" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="185"/>
+      <c r="L4" s="180"/>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -12965,9 +13208,9 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="167"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L5" s="180"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="44"/>
       <c r="C6" s="40"/>
       <c r="D6" s="11"/>
@@ -12977,9 +13220,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="167"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L6" s="180"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44"/>
       <c r="C7" s="40"/>
       <c r="D7" s="55"/>
@@ -12989,9 +13232,9 @@
       <c r="H7" s="34"/>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="167"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L7" s="180"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44"/>
       <c r="C8" s="56"/>
       <c r="D8" s="55"/>
@@ -13001,9 +13244,9 @@
       <c r="H8" s="34"/>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="167"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L8" s="180"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44"/>
       <c r="C9" s="56"/>
       <c r="D9" s="55"/>
@@ -13013,9 +13256,9 @@
       <c r="H9" s="34"/>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="167"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L9" s="180"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44"/>
       <c r="C10" s="56"/>
       <c r="D10" s="57"/>
@@ -13025,9 +13268,9 @@
       <c r="H10" s="59"/>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="167"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L10" s="180"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44"/>
       <c r="C11" s="56"/>
       <c r="D11" s="57"/>
@@ -13037,9 +13280,9 @@
       <c r="H11" s="59"/>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="167"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L11" s="180"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44"/>
       <c r="C12" s="40"/>
       <c r="D12" s="55"/>
@@ -13049,9 +13292,9 @@
       <c r="H12" s="34"/>
       <c r="I12" s="60"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="167"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L12" s="180"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -13061,9 +13304,9 @@
       <c r="H13" s="70"/>
       <c r="I13" s="71"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="167"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L13" s="180"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="48"/>
       <c r="C14" s="56"/>
       <c r="D14" s="57"/>
@@ -13073,9 +13316,9 @@
       <c r="H14" s="59"/>
       <c r="I14" s="60"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="167"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L14" s="180"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="48"/>
       <c r="C15" s="56"/>
       <c r="D15" s="72"/>
@@ -13085,9 +13328,9 @@
       <c r="H15" s="59"/>
       <c r="I15" s="60"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="167"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L15" s="180"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="48"/>
       <c r="C16" s="56"/>
       <c r="D16" s="61"/>
@@ -13097,9 +13340,9 @@
       <c r="H16" s="53"/>
       <c r="I16" s="54"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="167"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L16" s="180"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="48"/>
       <c r="C17" s="56"/>
       <c r="D17" s="51"/>
@@ -13109,9 +13352,9 @@
       <c r="H17" s="49"/>
       <c r="I17" s="54"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="167"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L17" s="180"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="25"/>
       <c r="C18" s="56"/>
       <c r="D18" s="22"/>
@@ -13121,9 +13364,9 @@
       <c r="H18" s="20"/>
       <c r="I18" s="24"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="167"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="180"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="25"/>
       <c r="C19" s="40"/>
       <c r="D19" s="26"/>
@@ -13133,9 +13376,9 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="167"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L19" s="180"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
       <c r="C20" s="40"/>
       <c r="D20" s="26"/>
@@ -13145,9 +13388,9 @@
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="167"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L20" s="180"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="30"/>
       <c r="C21" s="56"/>
       <c r="D21" s="26"/>
@@ -13157,9 +13400,9 @@
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="167"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L21" s="180"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="30"/>
       <c r="C22" s="42"/>
       <c r="D22" s="26"/>
@@ -13168,9 +13411,9 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
-      <c r="L22" s="167"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="180"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="30"/>
       <c r="C23" s="40"/>
       <c r="D23" s="26"/>
@@ -13179,9 +13422,9 @@
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
-      <c r="L23" s="167"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="180"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="30"/>
       <c r="C24" s="40"/>
       <c r="D24" s="26"/>
@@ -13190,9 +13433,9 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
-      <c r="L24" s="167"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="180"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="30"/>
       <c r="C25" s="42"/>
       <c r="D25" s="26"/>
@@ -13201,9 +13444,9 @@
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
-      <c r="L25" s="167"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L25" s="180"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30"/>
       <c r="C26" s="42"/>
       <c r="D26" s="26"/>
@@ -13212,9 +13455,9 @@
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
       <c r="I26" s="29"/>
-      <c r="L26" s="167"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="180"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="30"/>
       <c r="C27" s="42"/>
       <c r="D27" s="26"/>
@@ -13223,19 +13466,19 @@
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
       <c r="I27" s="29"/>
-      <c r="L27" s="179"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L27" s="192"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="43"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="175"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="41"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -13269,101 +13512,101 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F3" s="180" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F3" s="193" t="s">
         <v>717</v>
       </c>
-      <c r="G3" s="181"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="194"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>718</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>797</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>719</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>720</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>737</v>
       </c>

--- a/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
+++ b/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prais\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\LXH_PROJECT\framework\workspace\hd_const\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614234C-B867-430C-8D60-74273AC4BA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B9023-FCFB-43E6-93A5-FEF30945834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13866" firstSheet="1" activeTab="3" xr2:uid="{96C4C213-6181-49FF-9228-DD6ED82E8303}"/>
   </bookViews>
@@ -4275,7 +4275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4765,6 +4765,72 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4789,77 +4855,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5920,7 +5941,7 @@
   <dimension ref="B1:L307"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B194" sqref="B194"/>
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.58203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -5946,15 +5967,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="191"/>
-      <c r="L2" s="179"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
@@ -5963,32 +5984,32 @@
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182" t="s">
+      <c r="E3" s="169"/>
+      <c r="F3" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
-      <c r="L3" s="180"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
+      <c r="L3" s="164"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="185"/>
-      <c r="L4" s="180"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
@@ -6015,7 +6036,7 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="180"/>
+      <c r="L5" s="164"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="83" t="s">
@@ -6035,7 +6056,7 @@
       </c>
       <c r="I6" s="88"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="180"/>
+      <c r="L6" s="164"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
@@ -6053,7 +6074,7 @@
       </c>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="180"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44" t="s">
@@ -6071,7 +6092,7 @@
       </c>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="180"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44" t="s">
@@ -6089,7 +6110,7 @@
       </c>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="180"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
@@ -6107,7 +6128,7 @@
       </c>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="180"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44" t="s">
@@ -6125,7 +6146,7 @@
       </c>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="180"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44" t="s">
@@ -6143,7 +6164,7 @@
       </c>
       <c r="I12" s="36"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="180"/>
+      <c r="L12" s="164"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="25" t="s">
@@ -6161,7 +6182,7 @@
       </c>
       <c r="I13" s="29"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="180"/>
+      <c r="L13" s="164"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="30" t="s">
@@ -6179,7 +6200,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="180"/>
+      <c r="L14" s="164"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
@@ -6197,7 +6218,7 @@
       </c>
       <c r="I15" s="36"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="180"/>
+      <c r="L15" s="164"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="30" t="s">
@@ -6215,7 +6236,7 @@
       </c>
       <c r="I16" s="36"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="180"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="30" t="s">
@@ -6233,7 +6254,7 @@
       </c>
       <c r="I17" s="36"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="180"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="44" t="s">
@@ -6251,7 +6272,7 @@
       </c>
       <c r="I18" s="36"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="180"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="64" t="s">
@@ -6271,7 +6292,7 @@
       </c>
       <c r="I19" s="71"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="180"/>
+      <c r="L19" s="164"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="48" t="s">
@@ -6289,7 +6310,7 @@
       </c>
       <c r="I20" s="60"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="180"/>
+      <c r="L20" s="164"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="48" t="s">
@@ -6307,7 +6328,7 @@
       </c>
       <c r="I21" s="60"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="180"/>
+      <c r="L21" s="164"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="48" t="s">
@@ -6325,7 +6346,7 @@
       </c>
       <c r="I22" s="54"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="180"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="48" t="s">
@@ -6343,7 +6364,7 @@
       </c>
       <c r="I23" s="54"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="180"/>
+      <c r="L23" s="164"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="48" t="s">
@@ -6361,7 +6382,7 @@
       </c>
       <c r="I24" s="54"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="180"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="25" t="s">
@@ -6379,7 +6400,7 @@
       </c>
       <c r="I25" s="24"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="180"/>
+      <c r="L25" s="164"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30" t="s">
@@ -6397,7 +6418,7 @@
       </c>
       <c r="I26" s="24"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="180"/>
+      <c r="L26" s="164"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="25" t="s">
@@ -6415,7 +6436,7 @@
       </c>
       <c r="I27" s="29"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="180"/>
+      <c r="L27" s="164"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
@@ -6433,7 +6454,7 @@
       </c>
       <c r="I28" s="29"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="180"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
@@ -6451,7 +6472,7 @@
       </c>
       <c r="I29" s="29"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="180"/>
+      <c r="L29" s="164"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="30" t="s">
@@ -6469,7 +6490,7 @@
       </c>
       <c r="I30" s="29"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="180"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="30" t="s">
@@ -6487,7 +6508,7 @@
       </c>
       <c r="I31" s="29"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="180"/>
+      <c r="L31" s="164"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="30" t="s">
@@ -6505,7 +6526,7 @@
       </c>
       <c r="I32" s="29"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="180"/>
+      <c r="L32" s="164"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="30" t="s">
@@ -6522,7 +6543,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="29"/>
-      <c r="L33" s="180"/>
+      <c r="L33" s="164"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="30" t="s">
@@ -6539,7 +6560,7 @@
         <v>39</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="L34" s="180"/>
+      <c r="L34" s="164"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="30" t="s">
@@ -6556,7 +6577,7 @@
         <v>199</v>
       </c>
       <c r="I35" s="29"/>
-      <c r="L35" s="180"/>
+      <c r="L35" s="164"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="30" t="s">
@@ -6573,7 +6594,7 @@
         <v>198</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="L36" s="180"/>
+      <c r="L36" s="164"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="30" t="s">
@@ -6590,7 +6611,7 @@
         <v>105</v>
       </c>
       <c r="I37" s="29"/>
-      <c r="L37" s="180"/>
+      <c r="L37" s="164"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="30" t="s">
@@ -6607,7 +6628,7 @@
         <v>200</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="L38" s="180"/>
+      <c r="L38" s="164"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="30" t="s">
@@ -6624,17 +6645,17 @@
         <v>104</v>
       </c>
       <c r="I39" s="29"/>
-      <c r="L39" s="192"/>
+      <c r="L39" s="165"/>
     </row>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="43"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="188"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="176"/>
     </row>
     <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
@@ -6642,14 +6663,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="174" t="s">
+      <c r="D42" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="175"/>
-      <c r="F42" s="176"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="178"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="184"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
@@ -6658,30 +6679,30 @@
       <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="163" t="s">
+      <c r="D43" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="164"/>
-      <c r="F43" s="165" t="s">
+      <c r="E43" s="186"/>
+      <c r="F43" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="167"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="189"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="168" t="s">
+      <c r="C44" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="170"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="192"/>
     </row>
     <row r="45" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="32" t="s">
@@ -7002,13 +7023,13 @@
     </row>
     <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="43"/>
-      <c r="C63" s="171"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="172"/>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
-      <c r="I63" s="173"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="178"/>
+      <c r="G63" s="178"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="179"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -7016,14 +7037,14 @@
         <v>4</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="174" t="s">
+      <c r="D65" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="175"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="178"/>
+      <c r="E65" s="181"/>
+      <c r="F65" s="182"/>
+      <c r="G65" s="183"/>
+      <c r="H65" s="183"/>
+      <c r="I65" s="184"/>
     </row>
     <row r="66" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
@@ -7032,30 +7053,30 @@
       <c r="C66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D66" s="163" t="s">
+      <c r="D66" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="164"/>
-      <c r="F66" s="165" t="s">
+      <c r="E66" s="186"/>
+      <c r="F66" s="187" t="s">
         <v>440</v>
       </c>
-      <c r="G66" s="166"/>
-      <c r="H66" s="166"/>
-      <c r="I66" s="167"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="189"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="168" t="s">
+      <c r="C67" s="190" t="s">
         <v>441</v>
       </c>
-      <c r="D67" s="169"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
-      <c r="G67" s="169"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="170"/>
+      <c r="D67" s="191"/>
+      <c r="E67" s="191"/>
+      <c r="F67" s="191"/>
+      <c r="G67" s="191"/>
+      <c r="H67" s="191"/>
+      <c r="I67" s="192"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="32" t="s">
@@ -7240,13 +7261,13 @@
     </row>
     <row r="78" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="43"/>
-      <c r="C78" s="171"/>
-      <c r="D78" s="172"/>
-      <c r="E78" s="172"/>
-      <c r="F78" s="172"/>
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="173"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="178"/>
+      <c r="E78" s="178"/>
+      <c r="F78" s="178"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="179"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -7254,14 +7275,14 @@
         <v>4</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="174" t="s">
+      <c r="D80" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="175"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="177"/>
-      <c r="I80" s="178"/>
+      <c r="E80" s="181"/>
+      <c r="F80" s="182"/>
+      <c r="G80" s="183"/>
+      <c r="H80" s="183"/>
+      <c r="I80" s="184"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B81" s="5" t="s">
@@ -7270,30 +7291,30 @@
       <c r="C81" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D81" s="163" t="s">
+      <c r="D81" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="164"/>
-      <c r="F81" s="165" t="s">
+      <c r="E81" s="186"/>
+      <c r="F81" s="187" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="166"/>
-      <c r="H81" s="166"/>
-      <c r="I81" s="167"/>
+      <c r="G81" s="188"/>
+      <c r="H81" s="188"/>
+      <c r="I81" s="189"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="168" t="s">
+      <c r="C82" s="190" t="s">
         <v>494</v>
       </c>
-      <c r="D82" s="169"/>
-      <c r="E82" s="169"/>
-      <c r="F82" s="169"/>
-      <c r="G82" s="169"/>
-      <c r="H82" s="169"/>
-      <c r="I82" s="170"/>
+      <c r="D82" s="191"/>
+      <c r="E82" s="191"/>
+      <c r="F82" s="191"/>
+      <c r="G82" s="191"/>
+      <c r="H82" s="191"/>
+      <c r="I82" s="192"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B83" s="32" t="s">
@@ -7523,13 +7544,13 @@
     </row>
     <row r="96" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B96" s="43"/>
-      <c r="C96" s="171"/>
-      <c r="D96" s="172"/>
-      <c r="E96" s="172"/>
-      <c r="F96" s="172"/>
-      <c r="G96" s="172"/>
-      <c r="H96" s="172"/>
-      <c r="I96" s="173"/>
+      <c r="C96" s="177"/>
+      <c r="D96" s="178"/>
+      <c r="E96" s="178"/>
+      <c r="F96" s="178"/>
+      <c r="G96" s="178"/>
+      <c r="H96" s="178"/>
+      <c r="I96" s="179"/>
     </row>
     <row r="97" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="98" spans="2:12" x14ac:dyDescent="0.45">
@@ -7537,15 +7558,15 @@
         <v>4</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="189" t="s">
+      <c r="D98" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="189"/>
-      <c r="F98" s="190"/>
-      <c r="G98" s="190"/>
-      <c r="H98" s="190"/>
-      <c r="I98" s="191"/>
-      <c r="L98" s="179"/>
+      <c r="E98" s="166"/>
+      <c r="F98" s="167"/>
+      <c r="G98" s="167"/>
+      <c r="H98" s="167"/>
+      <c r="I98" s="168"/>
+      <c r="L98" s="163"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
@@ -7554,32 +7575,32 @@
       <c r="C99" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="181" t="s">
+      <c r="D99" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="181"/>
-      <c r="F99" s="182" t="s">
+      <c r="E99" s="169"/>
+      <c r="F99" s="170" t="s">
         <v>446</v>
       </c>
-      <c r="G99" s="182"/>
-      <c r="H99" s="182"/>
-      <c r="I99" s="183"/>
-      <c r="L99" s="180"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="170"/>
+      <c r="I99" s="171"/>
+      <c r="L99" s="164"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="184" t="s">
+      <c r="C100" s="172" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="184"/>
-      <c r="E100" s="184"/>
-      <c r="F100" s="184"/>
-      <c r="G100" s="184"/>
-      <c r="H100" s="184"/>
-      <c r="I100" s="185"/>
-      <c r="L100" s="180"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="172"/>
+      <c r="F100" s="172"/>
+      <c r="G100" s="172"/>
+      <c r="H100" s="172"/>
+      <c r="I100" s="173"/>
+      <c r="L100" s="164"/>
     </row>
     <row r="101" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B101" s="7" t="s">
@@ -7606,7 +7627,7 @@
       <c r="I101" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="180"/>
+      <c r="L101" s="164"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="83" t="s">
@@ -7626,7 +7647,7 @@
       </c>
       <c r="I102" s="88"/>
       <c r="K102" s="16"/>
-      <c r="L102" s="180"/>
+      <c r="L102" s="164"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="91" t="s">
@@ -7644,7 +7665,7 @@
       </c>
       <c r="I103" s="54"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="180"/>
+      <c r="L103" s="164"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="91" t="s">
@@ -7662,7 +7683,7 @@
       </c>
       <c r="I104" s="60"/>
       <c r="K104" s="16"/>
-      <c r="L104" s="180"/>
+      <c r="L104" s="164"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="91" t="s">
@@ -7680,7 +7701,7 @@
       </c>
       <c r="I105" s="60"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="180"/>
+      <c r="L105" s="164"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="91" t="s">
@@ -7698,7 +7719,7 @@
       </c>
       <c r="I106" s="60"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="180"/>
+      <c r="L106" s="164"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="91" t="s">
@@ -7716,7 +7737,7 @@
       </c>
       <c r="I107" s="60"/>
       <c r="K107" s="16"/>
-      <c r="L107" s="180"/>
+      <c r="L107" s="164"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="91" t="s">
@@ -7734,7 +7755,7 @@
       </c>
       <c r="I108" s="60"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="180"/>
+      <c r="L108" s="164"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="82" t="s">
@@ -7752,7 +7773,7 @@
       </c>
       <c r="I109" s="81"/>
       <c r="K109" s="16"/>
-      <c r="L109" s="180"/>
+      <c r="L109" s="164"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="48" t="s">
@@ -7770,7 +7791,7 @@
       </c>
       <c r="I110" s="81"/>
       <c r="K110" s="16"/>
-      <c r="L110" s="180"/>
+      <c r="L110" s="164"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="48" t="s">
@@ -7788,7 +7809,7 @@
       </c>
       <c r="I111" s="60"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="180"/>
+      <c r="L111" s="164"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="48" t="s">
@@ -7806,7 +7827,7 @@
       </c>
       <c r="I112" s="60"/>
       <c r="K112" s="16"/>
-      <c r="L112" s="180"/>
+      <c r="L112" s="164"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="48" t="s">
@@ -7824,7 +7845,7 @@
       </c>
       <c r="I113" s="60"/>
       <c r="K113" s="16"/>
-      <c r="L113" s="180"/>
+      <c r="L113" s="164"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="91" t="s">
@@ -7842,7 +7863,7 @@
       </c>
       <c r="I114" s="60"/>
       <c r="K114" s="16"/>
-      <c r="L114" s="180"/>
+      <c r="L114" s="164"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="48" t="s">
@@ -7860,7 +7881,7 @@
       </c>
       <c r="I115" s="60"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="180"/>
+      <c r="L115" s="164"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="48" t="s">
@@ -7878,7 +7899,7 @@
       </c>
       <c r="I116" s="60"/>
       <c r="K116" s="16"/>
-      <c r="L116" s="180"/>
+      <c r="L116" s="164"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="48" t="s">
@@ -7896,7 +7917,7 @@
       </c>
       <c r="I117" s="54"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="180"/>
+      <c r="L117" s="164"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="48" t="s">
@@ -7914,7 +7935,7 @@
       </c>
       <c r="I118" s="54"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="180"/>
+      <c r="L118" s="164"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="48" t="s">
@@ -7932,7 +7953,7 @@
       </c>
       <c r="I119" s="54"/>
       <c r="K119" s="16"/>
-      <c r="L119" s="180"/>
+      <c r="L119" s="164"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="25" t="s">
@@ -7950,7 +7971,7 @@
       </c>
       <c r="I120" s="24"/>
       <c r="K120" s="16"/>
-      <c r="L120" s="180"/>
+      <c r="L120" s="164"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="30" t="s">
@@ -7968,7 +7989,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="K121" s="16"/>
-      <c r="L121" s="180"/>
+      <c r="L121" s="164"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="25" t="s">
@@ -7986,7 +8007,7 @@
       </c>
       <c r="I122" s="29"/>
       <c r="K122" s="16"/>
-      <c r="L122" s="180"/>
+      <c r="L122" s="164"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="30" t="s">
@@ -8004,7 +8025,7 @@
       </c>
       <c r="I123" s="29"/>
       <c r="K123" s="31"/>
-      <c r="L123" s="180"/>
+      <c r="L123" s="164"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="30" t="s">
@@ -8022,17 +8043,17 @@
       </c>
       <c r="I124" s="29"/>
       <c r="K124" s="31"/>
-      <c r="L124" s="180"/>
+      <c r="L124" s="164"/>
     </row>
     <row r="125" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B125" s="43"/>
-      <c r="C125" s="186"/>
-      <c r="D125" s="187"/>
-      <c r="E125" s="187"/>
-      <c r="F125" s="187"/>
-      <c r="G125" s="187"/>
-      <c r="H125" s="187"/>
-      <c r="I125" s="188"/>
+      <c r="C125" s="174"/>
+      <c r="D125" s="175"/>
+      <c r="E125" s="175"/>
+      <c r="F125" s="175"/>
+      <c r="G125" s="175"/>
+      <c r="H125" s="175"/>
+      <c r="I125" s="176"/>
     </row>
     <row r="126" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="127" spans="2:12" x14ac:dyDescent="0.45">
@@ -8040,14 +8061,14 @@
         <v>4</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="174" t="s">
+      <c r="D127" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="175"/>
-      <c r="F127" s="176"/>
-      <c r="G127" s="177"/>
-      <c r="H127" s="177"/>
-      <c r="I127" s="178"/>
+      <c r="E127" s="181"/>
+      <c r="F127" s="182"/>
+      <c r="G127" s="183"/>
+      <c r="H127" s="183"/>
+      <c r="I127" s="184"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="5" t="s">
@@ -8056,30 +8077,30 @@
       <c r="C128" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D128" s="163" t="s">
+      <c r="D128" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="164"/>
-      <c r="F128" s="165" t="s">
+      <c r="E128" s="186"/>
+      <c r="F128" s="187" t="s">
         <v>447</v>
       </c>
-      <c r="G128" s="166"/>
-      <c r="H128" s="166"/>
-      <c r="I128" s="167"/>
+      <c r="G128" s="188"/>
+      <c r="H128" s="188"/>
+      <c r="I128" s="189"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="168" t="s">
+      <c r="C129" s="190" t="s">
         <v>525</v>
       </c>
-      <c r="D129" s="169"/>
-      <c r="E129" s="169"/>
-      <c r="F129" s="169"/>
-      <c r="G129" s="169"/>
-      <c r="H129" s="169"/>
-      <c r="I129" s="170"/>
+      <c r="D129" s="191"/>
+      <c r="E129" s="191"/>
+      <c r="F129" s="191"/>
+      <c r="G129" s="191"/>
+      <c r="H129" s="191"/>
+      <c r="I129" s="192"/>
     </row>
     <row r="130" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B130" s="32" t="s">
@@ -8332,13 +8353,13 @@
     </row>
     <row r="144" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B144" s="43"/>
-      <c r="C144" s="171"/>
-      <c r="D144" s="172"/>
-      <c r="E144" s="172"/>
-      <c r="F144" s="172"/>
-      <c r="G144" s="172"/>
-      <c r="H144" s="172"/>
-      <c r="I144" s="173"/>
+      <c r="C144" s="177"/>
+      <c r="D144" s="178"/>
+      <c r="E144" s="178"/>
+      <c r="F144" s="178"/>
+      <c r="G144" s="178"/>
+      <c r="H144" s="178"/>
+      <c r="I144" s="179"/>
     </row>
     <row r="145" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="146" spans="2:12" x14ac:dyDescent="0.45">
@@ -8346,15 +8367,15 @@
         <v>4</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="189" t="s">
+      <c r="D146" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="189"/>
-      <c r="F146" s="190"/>
-      <c r="G146" s="190"/>
-      <c r="H146" s="190"/>
-      <c r="I146" s="191"/>
-      <c r="L146" s="179"/>
+      <c r="E146" s="166"/>
+      <c r="F146" s="167"/>
+      <c r="G146" s="167"/>
+      <c r="H146" s="167"/>
+      <c r="I146" s="168"/>
+      <c r="L146" s="163"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="5" t="s">
@@ -8363,32 +8384,32 @@
       <c r="C147" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D147" s="181" t="s">
+      <c r="D147" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="181"/>
-      <c r="F147" s="182" t="s">
+      <c r="E147" s="169"/>
+      <c r="F147" s="170" t="s">
         <v>594</v>
       </c>
-      <c r="G147" s="182"/>
-      <c r="H147" s="182"/>
-      <c r="I147" s="183"/>
-      <c r="L147" s="180"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="171"/>
+      <c r="L147" s="164"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="184" t="s">
+      <c r="C148" s="172" t="s">
         <v>590</v>
       </c>
-      <c r="D148" s="184"/>
-      <c r="E148" s="184"/>
-      <c r="F148" s="184"/>
-      <c r="G148" s="184"/>
-      <c r="H148" s="184"/>
-      <c r="I148" s="185"/>
-      <c r="L148" s="180"/>
+      <c r="D148" s="172"/>
+      <c r="E148" s="172"/>
+      <c r="F148" s="172"/>
+      <c r="G148" s="172"/>
+      <c r="H148" s="172"/>
+      <c r="I148" s="173"/>
+      <c r="L148" s="164"/>
     </row>
     <row r="149" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B149" s="7" t="s">
@@ -8415,7 +8436,7 @@
       <c r="I149" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L149" s="180"/>
+      <c r="L149" s="164"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="83" t="s">
@@ -8435,7 +8456,7 @@
       </c>
       <c r="I150" s="88"/>
       <c r="K150" s="16"/>
-      <c r="L150" s="180"/>
+      <c r="L150" s="164"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="91" t="s">
@@ -8453,7 +8474,7 @@
       </c>
       <c r="I151" s="54"/>
       <c r="K151" s="16"/>
-      <c r="L151" s="180"/>
+      <c r="L151" s="164"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="91" t="s">
@@ -8471,7 +8492,7 @@
       </c>
       <c r="I152" s="60"/>
       <c r="K152" s="16"/>
-      <c r="L152" s="180"/>
+      <c r="L152" s="164"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="91" t="s">
@@ -8489,7 +8510,7 @@
       </c>
       <c r="I153" s="60"/>
       <c r="K153" s="16"/>
-      <c r="L153" s="180"/>
+      <c r="L153" s="164"/>
     </row>
     <row r="154" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B154" s="91" t="s">
@@ -8507,7 +8528,7 @@
       </c>
       <c r="I154" s="60"/>
       <c r="K154" s="16"/>
-      <c r="L154" s="180"/>
+      <c r="L154" s="164"/>
     </row>
     <row r="155" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B155" s="91" t="s">
@@ -8525,7 +8546,7 @@
       </c>
       <c r="I155" s="60"/>
       <c r="K155" s="16"/>
-      <c r="L155" s="180"/>
+      <c r="L155" s="164"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="91" t="s">
@@ -8543,7 +8564,7 @@
       </c>
       <c r="I156" s="60"/>
       <c r="K156" s="16"/>
-      <c r="L156" s="180"/>
+      <c r="L156" s="164"/>
     </row>
     <row r="157" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B157" s="91" t="s">
@@ -8561,7 +8582,7 @@
       </c>
       <c r="I157" s="60"/>
       <c r="K157" s="16"/>
-      <c r="L157" s="180"/>
+      <c r="L157" s="164"/>
     </row>
     <row r="158" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B158" s="91" t="s">
@@ -8579,7 +8600,7 @@
       </c>
       <c r="I158" s="60"/>
       <c r="K158" s="16"/>
-      <c r="L158" s="180"/>
+      <c r="L158" s="164"/>
     </row>
     <row r="159" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B159" s="91" t="s">
@@ -8597,7 +8618,7 @@
       </c>
       <c r="I159" s="60"/>
       <c r="K159" s="16"/>
-      <c r="L159" s="180"/>
+      <c r="L159" s="164"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="91" t="s">
@@ -8615,7 +8636,7 @@
       </c>
       <c r="I160" s="60"/>
       <c r="K160" s="16"/>
-      <c r="L160" s="180"/>
+      <c r="L160" s="164"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B161" s="91" t="s">
@@ -8633,7 +8654,7 @@
       </c>
       <c r="I161" s="60"/>
       <c r="K161" s="16"/>
-      <c r="L161" s="180"/>
+      <c r="L161" s="164"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B162" s="147" t="s">
@@ -8651,7 +8672,7 @@
       </c>
       <c r="I162" s="154"/>
       <c r="K162" s="16"/>
-      <c r="L162" s="180"/>
+      <c r="L162" s="164"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B163" s="147" t="s">
@@ -8669,7 +8690,7 @@
       </c>
       <c r="I163" s="154"/>
       <c r="K163" s="16"/>
-      <c r="L163" s="180"/>
+      <c r="L163" s="164"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B164" s="147" t="s">
@@ -8687,7 +8708,7 @@
       </c>
       <c r="I164" s="154"/>
       <c r="K164" s="16"/>
-      <c r="L164" s="180"/>
+      <c r="L164" s="164"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B165" s="147" t="s">
@@ -8705,7 +8726,7 @@
       </c>
       <c r="I165" s="154"/>
       <c r="K165" s="16"/>
-      <c r="L165" s="180"/>
+      <c r="L165" s="164"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B166" s="147" t="s">
@@ -8723,7 +8744,7 @@
       </c>
       <c r="I166" s="154"/>
       <c r="K166" s="16"/>
-      <c r="L166" s="180"/>
+      <c r="L166" s="164"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B167" s="147" t="s">
@@ -8741,7 +8762,7 @@
       </c>
       <c r="I167" s="154"/>
       <c r="K167" s="16"/>
-      <c r="L167" s="180"/>
+      <c r="L167" s="164"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B168" s="91" t="s">
@@ -8759,7 +8780,7 @@
       </c>
       <c r="I168" s="60"/>
       <c r="K168" s="16"/>
-      <c r="L168" s="180"/>
+      <c r="L168" s="164"/>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B169" s="91" t="s">
@@ -8777,7 +8798,7 @@
       </c>
       <c r="I169" s="60"/>
       <c r="K169" s="16"/>
-      <c r="L169" s="180"/>
+      <c r="L169" s="164"/>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B170" s="91" t="s">
@@ -8795,7 +8816,7 @@
       </c>
       <c r="I170" s="60"/>
       <c r="K170" s="16"/>
-      <c r="L170" s="180"/>
+      <c r="L170" s="164"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B171" s="91" t="s">
@@ -8813,7 +8834,7 @@
       </c>
       <c r="I171" s="60"/>
       <c r="K171" s="16"/>
-      <c r="L171" s="180"/>
+      <c r="L171" s="164"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="91" t="s">
@@ -8831,7 +8852,7 @@
       </c>
       <c r="I172" s="60"/>
       <c r="K172" s="16"/>
-      <c r="L172" s="180"/>
+      <c r="L172" s="164"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B173" s="91" t="s">
@@ -8849,7 +8870,7 @@
       </c>
       <c r="I173" s="60"/>
       <c r="K173" s="16"/>
-      <c r="L173" s="180"/>
+      <c r="L173" s="164"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B174" s="91" t="s">
@@ -8867,7 +8888,7 @@
       </c>
       <c r="I174" s="60"/>
       <c r="K174" s="16"/>
-      <c r="L174" s="180"/>
+      <c r="L174" s="164"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B175" s="91" t="s">
@@ -8885,7 +8906,7 @@
       </c>
       <c r="I175" s="60"/>
       <c r="K175" s="16"/>
-      <c r="L175" s="180"/>
+      <c r="L175" s="164"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B176" s="91" t="s">
@@ -8903,7 +8924,7 @@
       </c>
       <c r="I176" s="60"/>
       <c r="K176" s="16"/>
-      <c r="L176" s="180"/>
+      <c r="L176" s="164"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="91" t="s">
@@ -8921,7 +8942,7 @@
       </c>
       <c r="I177" s="60"/>
       <c r="K177" s="16"/>
-      <c r="L177" s="180"/>
+      <c r="L177" s="164"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="91" t="s">
@@ -8961,13 +8982,13 @@
     </row>
     <row r="180" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B180" s="43"/>
-      <c r="C180" s="186"/>
-      <c r="D180" s="187"/>
-      <c r="E180" s="187"/>
-      <c r="F180" s="187"/>
-      <c r="G180" s="187"/>
-      <c r="H180" s="187"/>
-      <c r="I180" s="188"/>
+      <c r="C180" s="174"/>
+      <c r="D180" s="175"/>
+      <c r="E180" s="175"/>
+      <c r="F180" s="175"/>
+      <c r="G180" s="175"/>
+      <c r="H180" s="175"/>
+      <c r="I180" s="176"/>
     </row>
     <row r="181" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B181" s="37"/>
@@ -8984,14 +9005,14 @@
         <v>4</v>
       </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="174" t="s">
+      <c r="D182" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E182" s="175"/>
-      <c r="F182" s="176"/>
-      <c r="G182" s="177"/>
-      <c r="H182" s="177"/>
-      <c r="I182" s="178"/>
+      <c r="E182" s="181"/>
+      <c r="F182" s="182"/>
+      <c r="G182" s="183"/>
+      <c r="H182" s="183"/>
+      <c r="I182" s="184"/>
     </row>
     <row r="183" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="5" t="s">
@@ -9000,31 +9021,31 @@
       <c r="C183" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="D183" s="163" t="s">
+      <c r="D183" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="164"/>
-      <c r="F183" s="165" t="s">
+      <c r="E183" s="186"/>
+      <c r="F183" s="187" t="s">
         <v>816</v>
       </c>
-      <c r="G183" s="166"/>
-      <c r="H183" s="166"/>
-      <c r="I183" s="167"/>
+      <c r="G183" s="188"/>
+      <c r="H183" s="188"/>
+      <c r="I183" s="189"/>
       <c r="K183" s="145"/>
     </row>
     <row r="184" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="168" t="s">
+      <c r="C184" s="190" t="s">
         <v>814</v>
       </c>
-      <c r="D184" s="169"/>
-      <c r="E184" s="169"/>
-      <c r="F184" s="169"/>
-      <c r="G184" s="169"/>
-      <c r="H184" s="169"/>
-      <c r="I184" s="170"/>
+      <c r="D184" s="191"/>
+      <c r="E184" s="191"/>
+      <c r="F184" s="191"/>
+      <c r="G184" s="191"/>
+      <c r="H184" s="191"/>
+      <c r="I184" s="192"/>
       <c r="K184" s="145"/>
     </row>
     <row r="185" spans="2:12" ht="17" x14ac:dyDescent="0.45">
@@ -9207,37 +9228,37 @@
       <c r="K193" s="145"/>
     </row>
     <row r="194" spans="2:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="B194" s="91" t="s">
+      <c r="B194" s="195" t="s">
         <v>843</v>
       </c>
-      <c r="C194" s="49" t="s">
+      <c r="C194" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="D194" s="57"/>
-      <c r="E194" s="52"/>
-      <c r="F194" s="52"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="59" t="s">
+      <c r="D194" s="197"/>
+      <c r="E194" s="198"/>
+      <c r="F194" s="198"/>
+      <c r="G194" s="199"/>
+      <c r="H194" s="200" t="s">
         <v>846</v>
       </c>
-      <c r="I194" s="144"/>
+      <c r="I194" s="201"/>
       <c r="K194" s="145"/>
     </row>
     <row r="195" spans="2:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="B195" s="91" t="s">
+      <c r="B195" s="195" t="s">
         <v>844</v>
       </c>
-      <c r="C195" s="49" t="s">
+      <c r="C195" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="D195" s="57"/>
-      <c r="E195" s="52"/>
-      <c r="F195" s="52"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="59" t="s">
+      <c r="D195" s="197"/>
+      <c r="E195" s="198"/>
+      <c r="F195" s="198"/>
+      <c r="G195" s="199"/>
+      <c r="H195" s="200" t="s">
         <v>848</v>
       </c>
-      <c r="I195" s="144"/>
+      <c r="I195" s="201"/>
       <c r="K195" s="145"/>
     </row>
     <row r="196" spans="2:11" ht="17" x14ac:dyDescent="0.45">
@@ -9473,13 +9494,13 @@
     </row>
     <row r="209" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B209" s="43"/>
-      <c r="C209" s="171"/>
-      <c r="D209" s="172"/>
-      <c r="E209" s="172"/>
-      <c r="F209" s="172"/>
-      <c r="G209" s="172"/>
-      <c r="H209" s="172"/>
-      <c r="I209" s="173"/>
+      <c r="C209" s="177"/>
+      <c r="D209" s="178"/>
+      <c r="E209" s="178"/>
+      <c r="F209" s="178"/>
+      <c r="G209" s="178"/>
+      <c r="H209" s="178"/>
+      <c r="I209" s="179"/>
     </row>
     <row r="210" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B210" s="37"/>
@@ -9497,14 +9518,14 @@
         <v>4</v>
       </c>
       <c r="C212" s="4"/>
-      <c r="D212" s="174" t="s">
+      <c r="D212" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E212" s="175"/>
-      <c r="F212" s="176"/>
-      <c r="G212" s="177"/>
-      <c r="H212" s="177"/>
-      <c r="I212" s="178"/>
+      <c r="E212" s="181"/>
+      <c r="F212" s="182"/>
+      <c r="G212" s="183"/>
+      <c r="H212" s="183"/>
+      <c r="I212" s="184"/>
     </row>
     <row r="213" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B213" s="5" t="s">
@@ -9513,30 +9534,30 @@
       <c r="C213" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D213" s="163" t="s">
+      <c r="D213" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E213" s="164"/>
-      <c r="F213" s="165" t="s">
+      <c r="E213" s="186"/>
+      <c r="F213" s="187" t="s">
         <v>642</v>
       </c>
-      <c r="G213" s="166"/>
-      <c r="H213" s="166"/>
-      <c r="I213" s="167"/>
+      <c r="G213" s="188"/>
+      <c r="H213" s="188"/>
+      <c r="I213" s="189"/>
     </row>
     <row r="214" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B214" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="168" t="s">
+      <c r="C214" s="190" t="s">
         <v>734</v>
       </c>
-      <c r="D214" s="169"/>
-      <c r="E214" s="169"/>
-      <c r="F214" s="169"/>
-      <c r="G214" s="169"/>
-      <c r="H214" s="169"/>
-      <c r="I214" s="170"/>
+      <c r="D214" s="191"/>
+      <c r="E214" s="191"/>
+      <c r="F214" s="191"/>
+      <c r="G214" s="191"/>
+      <c r="H214" s="191"/>
+      <c r="I214" s="192"/>
     </row>
     <row r="215" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B215" s="32" t="s">
@@ -9865,13 +9886,13 @@
     </row>
     <row r="233" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B233" s="43"/>
-      <c r="C233" s="171"/>
-      <c r="D233" s="172"/>
-      <c r="E233" s="172"/>
-      <c r="F233" s="172"/>
-      <c r="G233" s="172"/>
-      <c r="H233" s="172"/>
-      <c r="I233" s="173"/>
+      <c r="C233" s="177"/>
+      <c r="D233" s="178"/>
+      <c r="E233" s="178"/>
+      <c r="F233" s="178"/>
+      <c r="G233" s="178"/>
+      <c r="H233" s="178"/>
+      <c r="I233" s="179"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B234" s="37"/>
@@ -9899,14 +9920,14 @@
         <v>4</v>
       </c>
       <c r="C237" s="4"/>
-      <c r="D237" s="174" t="s">
+      <c r="D237" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E237" s="175"/>
-      <c r="F237" s="176"/>
-      <c r="G237" s="177"/>
-      <c r="H237" s="177"/>
-      <c r="I237" s="178"/>
+      <c r="E237" s="181"/>
+      <c r="F237" s="182"/>
+      <c r="G237" s="183"/>
+      <c r="H237" s="183"/>
+      <c r="I237" s="184"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B238" s="5" t="s">
@@ -9915,30 +9936,30 @@
       <c r="C238" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D238" s="163" t="s">
+      <c r="D238" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="164"/>
-      <c r="F238" s="165" t="s">
+      <c r="E238" s="186"/>
+      <c r="F238" s="187" t="s">
         <v>665</v>
       </c>
-      <c r="G238" s="166"/>
-      <c r="H238" s="166"/>
-      <c r="I238" s="167"/>
+      <c r="G238" s="188"/>
+      <c r="H238" s="188"/>
+      <c r="I238" s="189"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B239" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C239" s="168" t="s">
+      <c r="C239" s="190" t="s">
         <v>663</v>
       </c>
-      <c r="D239" s="169"/>
-      <c r="E239" s="169"/>
-      <c r="F239" s="169"/>
-      <c r="G239" s="169"/>
-      <c r="H239" s="169"/>
-      <c r="I239" s="170"/>
+      <c r="D239" s="191"/>
+      <c r="E239" s="191"/>
+      <c r="F239" s="191"/>
+      <c r="G239" s="191"/>
+      <c r="H239" s="191"/>
+      <c r="I239" s="192"/>
     </row>
     <row r="240" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B240" s="32" t="s">
@@ -10142,13 +10163,13 @@
     </row>
     <row r="251" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B251" s="43"/>
-      <c r="C251" s="171"/>
-      <c r="D251" s="172"/>
-      <c r="E251" s="172"/>
-      <c r="F251" s="172"/>
-      <c r="G251" s="172"/>
-      <c r="H251" s="172"/>
-      <c r="I251" s="173"/>
+      <c r="C251" s="177"/>
+      <c r="D251" s="178"/>
+      <c r="E251" s="178"/>
+      <c r="F251" s="178"/>
+      <c r="G251" s="178"/>
+      <c r="H251" s="178"/>
+      <c r="I251" s="179"/>
     </row>
     <row r="252" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="253" spans="2:11" x14ac:dyDescent="0.45">
@@ -10156,14 +10177,14 @@
         <v>4</v>
       </c>
       <c r="C253" s="4"/>
-      <c r="D253" s="174" t="s">
+      <c r="D253" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E253" s="175"/>
-      <c r="F253" s="176"/>
-      <c r="G253" s="177"/>
-      <c r="H253" s="177"/>
-      <c r="I253" s="178"/>
+      <c r="E253" s="181"/>
+      <c r="F253" s="182"/>
+      <c r="G253" s="183"/>
+      <c r="H253" s="183"/>
+      <c r="I253" s="184"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B254" s="5" t="s">
@@ -10172,30 +10193,30 @@
       <c r="C254" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D254" s="163" t="s">
+      <c r="D254" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E254" s="164"/>
-      <c r="F254" s="165" t="s">
+      <c r="E254" s="186"/>
+      <c r="F254" s="187" t="s">
         <v>682</v>
       </c>
-      <c r="G254" s="166"/>
-      <c r="H254" s="166"/>
-      <c r="I254" s="167"/>
+      <c r="G254" s="188"/>
+      <c r="H254" s="188"/>
+      <c r="I254" s="189"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B255" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C255" s="168" t="s">
+      <c r="C255" s="190" t="s">
         <v>679</v>
       </c>
-      <c r="D255" s="169"/>
-      <c r="E255" s="169"/>
-      <c r="F255" s="169"/>
-      <c r="G255" s="169"/>
-      <c r="H255" s="169"/>
-      <c r="I255" s="170"/>
+      <c r="D255" s="191"/>
+      <c r="E255" s="191"/>
+      <c r="F255" s="191"/>
+      <c r="G255" s="191"/>
+      <c r="H255" s="191"/>
+      <c r="I255" s="192"/>
     </row>
     <row r="256" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B256" s="32" t="s">
@@ -10467,13 +10488,13 @@
     </row>
     <row r="271" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B271" s="43"/>
-      <c r="C271" s="171"/>
-      <c r="D271" s="172"/>
-      <c r="E271" s="172"/>
-      <c r="F271" s="172"/>
-      <c r="G271" s="172"/>
-      <c r="H271" s="172"/>
-      <c r="I271" s="173"/>
+      <c r="C271" s="177"/>
+      <c r="D271" s="178"/>
+      <c r="E271" s="178"/>
+      <c r="F271" s="178"/>
+      <c r="G271" s="178"/>
+      <c r="H271" s="178"/>
+      <c r="I271" s="179"/>
     </row>
     <row r="272" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="273" spans="2:11" x14ac:dyDescent="0.45">
@@ -10481,14 +10502,14 @@
         <v>4</v>
       </c>
       <c r="C273" s="4"/>
-      <c r="D273" s="174" t="s">
+      <c r="D273" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E273" s="175"/>
-      <c r="F273" s="176"/>
-      <c r="G273" s="177"/>
-      <c r="H273" s="177"/>
-      <c r="I273" s="178"/>
+      <c r="E273" s="181"/>
+      <c r="F273" s="182"/>
+      <c r="G273" s="183"/>
+      <c r="H273" s="183"/>
+      <c r="I273" s="184"/>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B274" s="5" t="s">
@@ -10497,30 +10518,30 @@
       <c r="C274" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D274" s="163" t="s">
+      <c r="D274" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E274" s="164"/>
-      <c r="F274" s="165" t="s">
+      <c r="E274" s="186"/>
+      <c r="F274" s="187" t="s">
         <v>715</v>
       </c>
-      <c r="G274" s="166"/>
-      <c r="H274" s="166"/>
-      <c r="I274" s="167"/>
+      <c r="G274" s="188"/>
+      <c r="H274" s="188"/>
+      <c r="I274" s="189"/>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B275" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C275" s="168" t="s">
+      <c r="C275" s="190" t="s">
         <v>716</v>
       </c>
-      <c r="D275" s="169"/>
-      <c r="E275" s="169"/>
-      <c r="F275" s="169"/>
-      <c r="G275" s="169"/>
-      <c r="H275" s="169"/>
-      <c r="I275" s="170"/>
+      <c r="D275" s="191"/>
+      <c r="E275" s="191"/>
+      <c r="F275" s="191"/>
+      <c r="G275" s="191"/>
+      <c r="H275" s="191"/>
+      <c r="I275" s="192"/>
     </row>
     <row r="276" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B276" s="32" t="s">
@@ -10688,13 +10709,13 @@
     </row>
     <row r="285" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B285" s="43"/>
-      <c r="C285" s="171"/>
-      <c r="D285" s="172"/>
-      <c r="E285" s="172"/>
-      <c r="F285" s="172"/>
-      <c r="G285" s="172"/>
-      <c r="H285" s="172"/>
-      <c r="I285" s="173"/>
+      <c r="C285" s="177"/>
+      <c r="D285" s="178"/>
+      <c r="E285" s="178"/>
+      <c r="F285" s="178"/>
+      <c r="G285" s="178"/>
+      <c r="H285" s="178"/>
+      <c r="I285" s="179"/>
     </row>
     <row r="286" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="287" spans="2:11" x14ac:dyDescent="0.45">
@@ -10702,14 +10723,14 @@
         <v>4</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="174" t="s">
+      <c r="D287" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="E287" s="175"/>
-      <c r="F287" s="176"/>
-      <c r="G287" s="177"/>
-      <c r="H287" s="177"/>
-      <c r="I287" s="178"/>
+      <c r="E287" s="181"/>
+      <c r="F287" s="182"/>
+      <c r="G287" s="183"/>
+      <c r="H287" s="183"/>
+      <c r="I287" s="184"/>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B288" s="5" t="s">
@@ -10718,30 +10739,30 @@
       <c r="C288" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="D288" s="163" t="s">
+      <c r="D288" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="E288" s="164"/>
-      <c r="F288" s="165" t="s">
+      <c r="E288" s="186"/>
+      <c r="F288" s="187" t="s">
         <v>745</v>
       </c>
-      <c r="G288" s="166"/>
-      <c r="H288" s="166"/>
-      <c r="I288" s="167"/>
+      <c r="G288" s="188"/>
+      <c r="H288" s="188"/>
+      <c r="I288" s="189"/>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B289" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C289" s="168" t="s">
+      <c r="C289" s="190" t="s">
         <v>744</v>
       </c>
-      <c r="D289" s="169"/>
-      <c r="E289" s="169"/>
-      <c r="F289" s="169"/>
-      <c r="G289" s="169"/>
-      <c r="H289" s="169"/>
-      <c r="I289" s="170"/>
+      <c r="D289" s="191"/>
+      <c r="E289" s="191"/>
+      <c r="F289" s="191"/>
+      <c r="G289" s="191"/>
+      <c r="H289" s="191"/>
+      <c r="I289" s="192"/>
     </row>
     <row r="290" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B290" s="32" t="s">
@@ -11035,22 +11056,78 @@
     </row>
     <row r="307" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B307" s="43"/>
-      <c r="C307" s="171"/>
-      <c r="D307" s="172"/>
-      <c r="E307" s="172"/>
-      <c r="F307" s="172"/>
-      <c r="G307" s="172"/>
-      <c r="H307" s="172"/>
-      <c r="I307" s="173"/>
+      <c r="C307" s="177"/>
+      <c r="D307" s="178"/>
+      <c r="E307" s="178"/>
+      <c r="F307" s="178"/>
+      <c r="G307" s="178"/>
+      <c r="H307" s="178"/>
+      <c r="I307" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="L2:L39"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="F288:I288"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C307:I307"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:I274"/>
+    <mergeCell ref="C275:I275"/>
+    <mergeCell ref="C285:I285"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="F287:I287"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="C255:I255"/>
+    <mergeCell ref="C271:I271"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="F273:I273"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="C239:I239"/>
+    <mergeCell ref="C251:I251"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="C214:I214"/>
+    <mergeCell ref="C233:I233"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="L146:L177"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:I147"/>
+    <mergeCell ref="C148:I148"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="C184:I184"/>
+    <mergeCell ref="C209:I209"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="C129:I129"/>
+    <mergeCell ref="C144:I144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:I146"/>
+    <mergeCell ref="C125:I125"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="C96:I96"/>
+    <mergeCell ref="L98:L124"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="D80:E80"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="C78:I78"/>
     <mergeCell ref="D42:E42"/>
@@ -11064,68 +11141,12 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:I66"/>
     <mergeCell ref="C67:I67"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="C96:I96"/>
-    <mergeCell ref="L98:L124"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="C125:I125"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="C129:I129"/>
-    <mergeCell ref="C144:I144"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="L146:L177"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="F147:I147"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="F212:I212"/>
-    <mergeCell ref="C180:I180"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="C184:I184"/>
-    <mergeCell ref="C209:I209"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="C214:I214"/>
-    <mergeCell ref="C233:I233"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:I237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:I238"/>
-    <mergeCell ref="C239:I239"/>
-    <mergeCell ref="C251:I251"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:I253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="C255:I255"/>
-    <mergeCell ref="C271:I271"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="F273:I273"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="F288:I288"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C307:I307"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:I274"/>
-    <mergeCell ref="C275:I275"/>
-    <mergeCell ref="C285:I285"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="F287:I287"/>
+    <mergeCell ref="L2:L39"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13145,43 +13166,43 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="191"/>
-      <c r="L2" s="179"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="181" t="s">
+      <c r="D3" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="183"/>
-      <c r="L3" s="180"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
+      <c r="L3" s="164"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="185"/>
-      <c r="L4" s="180"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="173"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
@@ -13208,7 +13229,7 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="180"/>
+      <c r="L5" s="164"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="44"/>
@@ -13220,7 +13241,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="180"/>
+      <c r="L6" s="164"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44"/>
@@ -13232,7 +13253,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="180"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44"/>
@@ -13244,7 +13265,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="180"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44"/>
@@ -13256,7 +13277,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="180"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44"/>
@@ -13268,7 +13289,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="180"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44"/>
@@ -13280,7 +13301,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="180"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44"/>
@@ -13292,7 +13313,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="60"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="180"/>
+      <c r="L12" s="164"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="64"/>
@@ -13304,7 +13325,7 @@
       <c r="H13" s="70"/>
       <c r="I13" s="71"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="180"/>
+      <c r="L13" s="164"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="48"/>
@@ -13316,7 +13337,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="60"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="180"/>
+      <c r="L14" s="164"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="48"/>
@@ -13328,7 +13349,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="60"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="180"/>
+      <c r="L15" s="164"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="48"/>
@@ -13340,7 +13361,7 @@
       <c r="H16" s="53"/>
       <c r="I16" s="54"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="180"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="48"/>
@@ -13352,7 +13373,7 @@
       <c r="H17" s="49"/>
       <c r="I17" s="54"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="180"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="25"/>
@@ -13364,7 +13385,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="24"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="180"/>
+      <c r="L18" s="164"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="25"/>
@@ -13376,7 +13397,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="180"/>
+      <c r="L19" s="164"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
@@ -13388,7 +13409,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="180"/>
+      <c r="L20" s="164"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="30"/>
@@ -13400,7 +13421,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="180"/>
+      <c r="L21" s="164"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="30"/>
@@ -13411,7 +13432,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
-      <c r="L22" s="180"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="30"/>
@@ -13422,7 +13443,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
-      <c r="L23" s="180"/>
+      <c r="L23" s="164"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="30"/>
@@ -13433,7 +13454,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
-      <c r="L24" s="180"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="30"/>
@@ -13444,7 +13465,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
-      <c r="L25" s="180"/>
+      <c r="L25" s="164"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30"/>
@@ -13455,7 +13476,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
       <c r="I26" s="29"/>
-      <c r="L26" s="180"/>
+      <c r="L26" s="164"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="30"/>
@@ -13466,17 +13487,17 @@
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
       <c r="I27" s="29"/>
-      <c r="L27" s="192"/>
+      <c r="L27" s="165"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="43"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="41"/>

--- a/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
+++ b/docs/LXH_혁신과제관리시스템구축_디비설계서_20230412_v0.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\LXH_PROJECT\framework\workspace\hd_const\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B9023-FCFB-43E6-93A5-FEF30945834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD87409-61B9-4F08-A50B-809C31270C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13866" firstSheet="1" activeTab="3" xr2:uid="{96C4C213-6181-49FF-9228-DD6ED82E8303}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{96C4C213-6181-49FF-9228-DD6ED82E8303}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="23" r:id="rId1"/>
@@ -3128,10 +3128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ( 0 = 대기 , 1 = 진행중 , 2 = 종료 , 3 = 취소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">과제 단계 코드 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3199,14 +3195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> (과제 , 분임조) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPORT / CIRCLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제등록시 0
 실행일자 입력시 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3261,6 +3249,18 @@
   </si>
   <si>
     <t>Q. sorting시 문제될듯… 코드화 하는건 어떨지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q. TB_REPORT_TEAM의 PK와 무슨 연관성이 있는지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (과제-REPORT, 분임조-CIRCLE) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0=대기, 1=진행중, 2=종료, 3=취소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4759,128 +4759,128 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5249,14 +5249,14 @@
       <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="168" t="s">
         <v>757</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="121"/>
@@ -5940,8 +5940,8 @@
   </sheetPr>
   <dimension ref="B1:L307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191:I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.58203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -5967,15 +5967,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
-      <c r="L2" s="163"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
@@ -5984,32 +5984,32 @@
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="171"/>
-      <c r="L3" s="164"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
-      <c r="L4" s="164"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
+      <c r="L4" s="187"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
@@ -6036,7 +6036,7 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="164"/>
+      <c r="L5" s="187"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="83" t="s">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="I6" s="88"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="164"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44" t="s">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="164"/>
+      <c r="L7" s="187"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44" t="s">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="164"/>
+      <c r="L8" s="187"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44" t="s">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="164"/>
+      <c r="L9" s="187"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44" t="s">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="164"/>
+      <c r="L10" s="187"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44" t="s">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="164"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44" t="s">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="I12" s="36"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="164"/>
+      <c r="L12" s="187"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="25" t="s">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="I13" s="29"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="164"/>
+      <c r="L13" s="187"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="30" t="s">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="164"/>
+      <c r="L14" s="187"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="I15" s="36"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="164"/>
+      <c r="L15" s="187"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="30" t="s">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="I16" s="36"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="164"/>
+      <c r="L16" s="187"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="30" t="s">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="I17" s="36"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="164"/>
+      <c r="L17" s="187"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="44" t="s">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="I18" s="36"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="164"/>
+      <c r="L18" s="187"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="64" t="s">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="I19" s="71"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="164"/>
+      <c r="L19" s="187"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="48" t="s">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="I20" s="60"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="164"/>
+      <c r="L20" s="187"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="48" t="s">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="I21" s="60"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="164"/>
+      <c r="L21" s="187"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="48" t="s">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="I22" s="54"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="164"/>
+      <c r="L22" s="187"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="48" t="s">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="I23" s="54"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="164"/>
+      <c r="L23" s="187"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="48" t="s">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="I24" s="54"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="164"/>
+      <c r="L24" s="187"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="25" t="s">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="I25" s="24"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="164"/>
+      <c r="L25" s="187"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30" t="s">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="I26" s="24"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="164"/>
+      <c r="L26" s="187"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="25" t="s">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="I27" s="29"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="164"/>
+      <c r="L27" s="187"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="30" t="s">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I28" s="29"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="164"/>
+      <c r="L28" s="187"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="30" t="s">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I29" s="29"/>
       <c r="K29" s="31"/>
-      <c r="L29" s="164"/>
+      <c r="L29" s="187"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="30" t="s">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="I30" s="29"/>
       <c r="K30" s="31"/>
-      <c r="L30" s="164"/>
+      <c r="L30" s="187"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="30" t="s">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="I31" s="29"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="164"/>
+      <c r="L31" s="187"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="30" t="s">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="I32" s="29"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="164"/>
+      <c r="L32" s="187"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="30" t="s">
@@ -6543,7 +6543,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="29"/>
-      <c r="L33" s="164"/>
+      <c r="L33" s="187"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="30" t="s">
@@ -6560,7 +6560,7 @@
         <v>39</v>
       </c>
       <c r="I34" s="29"/>
-      <c r="L34" s="164"/>
+      <c r="L34" s="187"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="30" t="s">
@@ -6577,7 +6577,7 @@
         <v>199</v>
       </c>
       <c r="I35" s="29"/>
-      <c r="L35" s="164"/>
+      <c r="L35" s="187"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="30" t="s">
@@ -6594,7 +6594,7 @@
         <v>198</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="L36" s="164"/>
+      <c r="L36" s="187"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="30" t="s">
@@ -6611,7 +6611,7 @@
         <v>105</v>
       </c>
       <c r="I37" s="29"/>
-      <c r="L37" s="164"/>
+      <c r="L37" s="187"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="30" t="s">
@@ -6628,7 +6628,7 @@
         <v>200</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="L38" s="164"/>
+      <c r="L38" s="187"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="30" t="s">
@@ -6645,17 +6645,17 @@
         <v>104</v>
       </c>
       <c r="I39" s="29"/>
-      <c r="L39" s="165"/>
+      <c r="L39" s="199"/>
     </row>
     <row r="40" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="43"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="175"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="176"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
@@ -6663,14 +6663,14 @@
         <v>4</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="180" t="s">
+      <c r="D42" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="181"/>
-      <c r="F42" s="182"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="184"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="185"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
@@ -6679,30 +6679,30 @@
       <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="185" t="s">
+      <c r="D43" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="186"/>
-      <c r="F43" s="187" t="s">
+      <c r="E43" s="171"/>
+      <c r="F43" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="189"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="174"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="190" t="s">
+      <c r="C44" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="192"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="177"/>
     </row>
     <row r="45" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="32" t="s">
@@ -7023,13 +7023,13 @@
     </row>
     <row r="63" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B63" s="43"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="178"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="179"/>
+      <c r="C63" s="178"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="180"/>
     </row>
     <row r="64" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="65" spans="2:11" x14ac:dyDescent="0.45">
@@ -7037,14 +7037,14 @@
         <v>4</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="180" t="s">
+      <c r="D65" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="181"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="183"/>
-      <c r="H65" s="183"/>
-      <c r="I65" s="184"/>
+      <c r="E65" s="182"/>
+      <c r="F65" s="183"/>
+      <c r="G65" s="184"/>
+      <c r="H65" s="184"/>
+      <c r="I65" s="185"/>
     </row>
     <row r="66" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
@@ -7053,30 +7053,30 @@
       <c r="C66" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D66" s="185" t="s">
+      <c r="D66" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="186"/>
-      <c r="F66" s="187" t="s">
+      <c r="E66" s="171"/>
+      <c r="F66" s="172" t="s">
         <v>440</v>
       </c>
-      <c r="G66" s="188"/>
-      <c r="H66" s="188"/>
-      <c r="I66" s="189"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="174"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="190" t="s">
+      <c r="C67" s="175" t="s">
         <v>441</v>
       </c>
-      <c r="D67" s="191"/>
-      <c r="E67" s="191"/>
-      <c r="F67" s="191"/>
-      <c r="G67" s="191"/>
-      <c r="H67" s="191"/>
-      <c r="I67" s="192"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
+      <c r="F67" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="176"/>
+      <c r="I67" s="177"/>
     </row>
     <row r="68" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="32" t="s">
@@ -7261,13 +7261,13 @@
     </row>
     <row r="78" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B78" s="43"/>
-      <c r="C78" s="177"/>
-      <c r="D78" s="178"/>
-      <c r="E78" s="178"/>
-      <c r="F78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="179"/>
+      <c r="C78" s="178"/>
+      <c r="D78" s="179"/>
+      <c r="E78" s="179"/>
+      <c r="F78" s="179"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
+      <c r="I78" s="180"/>
     </row>
     <row r="79" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="80" spans="2:11" x14ac:dyDescent="0.45">
@@ -7275,14 +7275,14 @@
         <v>4</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="180" t="s">
+      <c r="D80" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="181"/>
-      <c r="F80" s="182"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
-      <c r="I80" s="184"/>
+      <c r="E80" s="182"/>
+      <c r="F80" s="183"/>
+      <c r="G80" s="184"/>
+      <c r="H80" s="184"/>
+      <c r="I80" s="185"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B81" s="5" t="s">
@@ -7291,30 +7291,30 @@
       <c r="C81" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D81" s="185" t="s">
+      <c r="D81" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="186"/>
-      <c r="F81" s="187" t="s">
+      <c r="E81" s="171"/>
+      <c r="F81" s="172" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="188"/>
-      <c r="H81" s="188"/>
-      <c r="I81" s="189"/>
+      <c r="G81" s="173"/>
+      <c r="H81" s="173"/>
+      <c r="I81" s="174"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="190" t="s">
+      <c r="C82" s="175" t="s">
         <v>494</v>
       </c>
-      <c r="D82" s="191"/>
-      <c r="E82" s="191"/>
-      <c r="F82" s="191"/>
-      <c r="G82" s="191"/>
-      <c r="H82" s="191"/>
-      <c r="I82" s="192"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
+      <c r="F82" s="176"/>
+      <c r="G82" s="176"/>
+      <c r="H82" s="176"/>
+      <c r="I82" s="177"/>
     </row>
     <row r="83" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B83" s="32" t="s">
@@ -7544,13 +7544,13 @@
     </row>
     <row r="96" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B96" s="43"/>
-      <c r="C96" s="177"/>
-      <c r="D96" s="178"/>
-      <c r="E96" s="178"/>
-      <c r="F96" s="178"/>
-      <c r="G96" s="178"/>
-      <c r="H96" s="178"/>
-      <c r="I96" s="179"/>
+      <c r="C96" s="178"/>
+      <c r="D96" s="179"/>
+      <c r="E96" s="179"/>
+      <c r="F96" s="179"/>
+      <c r="G96" s="179"/>
+      <c r="H96" s="179"/>
+      <c r="I96" s="180"/>
     </row>
     <row r="97" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="98" spans="2:12" x14ac:dyDescent="0.45">
@@ -7558,15 +7558,15 @@
         <v>4</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="166" t="s">
+      <c r="D98" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="166"/>
-      <c r="F98" s="167"/>
-      <c r="G98" s="167"/>
-      <c r="H98" s="167"/>
-      <c r="I98" s="168"/>
-      <c r="L98" s="163"/>
+      <c r="E98" s="196"/>
+      <c r="F98" s="197"/>
+      <c r="G98" s="197"/>
+      <c r="H98" s="197"/>
+      <c r="I98" s="198"/>
+      <c r="L98" s="186"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="5" t="s">
@@ -7575,32 +7575,32 @@
       <c r="C99" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="169" t="s">
+      <c r="D99" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="169"/>
-      <c r="F99" s="170" t="s">
+      <c r="E99" s="188"/>
+      <c r="F99" s="189" t="s">
         <v>446</v>
       </c>
-      <c r="G99" s="170"/>
-      <c r="H99" s="170"/>
-      <c r="I99" s="171"/>
-      <c r="L99" s="164"/>
+      <c r="G99" s="189"/>
+      <c r="H99" s="189"/>
+      <c r="I99" s="190"/>
+      <c r="L99" s="187"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="172" t="s">
+      <c r="C100" s="191" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="172"/>
-      <c r="G100" s="172"/>
-      <c r="H100" s="172"/>
-      <c r="I100" s="173"/>
-      <c r="L100" s="164"/>
+      <c r="D100" s="191"/>
+      <c r="E100" s="191"/>
+      <c r="F100" s="191"/>
+      <c r="G100" s="191"/>
+      <c r="H100" s="191"/>
+      <c r="I100" s="192"/>
+      <c r="L100" s="187"/>
     </row>
     <row r="101" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B101" s="7" t="s">
@@ -7627,7 +7627,7 @@
       <c r="I101" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="164"/>
+      <c r="L101" s="187"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="83" t="s">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="I102" s="88"/>
       <c r="K102" s="16"/>
-      <c r="L102" s="164"/>
+      <c r="L102" s="187"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="91" t="s">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="I103" s="54"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="164"/>
+      <c r="L103" s="187"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="91" t="s">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="I104" s="60"/>
       <c r="K104" s="16"/>
-      <c r="L104" s="164"/>
+      <c r="L104" s="187"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="91" t="s">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I105" s="60"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="164"/>
+      <c r="L105" s="187"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="91" t="s">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="I106" s="60"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="164"/>
+      <c r="L106" s="187"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="91" t="s">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="I107" s="60"/>
       <c r="K107" s="16"/>
-      <c r="L107" s="164"/>
+      <c r="L107" s="187"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="91" t="s">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="I108" s="60"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="164"/>
+      <c r="L108" s="187"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="82" t="s">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="I109" s="81"/>
       <c r="K109" s="16"/>
-      <c r="L109" s="164"/>
+      <c r="L109" s="187"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="48" t="s">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="I110" s="81"/>
       <c r="K110" s="16"/>
-      <c r="L110" s="164"/>
+      <c r="L110" s="187"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="48" t="s">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="I111" s="60"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="164"/>
+      <c r="L111" s="187"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="48" t="s">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="I112" s="60"/>
       <c r="K112" s="16"/>
-      <c r="L112" s="164"/>
+      <c r="L112" s="187"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="48" t="s">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="I113" s="60"/>
       <c r="K113" s="16"/>
-      <c r="L113" s="164"/>
+      <c r="L113" s="187"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="91" t="s">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="I114" s="60"/>
       <c r="K114" s="16"/>
-      <c r="L114" s="164"/>
+      <c r="L114" s="187"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="48" t="s">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="I115" s="60"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="164"/>
+      <c r="L115" s="187"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="48" t="s">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I116" s="60"/>
       <c r="K116" s="16"/>
-      <c r="L116" s="164"/>
+      <c r="L116" s="187"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="48" t="s">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="I117" s="54"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="164"/>
+      <c r="L117" s="187"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="48" t="s">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="I118" s="54"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="164"/>
+      <c r="L118" s="187"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="48" t="s">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="I119" s="54"/>
       <c r="K119" s="16"/>
-      <c r="L119" s="164"/>
+      <c r="L119" s="187"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="25" t="s">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="I120" s="24"/>
       <c r="K120" s="16"/>
-      <c r="L120" s="164"/>
+      <c r="L120" s="187"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="30" t="s">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I121" s="24"/>
       <c r="K121" s="16"/>
-      <c r="L121" s="164"/>
+      <c r="L121" s="187"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="25" t="s">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="I122" s="29"/>
       <c r="K122" s="16"/>
-      <c r="L122" s="164"/>
+      <c r="L122" s="187"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="30" t="s">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="I123" s="29"/>
       <c r="K123" s="31"/>
-      <c r="L123" s="164"/>
+      <c r="L123" s="187"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="30" t="s">
@@ -8043,17 +8043,17 @@
       </c>
       <c r="I124" s="29"/>
       <c r="K124" s="31"/>
-      <c r="L124" s="164"/>
+      <c r="L124" s="187"/>
     </row>
     <row r="125" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B125" s="43"/>
-      <c r="C125" s="174"/>
-      <c r="D125" s="175"/>
-      <c r="E125" s="175"/>
-      <c r="F125" s="175"/>
-      <c r="G125" s="175"/>
-      <c r="H125" s="175"/>
-      <c r="I125" s="176"/>
+      <c r="C125" s="193"/>
+      <c r="D125" s="194"/>
+      <c r="E125" s="194"/>
+      <c r="F125" s="194"/>
+      <c r="G125" s="194"/>
+      <c r="H125" s="194"/>
+      <c r="I125" s="195"/>
     </row>
     <row r="126" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="127" spans="2:12" x14ac:dyDescent="0.45">
@@ -8061,14 +8061,14 @@
         <v>4</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="180" t="s">
+      <c r="D127" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="181"/>
-      <c r="F127" s="182"/>
-      <c r="G127" s="183"/>
-      <c r="H127" s="183"/>
-      <c r="I127" s="184"/>
+      <c r="E127" s="182"/>
+      <c r="F127" s="183"/>
+      <c r="G127" s="184"/>
+      <c r="H127" s="184"/>
+      <c r="I127" s="185"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="5" t="s">
@@ -8077,30 +8077,30 @@
       <c r="C128" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D128" s="185" t="s">
+      <c r="D128" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="186"/>
-      <c r="F128" s="187" t="s">
+      <c r="E128" s="171"/>
+      <c r="F128" s="172" t="s">
         <v>447</v>
       </c>
-      <c r="G128" s="188"/>
-      <c r="H128" s="188"/>
-      <c r="I128" s="189"/>
+      <c r="G128" s="173"/>
+      <c r="H128" s="173"/>
+      <c r="I128" s="174"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="190" t="s">
+      <c r="C129" s="175" t="s">
         <v>525</v>
       </c>
-      <c r="D129" s="191"/>
-      <c r="E129" s="191"/>
-      <c r="F129" s="191"/>
-      <c r="G129" s="191"/>
-      <c r="H129" s="191"/>
-      <c r="I129" s="192"/>
+      <c r="D129" s="176"/>
+      <c r="E129" s="176"/>
+      <c r="F129" s="176"/>
+      <c r="G129" s="176"/>
+      <c r="H129" s="176"/>
+      <c r="I129" s="177"/>
     </row>
     <row r="130" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B130" s="32" t="s">
@@ -8353,13 +8353,13 @@
     </row>
     <row r="144" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B144" s="43"/>
-      <c r="C144" s="177"/>
-      <c r="D144" s="178"/>
-      <c r="E144" s="178"/>
-      <c r="F144" s="178"/>
-      <c r="G144" s="178"/>
-      <c r="H144" s="178"/>
-      <c r="I144" s="179"/>
+      <c r="C144" s="178"/>
+      <c r="D144" s="179"/>
+      <c r="E144" s="179"/>
+      <c r="F144" s="179"/>
+      <c r="G144" s="179"/>
+      <c r="H144" s="179"/>
+      <c r="I144" s="180"/>
     </row>
     <row r="145" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="146" spans="2:12" x14ac:dyDescent="0.45">
@@ -8367,15 +8367,15 @@
         <v>4</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="166" t="s">
+      <c r="D146" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="166"/>
-      <c r="F146" s="167"/>
-      <c r="G146" s="167"/>
-      <c r="H146" s="167"/>
-      <c r="I146" s="168"/>
-      <c r="L146" s="163"/>
+      <c r="E146" s="196"/>
+      <c r="F146" s="197"/>
+      <c r="G146" s="197"/>
+      <c r="H146" s="197"/>
+      <c r="I146" s="198"/>
+      <c r="L146" s="186"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="5" t="s">
@@ -8384,32 +8384,32 @@
       <c r="C147" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D147" s="169" t="s">
+      <c r="D147" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="169"/>
-      <c r="F147" s="170" t="s">
+      <c r="E147" s="188"/>
+      <c r="F147" s="189" t="s">
         <v>594</v>
       </c>
-      <c r="G147" s="170"/>
-      <c r="H147" s="170"/>
-      <c r="I147" s="171"/>
-      <c r="L147" s="164"/>
+      <c r="G147" s="189"/>
+      <c r="H147" s="189"/>
+      <c r="I147" s="190"/>
+      <c r="L147" s="187"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="172" t="s">
+      <c r="C148" s="191" t="s">
         <v>590</v>
       </c>
-      <c r="D148" s="172"/>
-      <c r="E148" s="172"/>
-      <c r="F148" s="172"/>
-      <c r="G148" s="172"/>
-      <c r="H148" s="172"/>
-      <c r="I148" s="173"/>
-      <c r="L148" s="164"/>
+      <c r="D148" s="191"/>
+      <c r="E148" s="191"/>
+      <c r="F148" s="191"/>
+      <c r="G148" s="191"/>
+      <c r="H148" s="191"/>
+      <c r="I148" s="192"/>
+      <c r="L148" s="187"/>
     </row>
     <row r="149" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B149" s="7" t="s">
@@ -8436,7 +8436,7 @@
       <c r="I149" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L149" s="164"/>
+      <c r="L149" s="187"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="83" t="s">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="I150" s="88"/>
       <c r="K150" s="16"/>
-      <c r="L150" s="164"/>
+      <c r="L150" s="187"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="91" t="s">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="I151" s="54"/>
       <c r="K151" s="16"/>
-      <c r="L151" s="164"/>
+      <c r="L151" s="187"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="91" t="s">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="I152" s="60"/>
       <c r="K152" s="16"/>
-      <c r="L152" s="164"/>
+      <c r="L152" s="187"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="91" t="s">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="I153" s="60"/>
       <c r="K153" s="16"/>
-      <c r="L153" s="164"/>
+      <c r="L153" s="187"/>
     </row>
     <row r="154" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B154" s="91" t="s">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="I154" s="60"/>
       <c r="K154" s="16"/>
-      <c r="L154" s="164"/>
+      <c r="L154" s="187"/>
     </row>
     <row r="155" spans="2:12" ht="48" x14ac:dyDescent="0.45">
       <c r="B155" s="91" t="s">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="I155" s="60"/>
       <c r="K155" s="16"/>
-      <c r="L155" s="164"/>
+      <c r="L155" s="187"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="91" t="s">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="I156" s="60"/>
       <c r="K156" s="16"/>
-      <c r="L156" s="164"/>
+      <c r="L156" s="187"/>
     </row>
     <row r="157" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B157" s="91" t="s">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="I157" s="60"/>
       <c r="K157" s="16"/>
-      <c r="L157" s="164"/>
+      <c r="L157" s="187"/>
     </row>
     <row r="158" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B158" s="91" t="s">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="I158" s="60"/>
       <c r="K158" s="16"/>
-      <c r="L158" s="164"/>
+      <c r="L158" s="187"/>
     </row>
     <row r="159" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B159" s="91" t="s">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="I159" s="60"/>
       <c r="K159" s="16"/>
-      <c r="L159" s="164"/>
+      <c r="L159" s="187"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="91" t="s">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="I160" s="60"/>
       <c r="K160" s="16"/>
-      <c r="L160" s="164"/>
+      <c r="L160" s="187"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B161" s="91" t="s">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="I161" s="60"/>
       <c r="K161" s="16"/>
-      <c r="L161" s="164"/>
+      <c r="L161" s="187"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B162" s="147" t="s">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="I162" s="154"/>
       <c r="K162" s="16"/>
-      <c r="L162" s="164"/>
+      <c r="L162" s="187"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B163" s="147" t="s">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="I163" s="154"/>
       <c r="K163" s="16"/>
-      <c r="L163" s="164"/>
+      <c r="L163" s="187"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B164" s="147" t="s">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="I164" s="154"/>
       <c r="K164" s="16"/>
-      <c r="L164" s="164"/>
+      <c r="L164" s="187"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B165" s="147" t="s">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="I165" s="154"/>
       <c r="K165" s="16"/>
-      <c r="L165" s="164"/>
+      <c r="L165" s="187"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B166" s="147" t="s">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="I166" s="154"/>
       <c r="K166" s="16"/>
-      <c r="L166" s="164"/>
+      <c r="L166" s="187"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B167" s="147" t="s">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="I167" s="154"/>
       <c r="K167" s="16"/>
-      <c r="L167" s="164"/>
+      <c r="L167" s="187"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B168" s="91" t="s">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="I168" s="60"/>
       <c r="K168" s="16"/>
-      <c r="L168" s="164"/>
+      <c r="L168" s="187"/>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B169" s="91" t="s">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="I169" s="60"/>
       <c r="K169" s="16"/>
-      <c r="L169" s="164"/>
+      <c r="L169" s="187"/>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B170" s="91" t="s">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="I170" s="60"/>
       <c r="K170" s="16"/>
-      <c r="L170" s="164"/>
+      <c r="L170" s="187"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B171" s="91" t="s">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="I171" s="60"/>
       <c r="K171" s="16"/>
-      <c r="L171" s="164"/>
+      <c r="L171" s="187"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="91" t="s">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="I172" s="60"/>
       <c r="K172" s="16"/>
-      <c r="L172" s="164"/>
+      <c r="L172" s="187"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B173" s="91" t="s">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="I173" s="60"/>
       <c r="K173" s="16"/>
-      <c r="L173" s="164"/>
+      <c r="L173" s="187"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B174" s="91" t="s">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="I174" s="60"/>
       <c r="K174" s="16"/>
-      <c r="L174" s="164"/>
+      <c r="L174" s="187"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B175" s="91" t="s">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="I175" s="60"/>
       <c r="K175" s="16"/>
-      <c r="L175" s="164"/>
+      <c r="L175" s="187"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B176" s="91" t="s">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="I176" s="60"/>
       <c r="K176" s="16"/>
-      <c r="L176" s="164"/>
+      <c r="L176" s="187"/>
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="91" t="s">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="I177" s="60"/>
       <c r="K177" s="16"/>
-      <c r="L177" s="164"/>
+      <c r="L177" s="187"/>
     </row>
     <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="91" t="s">
@@ -8982,13 +8982,13 @@
     </row>
     <row r="180" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B180" s="43"/>
-      <c r="C180" s="174"/>
-      <c r="D180" s="175"/>
-      <c r="E180" s="175"/>
-      <c r="F180" s="175"/>
-      <c r="G180" s="175"/>
-      <c r="H180" s="175"/>
-      <c r="I180" s="176"/>
+      <c r="C180" s="193"/>
+      <c r="D180" s="194"/>
+      <c r="E180" s="194"/>
+      <c r="F180" s="194"/>
+      <c r="G180" s="194"/>
+      <c r="H180" s="194"/>
+      <c r="I180" s="195"/>
     </row>
     <row r="181" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B181" s="37"/>
@@ -9005,14 +9005,14 @@
         <v>4</v>
       </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="180" t="s">
+      <c r="D182" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E182" s="181"/>
-      <c r="F182" s="182"/>
-      <c r="G182" s="183"/>
-      <c r="H182" s="183"/>
-      <c r="I182" s="184"/>
+      <c r="E182" s="182"/>
+      <c r="F182" s="183"/>
+      <c r="G182" s="184"/>
+      <c r="H182" s="184"/>
+      <c r="I182" s="185"/>
     </row>
     <row r="183" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="5" t="s">
@@ -9021,31 +9021,31 @@
       <c r="C183" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="D183" s="185" t="s">
+      <c r="D183" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="186"/>
-      <c r="F183" s="187" t="s">
+      <c r="E183" s="171"/>
+      <c r="F183" s="172" t="s">
         <v>816</v>
       </c>
-      <c r="G183" s="188"/>
-      <c r="H183" s="188"/>
-      <c r="I183" s="189"/>
+      <c r="G183" s="173"/>
+      <c r="H183" s="173"/>
+      <c r="I183" s="174"/>
       <c r="K183" s="145"/>
     </row>
     <row r="184" spans="2:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C184" s="190" t="s">
+      <c r="C184" s="175" t="s">
         <v>814</v>
       </c>
-      <c r="D184" s="191"/>
-      <c r="E184" s="191"/>
-      <c r="F184" s="191"/>
-      <c r="G184" s="191"/>
-      <c r="H184" s="191"/>
-      <c r="I184" s="192"/>
+      <c r="D184" s="176"/>
+      <c r="E184" s="176"/>
+      <c r="F184" s="176"/>
+      <c r="G184" s="176"/>
+      <c r="H184" s="176"/>
+      <c r="I184" s="177"/>
       <c r="K184" s="145"/>
     </row>
     <row r="185" spans="2:12" ht="17" x14ac:dyDescent="0.45">
@@ -9109,7 +9109,9 @@
         <v>822</v>
       </c>
       <c r="I187" s="144"/>
-      <c r="K187" s="145"/>
+      <c r="K187" s="145" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="188" spans="2:12" ht="17" x14ac:dyDescent="0.45">
       <c r="B188" s="91" t="s">
@@ -9142,14 +9144,12 @@
       <c r="F189" s="52"/>
       <c r="G189" s="58"/>
       <c r="H189" s="59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I189" s="144" t="s">
-        <v>838</v>
-      </c>
-      <c r="K189" s="145" t="s">
-        <v>839</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="K189" s="145"/>
     </row>
     <row r="190" spans="2:12" ht="32" x14ac:dyDescent="0.45">
       <c r="B190" s="91" t="s">
@@ -9163,13 +9163,13 @@
       <c r="F190" s="52"/>
       <c r="G190" s="58"/>
       <c r="H190" s="59" t="s">
+        <v>834</v>
+      </c>
+      <c r="I190" s="144" t="s">
         <v>835</v>
       </c>
-      <c r="I190" s="144" t="s">
-        <v>836</v>
-      </c>
       <c r="K190" s="145" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="191" spans="2:12" ht="64" x14ac:dyDescent="0.45">
@@ -9184,13 +9184,13 @@
       <c r="F191" s="52"/>
       <c r="G191" s="58"/>
       <c r="H191" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="I191" s="144" t="s">
         <v>833</v>
       </c>
-      <c r="I191" s="144" t="s">
-        <v>834</v>
-      </c>
       <c r="K191" s="145" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="192" spans="2:12" ht="17" x14ac:dyDescent="0.45">
@@ -9205,7 +9205,7 @@
       <c r="F192" s="52"/>
       <c r="G192" s="58"/>
       <c r="H192" s="59" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I192" s="144"/>
       <c r="K192" s="145"/>
@@ -9222,43 +9222,43 @@
       <c r="F193" s="52"/>
       <c r="G193" s="58"/>
       <c r="H193" s="59" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I193" s="144"/>
       <c r="K193" s="145"/>
     </row>
     <row r="194" spans="2:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="B194" s="195" t="s">
+      <c r="B194" s="161" t="s">
+        <v>840</v>
+      </c>
+      <c r="C194" s="162" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="163"/>
+      <c r="E194" s="164"/>
+      <c r="F194" s="164"/>
+      <c r="G194" s="165"/>
+      <c r="H194" s="166" t="s">
         <v>843</v>
       </c>
-      <c r="C194" s="196" t="s">
+      <c r="I194" s="167"/>
+      <c r="K194" s="145"/>
+    </row>
+    <row r="195" spans="2:11" ht="17" x14ac:dyDescent="0.45">
+      <c r="B195" s="161" t="s">
+        <v>841</v>
+      </c>
+      <c r="C195" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="D194" s="197"/>
-      <c r="E194" s="198"/>
-      <c r="F194" s="198"/>
-      <c r="G194" s="199"/>
-      <c r="H194" s="200" t="s">
-        <v>846</v>
-      </c>
-      <c r="I194" s="201"/>
-      <c r="K194" s="145"/>
-    </row>
-    <row r="195" spans="2:11" ht="17" x14ac:dyDescent="0.45">
-      <c r="B195" s="195" t="s">
-        <v>844</v>
-      </c>
-      <c r="C195" s="196" t="s">
-        <v>20</v>
-      </c>
-      <c r="D195" s="197"/>
-      <c r="E195" s="198"/>
-      <c r="F195" s="198"/>
-      <c r="G195" s="199"/>
-      <c r="H195" s="200" t="s">
-        <v>848</v>
-      </c>
-      <c r="I195" s="201"/>
+      <c r="D195" s="163"/>
+      <c r="E195" s="164"/>
+      <c r="F195" s="164"/>
+      <c r="G195" s="165"/>
+      <c r="H195" s="166" t="s">
+        <v>845</v>
+      </c>
+      <c r="I195" s="167"/>
       <c r="K195" s="145"/>
     </row>
     <row r="196" spans="2:11" ht="17" x14ac:dyDescent="0.45">
@@ -9273,7 +9273,7 @@
       <c r="F196" s="52"/>
       <c r="G196" s="58"/>
       <c r="H196" s="59" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I196" s="144"/>
       <c r="K196" s="145"/>
@@ -9290,7 +9290,7 @@
       <c r="F197" s="52"/>
       <c r="G197" s="58"/>
       <c r="H197" s="59" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="I197" s="144"/>
       <c r="K197" s="145"/>
@@ -9307,7 +9307,7 @@
       <c r="F198" s="52"/>
       <c r="G198" s="58"/>
       <c r="H198" s="59" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I198" s="144"/>
       <c r="K198" s="145"/>
@@ -9398,7 +9398,7 @@
         <v>830</v>
       </c>
       <c r="K203" s="145" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="204" spans="2:11" ht="34" x14ac:dyDescent="0.45">
@@ -9416,10 +9416,10 @@
         <v>831</v>
       </c>
       <c r="I204" s="144" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="K204" s="146" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="205" spans="2:11" ht="17" x14ac:dyDescent="0.45">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="I205" s="144"/>
       <c r="K205" s="145" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="206" spans="2:11" ht="17" x14ac:dyDescent="0.45">
@@ -9494,13 +9494,13 @@
     </row>
     <row r="209" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B209" s="43"/>
-      <c r="C209" s="177"/>
-      <c r="D209" s="178"/>
-      <c r="E209" s="178"/>
-      <c r="F209" s="178"/>
-      <c r="G209" s="178"/>
-      <c r="H209" s="178"/>
-      <c r="I209" s="179"/>
+      <c r="C209" s="178"/>
+      <c r="D209" s="179"/>
+      <c r="E209" s="179"/>
+      <c r="F209" s="179"/>
+      <c r="G209" s="179"/>
+      <c r="H209" s="179"/>
+      <c r="I209" s="180"/>
     </row>
     <row r="210" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B210" s="37"/>
@@ -9518,14 +9518,14 @@
         <v>4</v>
       </c>
       <c r="C212" s="4"/>
-      <c r="D212" s="180" t="s">
+      <c r="D212" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E212" s="181"/>
-      <c r="F212" s="182"/>
-      <c r="G212" s="183"/>
-      <c r="H212" s="183"/>
-      <c r="I212" s="184"/>
+      <c r="E212" s="182"/>
+      <c r="F212" s="183"/>
+      <c r="G212" s="184"/>
+      <c r="H212" s="184"/>
+      <c r="I212" s="185"/>
     </row>
     <row r="213" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B213" s="5" t="s">
@@ -9534,30 +9534,30 @@
       <c r="C213" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D213" s="185" t="s">
+      <c r="D213" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E213" s="186"/>
-      <c r="F213" s="187" t="s">
+      <c r="E213" s="171"/>
+      <c r="F213" s="172" t="s">
         <v>642</v>
       </c>
-      <c r="G213" s="188"/>
-      <c r="H213" s="188"/>
-      <c r="I213" s="189"/>
+      <c r="G213" s="173"/>
+      <c r="H213" s="173"/>
+      <c r="I213" s="174"/>
     </row>
     <row r="214" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B214" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="190" t="s">
+      <c r="C214" s="175" t="s">
         <v>734</v>
       </c>
-      <c r="D214" s="191"/>
-      <c r="E214" s="191"/>
-      <c r="F214" s="191"/>
-      <c r="G214" s="191"/>
-      <c r="H214" s="191"/>
-      <c r="I214" s="192"/>
+      <c r="D214" s="176"/>
+      <c r="E214" s="176"/>
+      <c r="F214" s="176"/>
+      <c r="G214" s="176"/>
+      <c r="H214" s="176"/>
+      <c r="I214" s="177"/>
     </row>
     <row r="215" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B215" s="32" t="s">
@@ -9886,13 +9886,13 @@
     </row>
     <row r="233" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B233" s="43"/>
-      <c r="C233" s="177"/>
-      <c r="D233" s="178"/>
-      <c r="E233" s="178"/>
-      <c r="F233" s="178"/>
-      <c r="G233" s="178"/>
-      <c r="H233" s="178"/>
-      <c r="I233" s="179"/>
+      <c r="C233" s="178"/>
+      <c r="D233" s="179"/>
+      <c r="E233" s="179"/>
+      <c r="F233" s="179"/>
+      <c r="G233" s="179"/>
+      <c r="H233" s="179"/>
+      <c r="I233" s="180"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B234" s="37"/>
@@ -9920,14 +9920,14 @@
         <v>4</v>
       </c>
       <c r="C237" s="4"/>
-      <c r="D237" s="180" t="s">
+      <c r="D237" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E237" s="181"/>
-      <c r="F237" s="182"/>
-      <c r="G237" s="183"/>
-      <c r="H237" s="183"/>
-      <c r="I237" s="184"/>
+      <c r="E237" s="182"/>
+      <c r="F237" s="183"/>
+      <c r="G237" s="184"/>
+      <c r="H237" s="184"/>
+      <c r="I237" s="185"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B238" s="5" t="s">
@@ -9936,30 +9936,30 @@
       <c r="C238" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D238" s="185" t="s">
+      <c r="D238" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="186"/>
-      <c r="F238" s="187" t="s">
+      <c r="E238" s="171"/>
+      <c r="F238" s="172" t="s">
         <v>665</v>
       </c>
-      <c r="G238" s="188"/>
-      <c r="H238" s="188"/>
-      <c r="I238" s="189"/>
+      <c r="G238" s="173"/>
+      <c r="H238" s="173"/>
+      <c r="I238" s="174"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B239" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C239" s="190" t="s">
+      <c r="C239" s="175" t="s">
         <v>663</v>
       </c>
-      <c r="D239" s="191"/>
-      <c r="E239" s="191"/>
-      <c r="F239" s="191"/>
-      <c r="G239" s="191"/>
-      <c r="H239" s="191"/>
-      <c r="I239" s="192"/>
+      <c r="D239" s="176"/>
+      <c r="E239" s="176"/>
+      <c r="F239" s="176"/>
+      <c r="G239" s="176"/>
+      <c r="H239" s="176"/>
+      <c r="I239" s="177"/>
     </row>
     <row r="240" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B240" s="32" t="s">
@@ -10163,13 +10163,13 @@
     </row>
     <row r="251" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B251" s="43"/>
-      <c r="C251" s="177"/>
-      <c r="D251" s="178"/>
-      <c r="E251" s="178"/>
-      <c r="F251" s="178"/>
-      <c r="G251" s="178"/>
-      <c r="H251" s="178"/>
-      <c r="I251" s="179"/>
+      <c r="C251" s="178"/>
+      <c r="D251" s="179"/>
+      <c r="E251" s="179"/>
+      <c r="F251" s="179"/>
+      <c r="G251" s="179"/>
+      <c r="H251" s="179"/>
+      <c r="I251" s="180"/>
     </row>
     <row r="252" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="253" spans="2:11" x14ac:dyDescent="0.45">
@@ -10177,14 +10177,14 @@
         <v>4</v>
       </c>
       <c r="C253" s="4"/>
-      <c r="D253" s="180" t="s">
+      <c r="D253" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E253" s="181"/>
-      <c r="F253" s="182"/>
-      <c r="G253" s="183"/>
-      <c r="H253" s="183"/>
-      <c r="I253" s="184"/>
+      <c r="E253" s="182"/>
+      <c r="F253" s="183"/>
+      <c r="G253" s="184"/>
+      <c r="H253" s="184"/>
+      <c r="I253" s="185"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B254" s="5" t="s">
@@ -10193,30 +10193,30 @@
       <c r="C254" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D254" s="185" t="s">
+      <c r="D254" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E254" s="186"/>
-      <c r="F254" s="187" t="s">
+      <c r="E254" s="171"/>
+      <c r="F254" s="172" t="s">
         <v>682</v>
       </c>
-      <c r="G254" s="188"/>
-      <c r="H254" s="188"/>
-      <c r="I254" s="189"/>
+      <c r="G254" s="173"/>
+      <c r="H254" s="173"/>
+      <c r="I254" s="174"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B255" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C255" s="190" t="s">
+      <c r="C255" s="175" t="s">
         <v>679</v>
       </c>
-      <c r="D255" s="191"/>
-      <c r="E255" s="191"/>
-      <c r="F255" s="191"/>
-      <c r="G255" s="191"/>
-      <c r="H255" s="191"/>
-      <c r="I255" s="192"/>
+      <c r="D255" s="176"/>
+      <c r="E255" s="176"/>
+      <c r="F255" s="176"/>
+      <c r="G255" s="176"/>
+      <c r="H255" s="176"/>
+      <c r="I255" s="177"/>
     </row>
     <row r="256" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B256" s="32" t="s">
@@ -10488,13 +10488,13 @@
     </row>
     <row r="271" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B271" s="43"/>
-      <c r="C271" s="177"/>
-      <c r="D271" s="178"/>
-      <c r="E271" s="178"/>
-      <c r="F271" s="178"/>
-      <c r="G271" s="178"/>
-      <c r="H271" s="178"/>
-      <c r="I271" s="179"/>
+      <c r="C271" s="178"/>
+      <c r="D271" s="179"/>
+      <c r="E271" s="179"/>
+      <c r="F271" s="179"/>
+      <c r="G271" s="179"/>
+      <c r="H271" s="179"/>
+      <c r="I271" s="180"/>
     </row>
     <row r="272" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="273" spans="2:11" x14ac:dyDescent="0.45">
@@ -10502,14 +10502,14 @@
         <v>4</v>
       </c>
       <c r="C273" s="4"/>
-      <c r="D273" s="180" t="s">
+      <c r="D273" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E273" s="181"/>
-      <c r="F273" s="182"/>
-      <c r="G273" s="183"/>
-      <c r="H273" s="183"/>
-      <c r="I273" s="184"/>
+      <c r="E273" s="182"/>
+      <c r="F273" s="183"/>
+      <c r="G273" s="184"/>
+      <c r="H273" s="184"/>
+      <c r="I273" s="185"/>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B274" s="5" t="s">
@@ -10518,30 +10518,30 @@
       <c r="C274" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D274" s="185" t="s">
+      <c r="D274" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E274" s="186"/>
-      <c r="F274" s="187" t="s">
+      <c r="E274" s="171"/>
+      <c r="F274" s="172" t="s">
         <v>715</v>
       </c>
-      <c r="G274" s="188"/>
-      <c r="H274" s="188"/>
-      <c r="I274" s="189"/>
+      <c r="G274" s="173"/>
+      <c r="H274" s="173"/>
+      <c r="I274" s="174"/>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B275" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C275" s="190" t="s">
+      <c r="C275" s="175" t="s">
         <v>716</v>
       </c>
-      <c r="D275" s="191"/>
-      <c r="E275" s="191"/>
-      <c r="F275" s="191"/>
-      <c r="G275" s="191"/>
-      <c r="H275" s="191"/>
-      <c r="I275" s="192"/>
+      <c r="D275" s="176"/>
+      <c r="E275" s="176"/>
+      <c r="F275" s="176"/>
+      <c r="G275" s="176"/>
+      <c r="H275" s="176"/>
+      <c r="I275" s="177"/>
     </row>
     <row r="276" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B276" s="32" t="s">
@@ -10709,13 +10709,13 @@
     </row>
     <row r="285" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B285" s="43"/>
-      <c r="C285" s="177"/>
-      <c r="D285" s="178"/>
-      <c r="E285" s="178"/>
-      <c r="F285" s="178"/>
-      <c r="G285" s="178"/>
-      <c r="H285" s="178"/>
-      <c r="I285" s="179"/>
+      <c r="C285" s="178"/>
+      <c r="D285" s="179"/>
+      <c r="E285" s="179"/>
+      <c r="F285" s="179"/>
+      <c r="G285" s="179"/>
+      <c r="H285" s="179"/>
+      <c r="I285" s="180"/>
     </row>
     <row r="286" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="287" spans="2:11" x14ac:dyDescent="0.45">
@@ -10723,14 +10723,14 @@
         <v>4</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="180" t="s">
+      <c r="D287" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E287" s="181"/>
-      <c r="F287" s="182"/>
-      <c r="G287" s="183"/>
-      <c r="H287" s="183"/>
-      <c r="I287" s="184"/>
+      <c r="E287" s="182"/>
+      <c r="F287" s="183"/>
+      <c r="G287" s="184"/>
+      <c r="H287" s="184"/>
+      <c r="I287" s="185"/>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B288" s="5" t="s">
@@ -10739,30 +10739,30 @@
       <c r="C288" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="D288" s="185" t="s">
+      <c r="D288" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E288" s="186"/>
-      <c r="F288" s="187" t="s">
+      <c r="E288" s="171"/>
+      <c r="F288" s="172" t="s">
         <v>745</v>
       </c>
-      <c r="G288" s="188"/>
-      <c r="H288" s="188"/>
-      <c r="I288" s="189"/>
+      <c r="G288" s="173"/>
+      <c r="H288" s="173"/>
+      <c r="I288" s="174"/>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B289" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C289" s="190" t="s">
+      <c r="C289" s="175" t="s">
         <v>744</v>
       </c>
-      <c r="D289" s="191"/>
-      <c r="E289" s="191"/>
-      <c r="F289" s="191"/>
-      <c r="G289" s="191"/>
-      <c r="H289" s="191"/>
-      <c r="I289" s="192"/>
+      <c r="D289" s="176"/>
+      <c r="E289" s="176"/>
+      <c r="F289" s="176"/>
+      <c r="G289" s="176"/>
+      <c r="H289" s="176"/>
+      <c r="I289" s="177"/>
     </row>
     <row r="290" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B290" s="32" t="s">
@@ -11056,44 +11056,56 @@
     </row>
     <row r="307" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B307" s="43"/>
-      <c r="C307" s="177"/>
-      <c r="D307" s="178"/>
-      <c r="E307" s="178"/>
-      <c r="F307" s="178"/>
-      <c r="G307" s="178"/>
-      <c r="H307" s="178"/>
-      <c r="I307" s="179"/>
+      <c r="C307" s="178"/>
+      <c r="D307" s="179"/>
+      <c r="E307" s="179"/>
+      <c r="F307" s="179"/>
+      <c r="G307" s="179"/>
+      <c r="H307" s="179"/>
+      <c r="I307" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="F288:I288"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C307:I307"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:I274"/>
-    <mergeCell ref="C275:I275"/>
-    <mergeCell ref="C285:I285"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="F287:I287"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="C255:I255"/>
-    <mergeCell ref="C271:I271"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="F273:I273"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:I238"/>
-    <mergeCell ref="C239:I239"/>
-    <mergeCell ref="C251:I251"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:I253"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="C214:I214"/>
-    <mergeCell ref="C233:I233"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="L2:L39"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="C96:I96"/>
+    <mergeCell ref="L98:L124"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="C125:I125"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="C129:I129"/>
+    <mergeCell ref="C144:I144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:I146"/>
     <mergeCell ref="L146:L177"/>
     <mergeCell ref="D147:E147"/>
     <mergeCell ref="F147:I147"/>
@@ -11107,46 +11119,34 @@
     <mergeCell ref="F183:I183"/>
     <mergeCell ref="C184:I184"/>
     <mergeCell ref="C209:I209"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="C129:I129"/>
-    <mergeCell ref="C144:I144"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="C125:I125"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="C96:I96"/>
-    <mergeCell ref="L98:L124"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="C82:I82"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="L2:L39"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="C214:I214"/>
+    <mergeCell ref="C233:I233"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="C239:I239"/>
+    <mergeCell ref="C251:I251"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:I253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="C255:I255"/>
+    <mergeCell ref="C271:I271"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="F273:I273"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="F288:I288"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C307:I307"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:I274"/>
+    <mergeCell ref="C275:I275"/>
+    <mergeCell ref="C285:I285"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="F287:I287"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13166,43 +13166,43 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
-      <c r="L2" s="163"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="171"/>
-      <c r="L3" s="164"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190"/>
+      <c r="L3" s="187"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173"/>
-      <c r="L4" s="164"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
+      <c r="L4" s="187"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="7" t="s">
@@ -13229,7 +13229,7 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="164"/>
+      <c r="L5" s="187"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="44"/>
@@ -13241,7 +13241,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="164"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="44"/>
@@ -13253,7 +13253,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="21"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="164"/>
+      <c r="L7" s="187"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="44"/>
@@ -13265,7 +13265,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="36"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="164"/>
+      <c r="L8" s="187"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="44"/>
@@ -13277,7 +13277,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="36"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="164"/>
+      <c r="L9" s="187"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="44"/>
@@ -13289,7 +13289,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="36"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="164"/>
+      <c r="L10" s="187"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="44"/>
@@ -13301,7 +13301,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="36"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="164"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="44"/>
@@ -13313,7 +13313,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="60"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="164"/>
+      <c r="L12" s="187"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="64"/>
@@ -13325,7 +13325,7 @@
       <c r="H13" s="70"/>
       <c r="I13" s="71"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="164"/>
+      <c r="L13" s="187"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="48"/>
@@ -13337,7 +13337,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="60"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="164"/>
+      <c r="L14" s="187"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="48"/>
@@ -13349,7 +13349,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="60"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="164"/>
+      <c r="L15" s="187"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="48"/>
@@ -13361,7 +13361,7 @@
       <c r="H16" s="53"/>
       <c r="I16" s="54"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="164"/>
+      <c r="L16" s="187"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="48"/>
@@ -13373,7 +13373,7 @@
       <c r="H17" s="49"/>
       <c r="I17" s="54"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="164"/>
+      <c r="L17" s="187"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="25"/>
@@ -13385,7 +13385,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="24"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="164"/>
+      <c r="L18" s="187"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="25"/>
@@ -13397,7 +13397,7 @@
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="164"/>
+      <c r="L19" s="187"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
@@ -13409,7 +13409,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="164"/>
+      <c r="L20" s="187"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="30"/>
@@ -13421,7 +13421,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="164"/>
+      <c r="L21" s="187"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="30"/>
@@ -13432,7 +13432,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
-      <c r="L22" s="164"/>
+      <c r="L22" s="187"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="30"/>
@@ -13443,7 +13443,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
-      <c r="L23" s="164"/>
+      <c r="L23" s="187"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="30"/>
@@ -13454,7 +13454,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
-      <c r="L24" s="164"/>
+      <c r="L24" s="187"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="30"/>
@@ -13465,7 +13465,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
-      <c r="L25" s="164"/>
+      <c r="L25" s="187"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="30"/>
@@ -13476,7 +13476,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
       <c r="I26" s="29"/>
-      <c r="L26" s="164"/>
+      <c r="L26" s="187"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="30"/>
@@ -13487,17 +13487,17 @@
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
       <c r="I27" s="29"/>
-      <c r="L27" s="165"/>
+      <c r="L27" s="199"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="43"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="41"/>
@@ -13545,10 +13545,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="200" t="s">
         <v>717</v>
       </c>
-      <c r="G3" s="194"/>
+      <c r="G3" s="201"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
